--- a/data/excess_deaths_explanation/2020_vs_10y_by_date_of_occurrence.xlsx
+++ b/data/excess_deaths_explanation/2020_vs_10y_by_date_of_occurrence.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\excess_deaths_explanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2788B-F88B-42A3-AD73-8B63D27A51FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D80C72-C9A5-463B-BD33-A688FF0DC91B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99891810-AEF2-4EE9-B876-20B0CB097BF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{99891810-AEF2-4EE9-B876-20B0CB097BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="review" sheetId="2" r:id="rId2"/>
-    <sheet name="chart" sheetId="3" r:id="rId3"/>
+    <sheet name="screenshot" sheetId="4" r:id="rId2"/>
+    <sheet name="review" sheetId="2" r:id="rId3"/>
+    <sheet name="chart" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Upper 95% confidence interval of estimate</t>
   </si>
@@ -90,9 +91,6 @@
   </si>
   <si>
     <t>2020 - ONS model</t>
-  </si>
-  <si>
-    <t>2020 - Composite uses shape from Logiqx model for first wave</t>
   </si>
   <si>
     <t>Total deaths - 10 year average</t>
@@ -181,7 +179,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -219,6 +217,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 3 13" xfId="1" xr:uid="{1AA78415-73EA-481F-92ED-9A370269D72C}"/>
@@ -226,7 +227,503 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BDC08E85-3A0E-4C3C-977D-D79D601A7906}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2160,7 +2657,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$13</c:f>
+              <c:f>raw!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2353,7 +2850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$13:$BB$13</c:f>
+              <c:f>raw!$B$14:$BB$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="53"/>
@@ -9023,7 +9520,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$13</c:f>
+              <c:f>raw!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9216,7 +9713,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$13:$BB$13</c:f>
+              <c:f>raw!$B$14:$BB$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="53"/>
@@ -10677,7 +11174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$13</c:f>
+              <c:f>raw!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10868,7 +11365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$13:$BB$13</c:f>
+              <c:f>raw!$B$14:$BB$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="53"/>
@@ -13724,7 +14221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$15:$BA$15</c:f>
+              <c:f>raw!$B$13:$BA$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -20002,6 +20499,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C1DB9D-1399-46EA-B60C-DA37EC5FE1EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17630775" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -20271,7 +20834,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20314,7 +20877,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -20425,7 +20988,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Created 9 Jan</a:t>
+            <a:t>Created 10 Jan</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21098,16 +21661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A2520C-6B3C-4481-944A-BDB6E318CF58}">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="Z13" activeCellId="1" sqref="H13:M13 Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="8" customWidth="1"/>
     <col min="2" max="53" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -21323,6 +21886,9 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -21490,136 +22056,136 @@
       <c r="A3" s="7">
         <v>2010</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>11515</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>11838</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>11789</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>10809</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>10530</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>10395</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>10098</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>10193</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>10175</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>9534</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>9713</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>9704</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="3">
         <v>9467</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
         <v>9358</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>9395</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>9092</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>9381</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="3">
         <v>9030</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="3">
         <v>8928</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="3">
         <v>9096</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="3">
         <v>9376</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="3">
         <v>8773</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="3">
         <v>8963</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="3">
         <v>8312</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="3">
         <v>8334</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="3">
         <v>8978</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="3">
         <v>8825</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="3">
         <v>8437</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="3">
         <v>8188</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="3">
         <v>8272</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="3">
         <v>8226</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="3">
         <v>8239</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="3">
         <v>8506</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="3">
         <v>8618</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3" s="3">
         <v>8322</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="3">
         <v>8585</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="3">
         <v>8561</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="3">
         <v>8626</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="3">
         <v>8790</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="3">
         <v>9176</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="3">
         <v>9053</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="3">
         <v>9168</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="3">
         <v>9477</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="3">
         <v>9519</v>
       </c>
       <c r="AT3" s="3">
@@ -21651,136 +22217,136 @@
       <c r="A4" s="7">
         <v>2011</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>12647</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>12363</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>11272</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>10269</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>9958</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>10081</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>9705</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>9553</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>9387</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>9496</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>9959</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>9547</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>9425</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>9488</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>9249</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>9301</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="3">
         <v>9470</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="3">
         <v>8886</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="3">
         <v>9334</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="3">
         <v>8621</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="3">
         <v>9007</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="3">
         <v>8690</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="3">
         <v>8722</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3">
         <v>8726</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="3">
         <v>8599</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="3">
         <v>8888</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="3">
         <v>8454</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="3">
         <v>8459</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="3">
         <v>8471</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="3">
         <v>8482</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="3">
         <v>8578</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="3">
         <v>8555</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="3">
         <v>8373</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="3">
         <v>8325</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="3">
         <v>8247</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="3">
         <v>8503</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="3">
         <v>8630</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="3">
         <v>8515</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="3">
         <v>8715</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="3">
         <v>8880</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="3">
         <v>8523</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="3">
         <v>8525</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="3">
         <v>9103</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="3">
         <v>9472</v>
       </c>
       <c r="AT4" s="3">
@@ -21812,136 +22378,136 @@
       <c r="A5" s="7">
         <v>2012</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>10808</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>10612</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>10111</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>10119</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>10059</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>10578</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>10897</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>10953</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>10852</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>10293</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>10100</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>9894</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>9804</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>9813</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>9708</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>9927</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>10134</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="3">
         <v>9582</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3">
         <v>9491</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3">
         <v>9278</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="3">
         <v>9477</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3">
         <v>9426</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="3">
         <v>8745</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="3">
         <v>9019</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="3">
         <v>8786</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="3">
         <v>8835</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="3">
         <v>8810</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="3">
         <v>8716</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="3">
         <v>8619</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="3">
         <v>8977</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="3">
         <v>8920</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="3">
         <v>8782</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="3">
         <v>8855</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="3">
         <v>8878</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5" s="3">
         <v>8257</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="3">
         <v>8636</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="3">
         <v>8627</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="3">
         <v>8667</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="3">
         <v>9007</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="3">
         <v>9077</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5" s="3">
         <v>9412</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="3">
         <v>9359</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5" s="3">
         <v>9433</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="3">
         <v>9318</v>
       </c>
       <c r="AT5" s="3">
@@ -21973,136 +22539,136 @@
       <c r="A6" s="7">
         <v>2013</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>11681</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>11223</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>10995</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>11085</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>11397</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>10846</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>11074</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>10835</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>11097</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>11371</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>11051</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>11119</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>10958</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>11221</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>11439</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>10770</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>10009</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="3">
         <v>9577</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="3">
         <v>9422</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="3">
         <v>9377</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="3">
         <v>9236</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="3">
         <v>9067</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="3">
         <v>8853</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3">
         <v>8827</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="3">
         <v>8748</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="3">
         <v>8458</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="3">
         <v>8604</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="3">
         <v>8545</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="3">
         <v>8934</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="3">
         <v>8315</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="3">
         <v>8167</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="3">
         <v>8169</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="3">
         <v>8260</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="3">
         <v>8373</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6" s="3">
         <v>8473</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6" s="3">
         <v>8381</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="3">
         <v>8331</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="3">
         <v>8686</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6" s="3">
         <v>9113</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="3">
         <v>9080</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6" s="3">
         <v>8747</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="3">
         <v>9144</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6" s="3">
         <v>9205</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="3">
         <v>9230</v>
       </c>
       <c r="AT6" s="3">
@@ -22134,136 +22700,136 @@
       <c r="A7" s="7">
         <v>2014</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>10732</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>10532</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>10252</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>9878</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>9958</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>10172</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>10337</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>10406</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>9841</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>9841</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>9616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>9542</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>9513</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>9770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>9248</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>9264</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="3">
         <v>9424</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="3">
         <v>9310</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="3">
         <v>9189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="3">
         <v>8840</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="3">
         <v>8995</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="3">
         <v>8765</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="3">
         <v>8857</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="3">
         <v>9148</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="3">
         <v>8668</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="3">
         <v>8767</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="3">
         <v>8813</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="3">
         <v>8695</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="3">
         <v>9002</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="3">
         <v>9004</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="3">
         <v>8644</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="3">
         <v>8474</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7" s="3">
         <v>8547</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7" s="3">
         <v>8766</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ7" s="3">
         <v>9170</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AK7" s="3">
         <v>9005</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7" s="3">
         <v>8746</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7" s="3">
         <v>9123</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7" s="3">
         <v>8756</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7" s="3">
         <v>9238</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7" s="3">
         <v>9097</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="3">
         <v>9573</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AR7" s="3">
         <v>9665</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7" s="3">
         <v>9605</v>
       </c>
       <c r="AT7" s="3">
@@ -22295,136 +22861,136 @@
       <c r="A8" s="7">
         <v>2015</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>14308</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>14653</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>13531</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>12570</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>12331</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>11641</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>11841</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>11447</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>11353</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>10873</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>10643</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>10401</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>10786</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>10592</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>10266</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>10039</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3">
         <v>9956</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="3">
         <v>9713</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="3">
         <v>9705</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="3">
         <v>9600</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="3">
         <v>9469</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="3">
         <v>9333</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="3">
         <v>9449</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="3">
         <v>9363</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="3">
         <v>9062</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="3">
         <v>9074</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="3">
         <v>9223</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="3">
         <v>8638</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="3">
         <v>8542</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="3">
         <v>8567</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="3">
         <v>8861</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="3">
         <v>9172</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8" s="3">
         <v>9108</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8" s="3">
         <v>8932</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8" s="3">
         <v>8745</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AK8" s="3">
         <v>8645</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8" s="3">
         <v>9115</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8" s="3">
         <v>9291</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8" s="3">
         <v>9397</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8" s="3">
         <v>9750</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AP8" s="3">
         <v>9595</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8" s="3">
         <v>9667</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AR8" s="3">
         <v>9794</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8" s="3">
         <v>9947</v>
       </c>
       <c r="AT8" s="3">
@@ -22459,136 +23025,136 @@
       <c r="A9" s="7">
         <v>2016</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>10768</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>11125</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>11146</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>11525</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>10856</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>11256</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>10978</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>11066</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>11018</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>11254</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>11255</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>11172</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="3">
         <v>10915</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>10631</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>10671</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>10514</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
         <v>10112</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="3">
         <v>10026</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="3">
         <v>9952</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="3">
         <v>9592</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="3">
         <v>9488</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="3">
         <v>9076</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="3">
         <v>9263</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="3">
         <v>9385</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="3">
         <v>9167</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="3">
         <v>8971</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="3">
         <v>8927</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="3">
         <v>9503</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="3">
         <v>9141</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="3">
         <v>9713</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="3">
         <v>8988</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="3">
         <v>9082</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AH9" s="3">
         <v>9098</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI9" s="3">
         <v>9132</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AJ9" s="3">
         <v>9278</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AK9" s="3">
         <v>8706</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AL9" s="3">
         <v>8913</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9" s="3">
         <v>9070</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN9" s="3">
         <v>8726</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO9" s="3">
         <v>9224</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AP9" s="3">
         <v>9588</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9" s="3">
         <v>9879</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AR9" s="3">
         <v>9986</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AS9" s="3">
         <v>10206</v>
       </c>
       <c r="AT9" s="3">
@@ -22620,136 +23186,136 @@
       <c r="A10" s="7">
         <v>2017</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>12719</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>13461</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>13032</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>12412</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>12582</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>12063</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>11709</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>11591</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>11019</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>10802</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>10334</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>9990</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="3">
         <v>9905</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <v>9766</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
         <v>9699</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3">
         <v>9584</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="3">
         <v>9623</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="3">
         <v>10006</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="3">
         <v>9678</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="3">
         <v>10088</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="3">
         <v>9569</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="3">
         <v>9458</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="3">
         <v>8875</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="3">
         <v>9044</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="3">
         <v>9855</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="3">
         <v>9140</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="3">
         <v>8813</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="3">
         <v>9170</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="3">
         <v>8834</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="3">
         <v>8897</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="3">
         <v>8861</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG10" s="3">
         <v>9113</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AH10" s="3">
         <v>9213</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10" s="3">
         <v>9207</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AJ10" s="3">
         <v>9207</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AK10" s="3">
         <v>8956</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10" s="3">
         <v>9157</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10" s="3">
         <v>9368</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AN10" s="3">
         <v>9836</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AO10" s="3">
         <v>9711</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AP10" s="3">
         <v>9926</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10" s="3">
         <v>9877</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AR10" s="3">
         <v>10049</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AS10" s="3">
         <v>9759</v>
       </c>
       <c r="AT10" s="3">
@@ -22781,136 +23347,136 @@
       <c r="A11" s="7">
         <v>2018</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>13715</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>13982</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>13640</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>13659</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>12695</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>12221</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>12244</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>12256</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>12147</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>12877</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>12331</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>11577</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>11423</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>10894</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>10422</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3">
         <v>10182</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="3">
         <v>9602</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="3">
         <v>9585</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="3">
         <v>9536</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="3">
         <v>9251</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="3">
         <v>9297</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="3">
         <v>9256</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="3">
         <v>9077</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="3">
         <v>8977</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="3">
         <v>9114</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="3">
         <v>9099</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="3">
         <v>9243</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="3">
         <v>9175</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="3">
         <v>9008</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="3">
         <v>9106</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="3">
         <v>8986</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11" s="3">
         <v>9109</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AH11" s="3">
         <v>8621</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="3">
         <v>8892</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AJ11" s="3">
         <v>8604</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11" s="3">
         <v>8844</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11" s="3">
         <v>9092</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11" s="3">
         <v>9261</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AN11" s="3">
         <v>9018</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AO11" s="3">
         <v>9516</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AP11" s="3">
         <v>9569</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11" s="3">
         <v>9590</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AR11" s="3">
         <v>9196</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11" s="3">
         <v>9812</v>
       </c>
       <c r="AT11" s="3">
@@ -22942,136 +23508,136 @@
       <c r="A12" s="7">
         <v>2019</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>10935</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>11531</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>11442</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>11447</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>11585</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>11690</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>11543</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>11189</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>10726</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>10646</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>10402</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>10242</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="3">
         <v>9688</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <v>9948</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3">
         <v>10262</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3">
         <v>10599</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="3">
         <v>10030</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="3">
         <v>9813</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="3">
         <v>9497</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="3">
         <v>9654</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="3">
         <v>9682</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="3">
         <v>9292</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="3">
         <v>9400</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="3">
         <v>9297</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="3">
         <v>9302</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="3">
         <v>9154</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12" s="3">
         <v>9144</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="3">
         <v>9216</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="3">
         <v>9016</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="3">
         <v>9493</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="3">
         <v>8848</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12" s="3">
         <v>8906</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AH12" s="3">
         <v>8723</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12" s="3">
         <v>8818</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AJ12" s="3">
         <v>9412</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AK12" s="3">
         <v>8976</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL12" s="3">
         <v>9257</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AM12" s="3">
         <v>9115</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AN12" s="3">
         <v>9617</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AO12" s="3">
         <v>9430</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AP12" s="3">
         <v>9926</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ12" s="3">
         <v>10091</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AR12" s="3">
         <v>9914</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12" s="3">
         <v>10217</v>
       </c>
       <c r="AT12" s="3">
@@ -23100,468 +23666,468 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
+      <c r="A13" s="7">
+        <v>2020</v>
       </c>
       <c r="B13" s="2">
+        <f>B14</f>
         <v>12431</v>
       </c>
       <c r="C13" s="2">
+        <f>C14</f>
         <v>12139</v>
       </c>
       <c r="D13" s="2">
+        <f>D14</f>
         <v>11746</v>
       </c>
       <c r="E13" s="2">
+        <f>E14</f>
         <v>10914</v>
       </c>
       <c r="F13" s="2">
+        <f>F14</f>
         <v>11094</v>
       </c>
       <c r="G13" s="2">
+        <f>G14</f>
         <v>10710</v>
       </c>
-      <c r="H13" s="13">
-        <v>10877</v>
-      </c>
-      <c r="I13" s="13">
-        <v>10795</v>
-      </c>
-      <c r="J13" s="13">
-        <v>10647</v>
-      </c>
-      <c r="K13" s="13">
-        <v>10984</v>
-      </c>
-      <c r="L13" s="13">
-        <v>10834</v>
-      </c>
-      <c r="M13" s="13">
-        <v>11401</v>
+      <c r="H13" s="17">
+        <f>H15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10808.082906305257</v>
+      </c>
+      <c r="I13" s="17">
+        <f>I15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10746.883411382873</v>
+      </c>
+      <c r="J13" s="17">
+        <f>J15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10776.778461448752</v>
+      </c>
+      <c r="K13" s="17">
+        <f>K15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10882.185311282639</v>
+      </c>
+      <c r="L13" s="17">
+        <f>L15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10727.122108367874</v>
+      </c>
+      <c r="M13" s="17">
+        <f>M15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10893.827706278415</v>
       </c>
       <c r="N13" s="13">
-        <v>13787</v>
+        <f>N15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>13597.979894342661</v>
       </c>
       <c r="O13" s="13">
-        <v>17897</v>
+        <f>O15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>18360.032095051272</v>
       </c>
       <c r="P13" s="13">
-        <v>22038</v>
+        <f>P15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>21779.869002604413</v>
       </c>
       <c r="Q13" s="13">
-        <v>20922</v>
+        <f>Q15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>21349.045798525829</v>
       </c>
       <c r="R13" s="13">
-        <v>18694</v>
+        <f>R15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>18812.33864437143</v>
       </c>
       <c r="S13" s="13">
-        <v>15825</v>
+        <f>S15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>15980.613068686513</v>
       </c>
       <c r="T13" s="13">
-        <v>13712</v>
+        <f>T15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>13876.933090041888</v>
       </c>
       <c r="U13" s="13">
-        <v>11948</v>
+        <f>U15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>12108.226441585261</v>
       </c>
       <c r="V13" s="13">
-        <v>11354</v>
+        <f>V15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>11090.293811090163</v>
       </c>
       <c r="W13" s="13">
-        <v>10216</v>
+        <f>W15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>10372.156435877996</v>
       </c>
       <c r="X13" s="13">
-        <v>9971</v>
+        <f>X15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>9870.4979098167241</v>
       </c>
       <c r="Y13" s="13">
-        <v>9453</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>9204</v>
+        <f>Y15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>9461.3333982189142</v>
+      </c>
+      <c r="Z13" s="17">
+        <f>Z15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <v>9064.8005047210991</v>
       </c>
       <c r="AA13" s="2">
+        <f>AA14</f>
         <v>9661</v>
       </c>
       <c r="AB13" s="2">
+        <f>AB14</f>
         <v>8740</v>
       </c>
       <c r="AC13" s="2">
+        <f>AC14</f>
         <v>8680</v>
       </c>
       <c r="AD13" s="2">
+        <f>AD14</f>
         <v>8893</v>
       </c>
       <c r="AE13" s="2">
+        <f>AE14</f>
         <v>9070</v>
       </c>
       <c r="AF13" s="2">
+        <f>AF14</f>
         <v>8871</v>
       </c>
       <c r="AG13" s="2">
+        <f>AG14</f>
         <v>9023</v>
       </c>
       <c r="AH13" s="2">
+        <f>AH14</f>
         <v>10154</v>
       </c>
       <c r="AI13" s="2">
+        <f>AI14</f>
         <v>8853</v>
       </c>
       <c r="AJ13" s="2">
+        <f>AJ14</f>
         <v>8673</v>
       </c>
       <c r="AK13" s="2">
+        <f>AK14</f>
         <v>9084</v>
       </c>
       <c r="AL13" s="2">
+        <f>AL14</f>
         <v>9159</v>
       </c>
       <c r="AM13" s="2">
+        <f>AM14</f>
         <v>9463</v>
       </c>
       <c r="AN13" s="2">
+        <f>AN14</f>
         <v>9621</v>
       </c>
       <c r="AO13" s="2">
+        <f>AO14</f>
         <v>9987</v>
       </c>
       <c r="AP13" s="2">
+        <f>AP14</f>
         <v>10351</v>
       </c>
       <c r="AQ13" s="2">
+        <f>AQ14</f>
         <v>10392</v>
       </c>
       <c r="AR13" s="2">
+        <f>AR14</f>
         <v>11078</v>
       </c>
       <c r="AS13" s="2">
+        <f>AS14</f>
         <v>11431</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AT13" s="2">
+        <f>AT14</f>
         <v>11788</v>
       </c>
-      <c r="AU13" s="3">
+      <c r="AU13" s="2">
+        <f>AU14</f>
         <v>12370</v>
       </c>
-      <c r="AV13" s="3">
+      <c r="AV13" s="2">
+        <f>AV14</f>
         <v>12338</v>
       </c>
-      <c r="AW13" s="3">
+      <c r="AW13" s="2">
+        <f>AW14</f>
         <v>12456</v>
       </c>
-      <c r="AX13" s="3">
+      <c r="AX13" s="2">
+        <f>AX14</f>
         <v>12675</v>
       </c>
-      <c r="AY13" s="3">
+      <c r="AY13" s="2">
+        <f>AY14</f>
         <v>13037</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="AZ13" s="2">
+        <f>AZ14</f>
         <v>13197</v>
       </c>
-      <c r="BA13" s="14"/>
+      <c r="BA13" s="15"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12431</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12139</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11746</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10914</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11094</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10710</v>
+      </c>
       <c r="H14" s="13">
-        <v>10889.41</v>
+        <v>10877</v>
       </c>
       <c r="I14" s="13">
-        <v>10827.75</v>
+        <v>10795</v>
       </c>
       <c r="J14" s="13">
-        <v>10857.869999999999</v>
+        <v>10647</v>
       </c>
       <c r="K14" s="13">
-        <v>10964.07</v>
+        <v>10984</v>
       </c>
       <c r="L14" s="13">
-        <v>10807.84</v>
+        <v>10834</v>
       </c>
       <c r="M14" s="13">
-        <v>10975.8</v>
+        <v>11401</v>
       </c>
       <c r="N14" s="13">
-        <v>13700.3</v>
+        <v>13787</v>
       </c>
       <c r="O14" s="13">
-        <v>18498.184999999998</v>
+        <v>17897</v>
       </c>
       <c r="P14" s="13">
-        <v>21943.755000000001</v>
+        <v>22038</v>
       </c>
       <c r="Q14" s="13">
-        <v>21509.690000000002</v>
+        <v>20922</v>
       </c>
       <c r="R14" s="13">
-        <v>18953.895</v>
+        <v>18694</v>
       </c>
       <c r="S14" s="13">
-        <v>16100.861666666668</v>
+        <v>15825</v>
       </c>
       <c r="T14" s="13">
-        <v>13981.352222222224</v>
+        <v>13712</v>
       </c>
       <c r="U14" s="13">
-        <v>12199.336666666666</v>
+        <v>11948</v>
       </c>
       <c r="V14" s="13">
-        <v>11173.744444444445</v>
+        <v>11354</v>
       </c>
       <c r="W14" s="13">
-        <v>10450.203333333333</v>
+        <v>10216</v>
       </c>
       <c r="X14" s="13">
-        <v>9944.77</v>
+        <v>9971</v>
       </c>
       <c r="Y14" s="13">
-        <v>9532.5266666666666</v>
+        <v>9453</v>
       </c>
       <c r="Z14" s="13">
-        <v>9133.01</v>
-      </c>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
+        <v>9204</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>9661</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>8740</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>8680</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>8893</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>9070</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>8871</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>9023</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>10154</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>8853</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>8673</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>9084</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>9159</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>9463</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>9621</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>9987</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>10351</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>10392</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>11078</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>11431</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>11788</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>12370</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>12338</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>12456</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>12675</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>13037</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>13197</v>
+      </c>
       <c r="BA14" s="14"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <f>B13</f>
-        <v>12431</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:G15" si="1">C13</f>
-        <v>12139</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>11746</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>10914</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>11094</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>10710</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="13">
-        <f>H14/SUM($H$14:$Z$14)*SUM($H$13:$Z$13)</f>
-        <v>10808.082906305257</v>
+        <v>10889.41</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" ref="I15:Z15" si="2">I14/SUM($H$14:$Z$14)*SUM($H$13:$Z$13)</f>
-        <v>10746.883411382873</v>
+        <v>10827.75</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>10776.778461448752</v>
+        <v>10857.869999999999</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="2"/>
-        <v>10882.185311282639</v>
+        <v>10964.07</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="2"/>
-        <v>10727.122108367874</v>
+        <v>10807.84</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" si="2"/>
-        <v>10893.827706278415</v>
+        <v>10975.8</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="2"/>
-        <v>13597.979894342661</v>
+        <v>13700.3</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="2"/>
-        <v>18360.032095051272</v>
+        <v>18498.184999999998</v>
       </c>
       <c r="P15" s="13">
-        <f t="shared" si="2"/>
-        <v>21779.869002604413</v>
+        <v>21943.755000000001</v>
       </c>
       <c r="Q15" s="13">
-        <f t="shared" si="2"/>
-        <v>21349.045798525829</v>
+        <v>21509.690000000002</v>
       </c>
       <c r="R15" s="13">
-        <f t="shared" si="2"/>
-        <v>18812.33864437143</v>
+        <v>18953.895</v>
       </c>
       <c r="S15" s="13">
-        <f t="shared" si="2"/>
-        <v>15980.613068686513</v>
+        <v>16100.861666666668</v>
       </c>
       <c r="T15" s="13">
-        <f t="shared" si="2"/>
-        <v>13876.933090041888</v>
+        <v>13981.352222222224</v>
       </c>
       <c r="U15" s="13">
-        <f t="shared" si="2"/>
-        <v>12108.226441585261</v>
+        <v>12199.336666666666</v>
       </c>
       <c r="V15" s="13">
-        <f t="shared" si="2"/>
-        <v>11090.293811090163</v>
+        <v>11173.744444444445</v>
       </c>
       <c r="W15" s="13">
-        <f t="shared" si="2"/>
-        <v>10372.156435877996</v>
+        <v>10450.203333333333</v>
       </c>
       <c r="X15" s="13">
-        <f t="shared" si="2"/>
-        <v>9870.4979098167241</v>
+        <v>9944.77</v>
       </c>
       <c r="Y15" s="13">
-        <f t="shared" si="2"/>
-        <v>9461.3333982189142</v>
+        <v>9532.5266666666666</v>
       </c>
       <c r="Z15" s="13">
-        <f t="shared" si="2"/>
-        <v>9064.8005047210991</v>
-      </c>
-      <c r="AA15" s="2">
-        <f t="shared" ref="AA15:AZ15" si="3">AA13</f>
-        <v>9661</v>
-      </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="3"/>
-        <v>8740</v>
-      </c>
-      <c r="AC15" s="2">
-        <f t="shared" si="3"/>
-        <v>8680</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="3"/>
-        <v>8893</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="3"/>
-        <v>9070</v>
-      </c>
-      <c r="AF15" s="2">
-        <f t="shared" si="3"/>
-        <v>8871</v>
-      </c>
-      <c r="AG15" s="2">
-        <f t="shared" si="3"/>
-        <v>9023</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="3"/>
-        <v>10154</v>
-      </c>
-      <c r="AI15" s="2">
-        <f t="shared" si="3"/>
-        <v>8853</v>
-      </c>
-      <c r="AJ15" s="2">
-        <f t="shared" si="3"/>
-        <v>8673</v>
-      </c>
-      <c r="AK15" s="2">
-        <f t="shared" si="3"/>
-        <v>9084</v>
-      </c>
-      <c r="AL15" s="2">
-        <f t="shared" si="3"/>
-        <v>9159</v>
-      </c>
-      <c r="AM15" s="2">
-        <f t="shared" si="3"/>
-        <v>9463</v>
-      </c>
-      <c r="AN15" s="2">
-        <f t="shared" si="3"/>
-        <v>9621</v>
-      </c>
-      <c r="AO15" s="2">
-        <f t="shared" si="3"/>
-        <v>9987</v>
-      </c>
-      <c r="AP15" s="2">
-        <f t="shared" si="3"/>
-        <v>10351</v>
-      </c>
-      <c r="AQ15" s="2">
-        <f t="shared" si="3"/>
-        <v>10392</v>
-      </c>
-      <c r="AR15" s="2">
-        <f t="shared" si="3"/>
-        <v>11078</v>
-      </c>
-      <c r="AS15" s="2">
-        <f t="shared" si="3"/>
-        <v>11431</v>
-      </c>
-      <c r="AT15" s="2">
-        <f t="shared" si="3"/>
-        <v>11788</v>
-      </c>
-      <c r="AU15" s="2">
-        <f t="shared" si="3"/>
-        <v>12370</v>
-      </c>
-      <c r="AV15" s="2">
-        <f t="shared" si="3"/>
-        <v>12338</v>
-      </c>
-      <c r="AW15" s="2">
-        <f t="shared" si="3"/>
-        <v>12456</v>
-      </c>
-      <c r="AX15" s="2">
-        <f t="shared" si="3"/>
-        <v>12675</v>
-      </c>
-      <c r="AY15" s="2">
-        <f t="shared" si="3"/>
-        <v>13037</v>
-      </c>
-      <c r="AZ15" s="2">
-        <f t="shared" si="3"/>
-        <v>13197</v>
-      </c>
-      <c r="BA15" s="15"/>
+        <v>9133.01</v>
+      </c>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -23887,214 +24453,214 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <f>AVERAGE(B3:B12)</f>
         <v>11982.8</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:BA18" si="4">AVERAGE(C3:C12)</f>
+        <f>AVERAGE(C3:C12)</f>
         <v>12132</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D3:D12)</f>
         <v>11721</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(E3:E12)</f>
         <v>11377.3</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(F3:F12)</f>
         <v>11195.1</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G3:G12)</f>
         <v>11094.3</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(H3:H12)</f>
         <v>11042.6</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I3:I12)</f>
         <v>10948.9</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J3:J12)</f>
         <v>10761.5</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(K3:K12)</f>
         <v>10698.7</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(L3:L12)</f>
         <v>10540.4</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(M3:M12)</f>
         <v>10318.799999999999</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(N3:N12)</f>
         <v>10188.4</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(O3:O12)</f>
         <v>10148.1</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(P3:P12)</f>
         <v>10035.9</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(Q3:Q12)</f>
         <v>9927.2000000000007</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(R3:R12)</f>
         <v>9774.1</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(S3:S12)</f>
         <v>9552.7999999999993</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(T3:T12)</f>
         <v>9473.2000000000007</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(U3:U12)</f>
         <v>9339.7000000000007</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(V3:V12)</f>
         <v>9359.6</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(W3:W12)</f>
         <v>9113.6</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(X3:X12)</f>
         <v>9020.4</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(Y3:Y12)</f>
         <v>9009.7999999999993</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(Z3:Z12)</f>
         <v>8963.5</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AA3:AA12)</f>
         <v>8936.4</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AB3:AB12)</f>
         <v>8885.6</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AC3:AC12)</f>
         <v>8855.4</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AD3:AD12)</f>
         <v>8775.5</v>
       </c>
       <c r="AE18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AE3:AE12)</f>
         <v>8882.6</v>
       </c>
       <c r="AF18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AF3:AF12)</f>
         <v>8707.9</v>
       </c>
       <c r="AG18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AG3:AG12)</f>
         <v>8760.1</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AH3:AH12)</f>
         <v>8730.4</v>
       </c>
       <c r="AI18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AI3:AI12)</f>
         <v>8794.1</v>
       </c>
       <c r="AJ18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AJ3:AJ12)</f>
         <v>8771.5</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AK3:AK12)</f>
         <v>8723.7000000000007</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AL3:AL12)</f>
         <v>8842.9</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AM3:AM12)</f>
         <v>8972.2000000000007</v>
       </c>
       <c r="AN18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AN3:AN12)</f>
         <v>9097.5</v>
       </c>
       <c r="AO18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AO3:AO12)</f>
         <v>9308.2000000000007</v>
       </c>
       <c r="AP18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AP3:AP12)</f>
         <v>9343.6</v>
       </c>
       <c r="AQ18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AQ3:AQ12)</f>
         <v>9487.2999999999993</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AR3:AR12)</f>
         <v>9582.2000000000007</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AS3:AS12)</f>
         <v>9708.5</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AT3:AT12)</f>
         <v>9732.6</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AU3:AU12)</f>
         <v>9917.1</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AV3:AV12)</f>
         <v>9841.4</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AW3:AW12)</f>
         <v>10060.6</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AX3:AX12)</f>
         <v>10336.700000000001</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AY3:AY12)</f>
         <v>10753.1</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(AZ3:AZ12)</f>
         <v>11147.2</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(BA3:BA12)</f>
         <v>11495</v>
       </c>
     </row>
@@ -24107,207 +24673,207 @@
         <v>10732</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:BA20" si="5">MIN(C$3:C$12)</f>
+        <f t="shared" ref="C20:BA20" si="1">MIN(C$3:C$12)</f>
         <v>10532</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10111</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9878</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9958</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10081</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9705</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9553</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9387</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9496</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9616</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9542</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9425</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9358</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9248</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9092</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9381</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8886</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8928</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8621</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8995</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8690</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8722</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8312</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8334</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8458</v>
       </c>
       <c r="AB20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8454</v>
       </c>
       <c r="AC20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8437</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8188</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8272</v>
       </c>
       <c r="AF20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8167</v>
       </c>
       <c r="AG20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8169</v>
       </c>
       <c r="AH20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8260</v>
       </c>
       <c r="AI20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8325</v>
       </c>
       <c r="AJ20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8247</v>
       </c>
       <c r="AK20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8381</v>
       </c>
       <c r="AL20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8331</v>
       </c>
       <c r="AM20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8515</v>
       </c>
       <c r="AN20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8715</v>
       </c>
       <c r="AO20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8880</v>
       </c>
       <c r="AP20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8523</v>
       </c>
       <c r="AQ20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>8525</v>
       </c>
       <c r="AR20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9103</v>
       </c>
       <c r="AS20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9230</v>
       </c>
       <c r="AT20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9027</v>
       </c>
       <c r="AU20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9171</v>
       </c>
       <c r="AV20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9158</v>
       </c>
       <c r="AW20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9282</v>
       </c>
       <c r="AX20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9643</v>
       </c>
       <c r="AY20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9932</v>
       </c>
       <c r="AZ20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>9984</v>
       </c>
       <c r="BA20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10352</v>
       </c>
     </row>
@@ -24320,207 +24886,207 @@
         <v>14308</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:BA21" si="6">MAX(C$3:C$12)</f>
+        <f t="shared" ref="C21:BA21" si="2">MAX(C$3:C$12)</f>
         <v>14653</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>13640</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>13659</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12695</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12221</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12244</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12256</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12147</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12877</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12331</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11577</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11423</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11221</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11439</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10770</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10134</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10026</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9952</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10088</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9682</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9458</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9449</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9385</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9855</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9154</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9243</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9503</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9141</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9713</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8988</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9172</v>
       </c>
       <c r="AH21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9213</v>
       </c>
       <c r="AI21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9207</v>
       </c>
       <c r="AJ21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9412</v>
       </c>
       <c r="AK21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9005</v>
       </c>
       <c r="AL21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9257</v>
       </c>
       <c r="AM21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9368</v>
       </c>
       <c r="AN21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9836</v>
       </c>
       <c r="AO21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9750</v>
       </c>
       <c r="AP21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9926</v>
       </c>
       <c r="AQ21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10091</v>
       </c>
       <c r="AR21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10049</v>
       </c>
       <c r="AS21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10217</v>
       </c>
       <c r="AT21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10493</v>
       </c>
       <c r="AU21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10818</v>
       </c>
       <c r="AV21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10817</v>
       </c>
       <c r="AW21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11044</v>
       </c>
       <c r="AX21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11169</v>
       </c>
       <c r="AY21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11488</v>
       </c>
       <c r="AZ21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12232</v>
       </c>
       <c r="BA21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12772</v>
       </c>
     </row>
@@ -24533,207 +25099,207 @@
         <v>3576</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:BA22" si="7">C21-C20</f>
+        <f t="shared" ref="C22:BA22" si="3">C21-C20</f>
         <v>4121</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3529</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3781</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2737</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2140</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2539</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2703</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3381</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2715</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2035</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1998</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1863</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2191</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1678</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>753</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1140</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1467</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>687</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>768</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>727</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1073</v>
       </c>
       <c r="Z22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1521</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>696</v>
       </c>
       <c r="AB22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>789</v>
       </c>
       <c r="AC22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1066</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>953</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1441</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>821</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1003</v>
       </c>
       <c r="AH22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>953</v>
       </c>
       <c r="AI22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>882</v>
       </c>
       <c r="AJ22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1165</v>
       </c>
       <c r="AK22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>624</v>
       </c>
       <c r="AL22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>926</v>
       </c>
       <c r="AM22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>853</v>
       </c>
       <c r="AN22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1121</v>
       </c>
       <c r="AO22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>870</v>
       </c>
       <c r="AP22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1403</v>
       </c>
       <c r="AQ22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1566</v>
       </c>
       <c r="AR22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>946</v>
       </c>
       <c r="AS22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>987</v>
       </c>
       <c r="AT22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1466</v>
       </c>
       <c r="AU22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1647</v>
       </c>
       <c r="AV22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1659</v>
       </c>
       <c r="AW22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1762</v>
       </c>
       <c r="AX22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1526</v>
       </c>
       <c r="AY22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1556</v>
       </c>
       <c r="AZ22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2248</v>
       </c>
       <c r="BA22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2420</v>
       </c>
     </row>
@@ -24742,211 +25308,211 @@
         <v>3</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ref="B24:AG24" si="8">AVERAGE(B8:B12)</f>
+        <f>AVERAGE(B8:B12)</f>
         <v>12489</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(C8:C12)</f>
         <v>12950.4</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(D8:D12)</f>
         <v>12558.2</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(E8:E12)</f>
         <v>12322.6</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(F8:F12)</f>
         <v>12009.8</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(G8:G12)</f>
         <v>11774.2</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(H8:H12)</f>
         <v>11663</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(I8:I12)</f>
         <v>11509.8</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(J8:J12)</f>
         <v>11252.6</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(K8:K12)</f>
         <v>11290.4</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(L8:L12)</f>
         <v>10993</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(M8:M12)</f>
         <v>10676.4</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(N8:N12)</f>
         <v>10543.4</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(O8:O12)</f>
         <v>10366.200000000001</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(P8:P12)</f>
         <v>10264</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(Q8:Q12)</f>
         <v>10183.6</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(R8:R12)</f>
         <v>9864.6</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(S8:S12)</f>
         <v>9828.6</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(T8:T12)</f>
         <v>9673.6</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(U8:U12)</f>
         <v>9637</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(V8:V12)</f>
         <v>9501</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(W8:W12)</f>
         <v>9283</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(X8:X12)</f>
         <v>9212.7999999999993</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(Y8:Y12)</f>
         <v>9213.2000000000007</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(Z8:Z12)</f>
         <v>9300</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AA8:AA12)</f>
         <v>9087.6</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AB8:AB12)</f>
         <v>9070</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AC8:AC12)</f>
         <v>9140.4</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AD8:AD12)</f>
         <v>8908.2000000000007</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AE8:AE12)</f>
         <v>9155.2000000000007</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AF8:AF12)</f>
         <v>8908.7999999999993</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(AG8:AG12)</f>
         <v>9076.4</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" ref="AH24:BA24" si="9">AVERAGE(AH8:AH12)</f>
+        <f>AVERAGE(AH8:AH12)</f>
         <v>8952.6</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AI8:AI12)</f>
         <v>8996.2000000000007</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AJ8:AJ12)</f>
         <v>9049.2000000000007</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AK8:AK12)</f>
         <v>8825.4</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AL8:AL12)</f>
         <v>9106.7999999999993</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AM8:AM12)</f>
         <v>9221</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AN8:AN12)</f>
         <v>9318.7999999999993</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AO8:AO12)</f>
         <v>9526.2000000000007</v>
       </c>
       <c r="AP24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AP8:AP12)</f>
         <v>9720.7999999999993</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AQ8:AQ12)</f>
         <v>9820.7999999999993</v>
       </c>
       <c r="AR24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AR8:AR12)</f>
         <v>9787.7999999999993</v>
       </c>
       <c r="AS24" s="2">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AS8:AS12)</f>
         <v>9988.2000000000007</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AT8:AT12)</f>
         <v>10139.4</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AU8:AU12)</f>
         <v>10254</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AV8:AV12)</f>
         <v>10218</v>
       </c>
       <c r="AW24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AW8:AW12)</f>
         <v>10483.200000000001</v>
       </c>
       <c r="AX24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AX8:AX12)</f>
         <v>10673.8</v>
       </c>
       <c r="AY24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AY8:AY12)</f>
         <v>10987.6</v>
       </c>
       <c r="AZ24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(AZ8:AZ12)</f>
         <v>11248.4</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(BA8:BA12)</f>
         <v>11532.2</v>
       </c>
     </row>
@@ -24959,207 +25525,207 @@
         <v>506.20000000000073</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:BA25" si="10">C24-C18</f>
+        <f t="shared" ref="C25:BA25" si="4">C24-C18</f>
         <v>818.39999999999964</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>837.20000000000073</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>945.30000000000109</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>814.69999999999891</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>679.90000000000146</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>620.39999999999964</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>560.89999999999964</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>491.10000000000036</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>591.69999999999891</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>452.60000000000036</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>357.60000000000036</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>355</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>218.10000000000036</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>228.10000000000036</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>256.39999999999964</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>90.5</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>275.80000000000109</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>200.39999999999964</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>297.29999999999927</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>141.39999999999964</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>169.39999999999964</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>192.39999999999964</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>203.40000000000146</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>336.5</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>151.20000000000073</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>184.39999999999964</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>132.70000000000073</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>272.60000000000036</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>200.89999999999964</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>316.29999999999927</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>222.20000000000073</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>202.10000000000036</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>277.70000000000073</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>101.69999999999891</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>263.89999999999964</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>248.79999999999927</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>221.29999999999927</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>218</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>377.19999999999891</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>333.5</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>205.59999999999854</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>279.70000000000073</v>
       </c>
       <c r="AT25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>406.79999999999927</v>
       </c>
       <c r="AU25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>336.89999999999964</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>376.60000000000036</v>
       </c>
       <c r="AW25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>422.60000000000036</v>
       </c>
       <c r="AX25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>337.09999999999854</v>
       </c>
       <c r="AY25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>234.5</v>
       </c>
       <c r="AZ25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>101.19999999999891</v>
       </c>
       <c r="BA25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>37.200000000000728</v>
       </c>
     </row>
@@ -25553,167 +26119,167 @@
         <v>1</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" ref="M32:BA32" si="11">M31/M30</f>
+        <f t="shared" ref="M32:BA32" si="5">M31/M30</f>
         <v>0.92233009708737868</v>
       </c>
       <c r="N32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.96289424860853434</v>
       </c>
       <c r="O32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.95884892086330931</v>
       </c>
       <c r="P32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.96298084661194272</v>
       </c>
       <c r="Q32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.96311943366065311</v>
       </c>
       <c r="R32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.95508073327667842</v>
       </c>
       <c r="S32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.94266777133388568</v>
       </c>
       <c r="T32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93231552162849873</v>
       </c>
       <c r="U32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.92152230971128613</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.90421011973735033</v>
       </c>
       <c r="W32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.89352360043907797</v>
       </c>
       <c r="X32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.87657430730478592</v>
       </c>
       <c r="Y32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.85098743267504484</v>
       </c>
       <c r="Z32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.80332056194125157</v>
       </c>
       <c r="AA32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.82178217821782173</v>
       </c>
       <c r="AB32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.76691729323308266</v>
       </c>
       <c r="AC32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.79508196721311475</v>
       </c>
       <c r="AD32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.77288135593220342</v>
       </c>
       <c r="AE32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.74193548387096775</v>
       </c>
       <c r="AF32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.76683937823834192</v>
       </c>
       <c r="AG32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.75657894736842102</v>
       </c>
       <c r="AH32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.74820143884892087</v>
       </c>
       <c r="AI32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.71014492753623193</v>
       </c>
       <c r="AJ32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.75247524752475248</v>
       </c>
       <c r="AK32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.88461538461538458</v>
       </c>
       <c r="AL32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.78787878787878785</v>
       </c>
       <c r="AM32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.84892086330935257</v>
       </c>
       <c r="AN32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.82790697674418601</v>
       </c>
       <c r="AO32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.86915887850467288</v>
       </c>
       <c r="AP32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.87899543378995437</v>
       </c>
       <c r="AQ32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.88059701492537312</v>
       </c>
       <c r="AR32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.8936605316973415</v>
       </c>
       <c r="AS32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.86729514140681652</v>
       </c>
       <c r="AT32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.89984512132163141</v>
       </c>
       <c r="AU32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.87996755879967559</v>
       </c>
       <c r="AV32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.87541713014460509</v>
       </c>
       <c r="AW32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.86743421052631575</v>
       </c>
       <c r="AX32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.87089947089947095</v>
       </c>
       <c r="AY32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.84796806966618288</v>
       </c>
       <c r="AZ32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.8563295378432686</v>
       </c>
       <c r="BA32" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.85748626373626369</v>
       </c>
     </row>
@@ -25735,171 +26301,171 @@
         <v>2.5</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ref="L34:BA35" si="12">AVERAGE(L30:M30)</f>
+        <f t="shared" ref="L34:BA35" si="6">AVERAGE(L30:M30)</f>
         <v>54</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>321</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2007</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4844</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7485.5</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8497.5</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7136</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4982.5</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3870</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3199.5</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2205.5</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1705</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1351</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>948.5</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>694.5</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>569</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>330.5</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="AE34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="AF34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>172.5</v>
       </c>
       <c r="AG34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>145.5</v>
       </c>
       <c r="AH34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>138.5</v>
       </c>
       <c r="AI34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>119.5</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>89.5</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>88.5</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>268</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>379.5</v>
       </c>
       <c r="AP34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>554</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>824</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1178.5</v>
       </c>
       <c r="AS34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1658</v>
       </c>
       <c r="AT34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2201.5</v>
       </c>
       <c r="AU34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2581.5</v>
       </c>
       <c r="AV34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2868.5</v>
       </c>
       <c r="AW34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2937.5</v>
       </c>
       <c r="AX34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2795.5</v>
       </c>
       <c r="AY34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2871</v>
       </c>
       <c r="AZ34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2949</v>
       </c>
       <c r="BA34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2912</v>
       </c>
     </row>
@@ -25921,171 +26487,171 @@
         <v>2.5</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1925.5</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4657.5</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>7209</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8151</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6778</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4676.5</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3587.5</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2926</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1984.5</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1510</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1170</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>788.5</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>563.5</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>453</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>349.5</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>259.5</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>194.5</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>154.5</v>
       </c>
       <c r="AF35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>131.5</v>
       </c>
       <c r="AG35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>109.5</v>
       </c>
       <c r="AH35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="AI35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>72.5</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>73.5</v>
       </c>
       <c r="AL35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="AN35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>228.5</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="AP35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>487.5</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>732</v>
       </c>
       <c r="AR35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1035</v>
       </c>
       <c r="AS35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1469.5</v>
       </c>
       <c r="AT35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1956.5</v>
       </c>
       <c r="AU35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2265.5</v>
       </c>
       <c r="AV35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2499</v>
       </c>
       <c r="AW35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2553</v>
       </c>
       <c r="AX35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2403</v>
       </c>
       <c r="AY35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2447</v>
       </c>
       <c r="AZ35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2527</v>
       </c>
       <c r="BA35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2497</v>
       </c>
     </row>
@@ -26129,167 +26695,167 @@
         <v>0.92592592592592593</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" ref="M36" si="13">M35/M34</f>
+        <f t="shared" ref="M36" si="7">M35/M34</f>
         <v>0.95638629283489096</v>
       </c>
       <c r="N36" s="10">
-        <f t="shared" ref="N36" si="14">N35/N34</f>
+        <f t="shared" ref="N36" si="8">N35/N34</f>
         <v>0.95939212755356251</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" ref="O36" si="15">O35/O34</f>
+        <f t="shared" ref="O36" si="9">O35/O34</f>
         <v>0.96149876135425272</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" ref="P36" si="16">P35/P34</f>
+        <f t="shared" ref="P36" si="10">P35/P34</f>
         <v>0.96306191971144217</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" ref="Q36" si="17">Q35/Q34</f>
+        <f t="shared" ref="Q36" si="11">Q35/Q34</f>
         <v>0.95922330097087383</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" ref="R36" si="18">R35/R34</f>
+        <f t="shared" ref="R36" si="12">R35/R34</f>
         <v>0.9498318385650224</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36" si="19">S35/S34</f>
+        <f t="shared" ref="S36" si="13">S35/S34</f>
         <v>0.93858504766683393</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="20">T35/T34</f>
+        <f t="shared" ref="T36" si="14">T35/T34</f>
         <v>0.92700258397932822</v>
       </c>
       <c r="U36" s="10">
-        <f t="shared" ref="U36" si="21">U35/U34</f>
+        <f t="shared" ref="U36" si="15">U35/U34</f>
         <v>0.91451789342084699</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36" si="22">V35/V34</f>
+        <f t="shared" ref="V36" si="16">V35/V34</f>
         <v>0.8997959646338699</v>
       </c>
       <c r="W36" s="10">
-        <f t="shared" ref="W36" si="23">W35/W34</f>
+        <f t="shared" ref="W36" si="17">W35/W34</f>
         <v>0.88563049853372433</v>
       </c>
       <c r="X36" s="10">
-        <f t="shared" ref="X36" si="24">X35/X34</f>
+        <f t="shared" ref="X36" si="18">X35/X34</f>
         <v>0.86602516654330131</v>
       </c>
       <c r="Y36" s="10">
-        <f t="shared" ref="Y36" si="25">Y35/Y34</f>
+        <f t="shared" ref="Y36" si="19">Y35/Y34</f>
         <v>0.83131259884027409</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" ref="Z36" si="26">Z35/Z34</f>
+        <f t="shared" ref="Z36" si="20">Z35/Z34</f>
         <v>0.81137508999280061</v>
       </c>
       <c r="AA36" s="10">
-        <f t="shared" ref="AA36" si="27">AA35/AA34</f>
+        <f t="shared" ref="AA36" si="21">AA35/AA34</f>
         <v>0.79613356766256593</v>
       </c>
       <c r="AB36" s="10">
-        <f t="shared" ref="AB36" si="28">AB35/AB34</f>
+        <f t="shared" ref="AB36" si="22">AB35/AB34</f>
         <v>0.77839643652561252</v>
       </c>
       <c r="AC36" s="10">
-        <f t="shared" ref="AC36" si="29">AC35/AC34</f>
+        <f t="shared" ref="AC36" si="23">AC35/AC34</f>
         <v>0.78517397881996975</v>
       </c>
       <c r="AD36" s="10">
-        <f t="shared" ref="AD36" si="30">AD35/AD34</f>
+        <f t="shared" ref="AD36" si="24">AD35/AD34</f>
         <v>0.759765625</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" ref="AE36" si="31">AE35/AE34</f>
+        <f t="shared" ref="AE36" si="25">AE35/AE34</f>
         <v>0.75365853658536586</v>
       </c>
       <c r="AF36" s="10">
-        <f t="shared" ref="AF36" si="32">AF35/AF34</f>
+        <f t="shared" ref="AF36" si="26">AF35/AF34</f>
         <v>0.76231884057971011</v>
       </c>
       <c r="AG36" s="10">
-        <f t="shared" ref="AG36" si="33">AG35/AG34</f>
+        <f t="shared" ref="AG36" si="27">AG35/AG34</f>
         <v>0.75257731958762886</v>
       </c>
       <c r="AH36" s="10">
-        <f t="shared" ref="AH36" si="34">AH35/AH34</f>
+        <f t="shared" ref="AH36" si="28">AH35/AH34</f>
         <v>0.72924187725631773</v>
       </c>
       <c r="AI36" s="10">
-        <f t="shared" ref="AI36" si="35">AI35/AI34</f>
+        <f t="shared" ref="AI36" si="29">AI35/AI34</f>
         <v>0.72803347280334729</v>
       </c>
       <c r="AJ36" s="10">
-        <f t="shared" ref="AJ36" si="36">AJ35/AJ34</f>
+        <f t="shared" ref="AJ36" si="30">AJ35/AJ34</f>
         <v>0.81005586592178769</v>
       </c>
       <c r="AK36" s="10">
-        <f t="shared" ref="AK36" si="37">AK35/AK34</f>
+        <f t="shared" ref="AK36" si="31">AK35/AK34</f>
         <v>0.83050847457627119</v>
       </c>
       <c r="AL36" s="10">
-        <f t="shared" ref="AL36" si="38">AL35/AL34</f>
+        <f t="shared" ref="AL36" si="32">AL35/AL34</f>
         <v>0.82352941176470584</v>
       </c>
       <c r="AM36" s="10">
-        <f t="shared" ref="AM36" si="39">AM35/AM34</f>
+        <f t="shared" ref="AM36" si="33">AM35/AM34</f>
         <v>0.83615819209039544</v>
       </c>
       <c r="AN36" s="10">
-        <f t="shared" ref="AN36" si="40">AN35/AN34</f>
+        <f t="shared" ref="AN36" si="34">AN35/AN34</f>
         <v>0.85261194029850751</v>
       </c>
       <c r="AO36" s="10">
-        <f t="shared" ref="AO36" si="41">AO35/AO34</f>
+        <f t="shared" ref="AO36" si="35">AO35/AO34</f>
         <v>0.87483530961791833</v>
       </c>
       <c r="AP36" s="10">
-        <f t="shared" ref="AP36" si="42">AP35/AP34</f>
+        <f t="shared" ref="AP36" si="36">AP35/AP34</f>
         <v>0.87996389891696747</v>
       </c>
       <c r="AQ36" s="10">
-        <f t="shared" ref="AQ36" si="43">AQ35/AQ34</f>
+        <f t="shared" ref="AQ36" si="37">AQ35/AQ34</f>
         <v>0.88834951456310685</v>
       </c>
       <c r="AR36" s="10">
-        <f t="shared" ref="AR36" si="44">AR35/AR34</f>
+        <f t="shared" ref="AR36" si="38">AR35/AR34</f>
         <v>0.87823504454815449</v>
       </c>
       <c r="AS36" s="10">
-        <f t="shared" ref="AS36" si="45">AS35/AS34</f>
+        <f t="shared" ref="AS36" si="39">AS35/AS34</f>
         <v>0.88630880579010851</v>
       </c>
       <c r="AT36" s="10">
-        <f t="shared" ref="AT36" si="46">AT35/AT34</f>
+        <f t="shared" ref="AT36" si="40">AT35/AT34</f>
         <v>0.88871224165341811</v>
       </c>
       <c r="AU36" s="10">
-        <f t="shared" ref="AU36" si="47">AU35/AU34</f>
+        <f t="shared" ref="AU36" si="41">AU35/AU34</f>
         <v>0.87759054813093162</v>
       </c>
       <c r="AV36" s="10">
-        <f t="shared" ref="AV36" si="48">AV35/AV34</f>
+        <f t="shared" ref="AV36" si="42">AV35/AV34</f>
         <v>0.87118703154959043</v>
       </c>
       <c r="AW36" s="10">
-        <f t="shared" ref="AW36" si="49">AW35/AW34</f>
+        <f t="shared" ref="AW36" si="43">AW35/AW34</f>
         <v>0.86910638297872345</v>
       </c>
       <c r="AX36" s="10">
-        <f t="shared" ref="AX36" si="50">AX35/AX34</f>
+        <f t="shared" ref="AX36" si="44">AX35/AX34</f>
         <v>0.85959577893042394</v>
       </c>
       <c r="AY36" s="10">
-        <f t="shared" ref="AY36" si="51">AY35/AY34</f>
+        <f t="shared" ref="AY36" si="45">AY35/AY34</f>
         <v>0.8523162661093695</v>
       </c>
       <c r="AZ36" s="10">
-        <f t="shared" ref="AZ36" si="52">AZ35/AZ34</f>
+        <f t="shared" ref="AZ36" si="46">AZ35/AZ34</f>
         <v>0.85690064428619872</v>
       </c>
       <c r="BA36" s="10">
-        <f t="shared" ref="BA36" si="53">BA35/BA34</f>
+        <f t="shared" ref="BA36" si="47">BA35/BA34</f>
         <v>0.85748626373626369</v>
       </c>
     </row>
@@ -26461,203 +27027,203 @@
         <v>0</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" ref="C39:AZ39" si="54">C38*C36</f>
+        <f t="shared" ref="C39:AZ39" si="48">C38*C36</f>
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>40.74074074074074</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>387.33644859813086</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1805.5759840558046</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>4992.1015689512797</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>7955.8545187362233</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>7989.3708737864081</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>6601.3312780269052</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>4905.0454591068737</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>3699.6673126614987</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2621.0082825441473</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2056.9335751530266</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1580.8504398826979</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1136.2250185048113</v>
       </c>
       <c r="Y39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>790.57828149710065</v>
       </c>
       <c r="Z39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>550.92368610511164</v>
       </c>
       <c r="AA39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>468.12653778558877</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>333.15367483296217</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>263.03328290468988</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>177.025390625</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>146.20975609756098</v>
       </c>
       <c r="AF39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>125.02028985507246</v>
       </c>
       <c r="AG39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>100.84536082474227</v>
       </c>
       <c r="AH39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>102.82310469314081</v>
       </c>
       <c r="AI39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>74.259414225941427</v>
       </c>
       <c r="AJ39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>74.52513966480447</v>
       </c>
       <c r="AK39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>63.949152542372879</v>
       </c>
       <c r="AL39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>82.35294117647058</v>
       </c>
       <c r="AM39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>140.47457627118644</v>
       </c>
       <c r="AN39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>208.88992537313433</v>
       </c>
       <c r="AO39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>331.56258234519106</v>
       </c>
       <c r="AP39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>463.74097472924188</v>
       </c>
       <c r="AQ39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>687.5825242718447</v>
       </c>
       <c r="AR39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1115.3585065761563</v>
       </c>
       <c r="AS39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1499.6344993968637</v>
       </c>
       <c r="AT39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>1959.6104928457869</v>
       </c>
       <c r="AU39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2294.0216928142554</v>
       </c>
       <c r="AV39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2483.7542269478822</v>
       </c>
       <c r="AW39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2625.5703829787235</v>
       </c>
       <c r="AX39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2486.8105884457163</v>
       </c>
       <c r="AY39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2384.7809125740159</v>
       </c>
       <c r="AZ39" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2587.8399457443202</v>
       </c>
       <c r="BA39" s="16"/>
@@ -26722,207 +27288,207 @@
         <v>16</v>
       </c>
       <c r="B41" s="4">
-        <f>B15-B38</f>
+        <f>B13-B38</f>
         <v>12431</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ref="C41:AZ41" si="55">C15-C38</f>
+        <f>C13-C38</f>
         <v>12139</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="55"/>
+        <f>D13-D38</f>
         <v>11746</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="55"/>
+        <f>E13-E38</f>
         <v>10914</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="55"/>
+        <f>F13-F38</f>
         <v>11093</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="55"/>
+        <f>G13-G38</f>
         <v>10709</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="55"/>
+        <f>H13-H38</f>
         <v>10808.082906305257</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="55"/>
+        <f>I13-I38</f>
         <v>10746.883411382873</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="55"/>
+        <f>J13-J38</f>
         <v>10775.778461448752</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="55"/>
+        <f>K13-K38</f>
         <v>10876.185311282639</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="55"/>
+        <f>L13-L38</f>
         <v>10683.122108367874</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="55"/>
+        <f>M13-M38</f>
         <v>10488.827706278415</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="55"/>
+        <f>N13-N38</f>
         <v>11715.979894342661</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="55"/>
+        <f>O13-O38</f>
         <v>13168.032095051272</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="55"/>
+        <f>P13-P38</f>
         <v>13518.869002604413</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="55"/>
+        <f>Q13-Q38</f>
         <v>13020.045798525829</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="55"/>
+        <f>R13-R38</f>
         <v>11862.33864437143</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="55"/>
+        <f>S13-S38</f>
         <v>10754.613068686513</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="55"/>
+        <f>T13-T38</f>
         <v>9885.9330900418881</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="55"/>
+        <f>U13-U38</f>
         <v>9242.2264415852605</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="55"/>
+        <f>V13-V38</f>
         <v>8804.2938110901632</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="55"/>
+        <f>W13-W38</f>
         <v>8587.156435877996</v>
       </c>
       <c r="X41" s="4">
-        <f t="shared" si="55"/>
+        <f>X13-X38</f>
         <v>8558.4979098167241</v>
       </c>
       <c r="Y41" s="4">
-        <f t="shared" si="55"/>
+        <f>Y13-Y38</f>
         <v>8510.3333982189142</v>
       </c>
       <c r="Z41" s="4">
-        <f t="shared" si="55"/>
+        <f>Z13-Z38</f>
         <v>8385.8005047210991</v>
       </c>
       <c r="AA41" s="4">
-        <f t="shared" si="55"/>
+        <f>AA13-AA38</f>
         <v>9073</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="55"/>
+        <f>AB13-AB38</f>
         <v>8312</v>
       </c>
       <c r="AC41" s="4">
-        <f t="shared" si="55"/>
+        <f>AC13-AC38</f>
         <v>8345</v>
       </c>
       <c r="AD41" s="4">
-        <f t="shared" si="55"/>
+        <f>AD13-AD38</f>
         <v>8660</v>
       </c>
       <c r="AE41" s="4">
-        <f t="shared" si="55"/>
+        <f>AE13-AE38</f>
         <v>8876</v>
       </c>
       <c r="AF41" s="4">
-        <f t="shared" si="55"/>
+        <f>AF13-AF38</f>
         <v>8707</v>
       </c>
       <c r="AG41" s="4">
-        <f t="shared" si="55"/>
+        <f>AG13-AG38</f>
         <v>8889</v>
       </c>
       <c r="AH41" s="4">
-        <f t="shared" si="55"/>
+        <f>AH13-AH38</f>
         <v>10013</v>
       </c>
       <c r="AI41" s="4">
-        <f t="shared" si="55"/>
+        <f>AI13-AI38</f>
         <v>8751</v>
       </c>
       <c r="AJ41" s="4">
-        <f t="shared" si="55"/>
+        <f>AJ13-AJ38</f>
         <v>8581</v>
       </c>
       <c r="AK41" s="4">
-        <f t="shared" si="55"/>
+        <f>AK13-AK38</f>
         <v>9007</v>
       </c>
       <c r="AL41" s="4">
-        <f t="shared" si="55"/>
+        <f>AL13-AL38</f>
         <v>9059</v>
       </c>
       <c r="AM41" s="4">
-        <f t="shared" si="55"/>
+        <f>AM13-AM38</f>
         <v>9295</v>
       </c>
       <c r="AN41" s="4">
-        <f t="shared" si="55"/>
+        <f>AN13-AN38</f>
         <v>9376</v>
       </c>
       <c r="AO41" s="4">
-        <f t="shared" si="55"/>
+        <f>AO13-AO38</f>
         <v>9608</v>
       </c>
       <c r="AP41" s="4">
-        <f t="shared" si="55"/>
+        <f>AP13-AP38</f>
         <v>9824</v>
       </c>
       <c r="AQ41" s="4">
-        <f t="shared" si="55"/>
+        <f>AQ13-AQ38</f>
         <v>9618</v>
       </c>
       <c r="AR41" s="4">
-        <f t="shared" si="55"/>
+        <f>AR13-AR38</f>
         <v>9808</v>
       </c>
       <c r="AS41" s="4">
-        <f t="shared" si="55"/>
+        <f>AS13-AS38</f>
         <v>9739</v>
       </c>
       <c r="AT41" s="4">
-        <f t="shared" si="55"/>
+        <f>AT13-AT38</f>
         <v>9583</v>
       </c>
       <c r="AU41" s="4">
-        <f t="shared" si="55"/>
+        <f>AU13-AU38</f>
         <v>9756</v>
       </c>
       <c r="AV41" s="4">
-        <f t="shared" si="55"/>
+        <f>AV13-AV38</f>
         <v>9487</v>
       </c>
       <c r="AW41" s="4">
-        <f t="shared" si="55"/>
+        <f>AW13-AW38</f>
         <v>9435</v>
       </c>
       <c r="AX41" s="4">
-        <f t="shared" si="55"/>
+        <f>AX13-AX38</f>
         <v>9782</v>
       </c>
       <c r="AY41" s="4">
-        <f t="shared" si="55"/>
+        <f>AY13-AY38</f>
         <v>10239</v>
       </c>
       <c r="AZ41" s="4">
-        <f t="shared" si="55"/>
+        <f>AZ13-AZ38</f>
         <v>10177</v>
       </c>
       <c r="BA41" s="16"/>
@@ -26932,207 +27498,207 @@
         <v>17</v>
       </c>
       <c r="B42" s="4">
-        <f>B15-B39</f>
+        <f>B13-B39</f>
         <v>12431</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" ref="C42:AZ42" si="56">C15-C39</f>
+        <f>C13-C39</f>
         <v>12139</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="56"/>
+        <f>D13-D39</f>
         <v>11746</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="56"/>
+        <f>E13-E39</f>
         <v>10914</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="56"/>
+        <f>F13-F39</f>
         <v>11093</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="56"/>
+        <f>G13-G39</f>
         <v>10709</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="56"/>
+        <f>H13-H39</f>
         <v>10808.082906305257</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="56"/>
+        <f>I13-I39</f>
         <v>10746.883411382873</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="56"/>
+        <f>J13-J39</f>
         <v>10775.778461448752</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="56"/>
+        <f>K13-K39</f>
         <v>10876.185311282639</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="56"/>
+        <f>L13-L39</f>
         <v>10686.381367627133</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="56"/>
+        <f>M13-M39</f>
         <v>10506.491257680284</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="56"/>
+        <f>N13-N39</f>
         <v>11792.403910286857</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="56"/>
+        <f>O13-O39</f>
         <v>13367.930526099994</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="56"/>
+        <f>P13-P39</f>
         <v>13824.01448386819</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="56"/>
+        <f>Q13-Q39</f>
         <v>13359.674924739422</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="56"/>
+        <f>R13-R39</f>
         <v>12211.007366344526</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="56"/>
+        <f>S13-S39</f>
         <v>11075.567609579639</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="56"/>
+        <f>T13-T39</f>
         <v>10177.265777380389</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="56"/>
+        <f>U13-U39</f>
         <v>9487.2181590411128</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="56"/>
+        <f>V13-V39</f>
         <v>9033.3602359371362</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="56"/>
+        <f>W13-W39</f>
         <v>8791.3059959952989</v>
       </c>
       <c r="X42" s="4">
-        <f t="shared" si="56"/>
+        <f>X13-X39</f>
         <v>8734.2728913119136</v>
       </c>
       <c r="Y42" s="4">
-        <f t="shared" si="56"/>
+        <f>Y13-Y39</f>
         <v>8670.7551167218135</v>
       </c>
       <c r="Z42" s="4">
-        <f t="shared" si="56"/>
+        <f>Z13-Z39</f>
         <v>8513.8768186159868</v>
       </c>
       <c r="AA42" s="4">
-        <f t="shared" si="56"/>
+        <f>AA13-AA39</f>
         <v>9192.8734622144111</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="56"/>
+        <f>AB13-AB39</f>
         <v>8406.8463251670382</v>
       </c>
       <c r="AC42" s="4">
-        <f t="shared" si="56"/>
+        <f>AC13-AC39</f>
         <v>8416.9667170953107</v>
       </c>
       <c r="AD42" s="4">
-        <f t="shared" si="56"/>
+        <f>AD13-AD39</f>
         <v>8715.974609375</v>
       </c>
       <c r="AE42" s="4">
-        <f t="shared" si="56"/>
+        <f>AE13-AE39</f>
         <v>8923.7902439024383</v>
       </c>
       <c r="AF42" s="4">
-        <f t="shared" si="56"/>
+        <f>AF13-AF39</f>
         <v>8745.9797101449276</v>
       </c>
       <c r="AG42" s="4">
-        <f t="shared" si="56"/>
+        <f>AG13-AG39</f>
         <v>8922.1546391752581</v>
       </c>
       <c r="AH42" s="4">
-        <f t="shared" si="56"/>
+        <f>AH13-AH39</f>
         <v>10051.176895306859</v>
       </c>
       <c r="AI42" s="4">
-        <f t="shared" si="56"/>
+        <f>AI13-AI39</f>
         <v>8778.7405857740578</v>
       </c>
       <c r="AJ42" s="4">
-        <f t="shared" si="56"/>
+        <f>AJ13-AJ39</f>
         <v>8598.4748603351964</v>
       </c>
       <c r="AK42" s="4">
-        <f t="shared" si="56"/>
+        <f>AK13-AK39</f>
         <v>9020.0508474576272</v>
       </c>
       <c r="AL42" s="4">
-        <f t="shared" si="56"/>
+        <f>AL13-AL39</f>
         <v>9076.6470588235297</v>
       </c>
       <c r="AM42" s="4">
-        <f t="shared" si="56"/>
+        <f>AM13-AM39</f>
         <v>9322.5254237288136</v>
       </c>
       <c r="AN42" s="4">
-        <f t="shared" si="56"/>
+        <f>AN13-AN39</f>
         <v>9412.1100746268658</v>
       </c>
       <c r="AO42" s="4">
-        <f t="shared" si="56"/>
+        <f>AO13-AO39</f>
         <v>9655.4374176548081</v>
       </c>
       <c r="AP42" s="4">
-        <f t="shared" si="56"/>
+        <f>AP13-AP39</f>
         <v>9887.2590252707578</v>
       </c>
       <c r="AQ42" s="4">
-        <f t="shared" si="56"/>
+        <f>AQ13-AQ39</f>
         <v>9704.4174757281544</v>
       </c>
       <c r="AR42" s="4">
-        <f t="shared" si="56"/>
+        <f>AR13-AR39</f>
         <v>9962.6414934238437</v>
       </c>
       <c r="AS42" s="4">
-        <f t="shared" si="56"/>
+        <f>AS13-AS39</f>
         <v>9931.3655006031368</v>
       </c>
       <c r="AT42" s="4">
-        <f t="shared" si="56"/>
+        <f>AT13-AT39</f>
         <v>9828.3895071542138</v>
       </c>
       <c r="AU42" s="4">
-        <f t="shared" si="56"/>
+        <f>AU13-AU39</f>
         <v>10075.978307185746</v>
       </c>
       <c r="AV42" s="4">
-        <f t="shared" si="56"/>
+        <f>AV13-AV39</f>
         <v>9854.2457730521182</v>
       </c>
       <c r="AW42" s="4">
-        <f t="shared" si="56"/>
+        <f>AW13-AW39</f>
         <v>9830.4296170212765</v>
       </c>
       <c r="AX42" s="4">
-        <f t="shared" si="56"/>
+        <f>AX13-AX39</f>
         <v>10188.189411554284</v>
       </c>
       <c r="AY42" s="4">
-        <f t="shared" si="56"/>
+        <f>AY13-AY39</f>
         <v>10652.219087425983</v>
       </c>
       <c r="AZ42" s="4">
-        <f t="shared" si="56"/>
+        <f>AZ13-AZ39</f>
         <v>10609.160054255681</v>
       </c>
       <c r="BA42" s="16"/>
@@ -27141,6 +27707,19 @@
       <c r="A43" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:BA13">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>B$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>B$21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:AZ13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>B$21</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
@@ -27150,6 +27729,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B4D59-ACC8-4A09-9A9A-D7A9E496615E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925C09A2-91AC-401E-8E8A-495D70BAF828}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27164,12 +27756,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6306F4-C892-477B-B984-FAD42EE0881C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excess_deaths_explanation/2020_vs_10y_by_date_of_occurrence.xlsx
+++ b/data/excess_deaths_explanation/2020_vs_10y_by_date_of_occurrence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\excess_deaths_explanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D80C72-C9A5-463B-BD33-A688FF0DC91B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FABCA-89A8-487E-A267-581C375598FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{99891810-AEF2-4EE9-B876-20B0CB097BF8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Upper 95% confidence interval of estimate</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Total deaths - 10 year average</t>
+  </si>
+  <si>
+    <t>NOT NORMAL</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BDC08E85-3A0E-4C3C-977D-D79D601A7906}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -255,471 +258,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3235,7 +2773,7 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>raw!$A$32</c:f>
+          <c:f>raw!$A$33</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
@@ -3284,7 +2822,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$32</c:f>
+              <c:f>raw!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3475,7 +3013,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$32:$BB$32</c:f>
+              <c:f>raw!$B$33:$BB$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -3866,7 +3404,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$38</c:f>
+              <c:f>raw!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4057,7 +3595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$38:$BA$38</c:f>
+              <c:f>raw!$B$39:$BA$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -4229,7 +3767,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$30</c:f>
+              <c:f>raw!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4420,7 +3958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$30:$BA$30</c:f>
+              <c:f>raw!$B$31:$BA$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -4871,7 +4409,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$38</c:f>
+              <c:f>raw!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5062,7 +4600,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$38:$BA$38</c:f>
+              <c:f>raw!$B$39:$BA$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -5234,7 +4772,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$34</c:f>
+              <c:f>raw!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5425,7 +4963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$34:$BA$34</c:f>
+              <c:f>raw!$B$35:$BA$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -10527,7 +10065,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$24</c:f>
+              <c:f>raw!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10718,7 +10256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$24:$BB$24</c:f>
+              <c:f>raw!$B$25:$BB$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="53"/>
@@ -11903,7 +11441,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$20</c:f>
+              <c:f>raw!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12094,7 +11632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$20:$BB$20</c:f>
+              <c:f>raw!$B$21:$BB$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="53"/>
@@ -12269,7 +11807,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$21</c:f>
+              <c:f>raw!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12460,7 +11998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$21:$BB$21</c:f>
+              <c:f>raw!$B$22:$BB$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="53"/>
@@ -12938,7 +12476,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$20</c:f>
+              <c:f>raw!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13124,7 +12662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$20:$BA$20</c:f>
+              <c:f>raw!$B$21:$BA$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -13481,7 +13019,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$22:$BA$22</c:f>
+              <c:f>raw!$B$23:$BA$23</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -13647,6 +13185,200 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B83D-4EA7-B0D2-1EB53F59015E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOT NORMAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$B$19:$BA$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2174.9798943426613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7139.0320950512723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10340.869002604413</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10579.045798525829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8678.3386443714298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5954.6130686865126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3924.9330900418881</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020.2264415852605</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1408.2938110901632</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>914.15643587799605</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>421.49790981672413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.333398218914226</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C810-42B5-BA12-C12B56AAC589}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14378,6 +14110,9 @@
                 <c:pt idx="50">
                   <c:v>13197</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>14439</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14393,7 +14128,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$42</c:f>
+              <c:f>raw!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14584,7 +14319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$42:$BA$42</c:f>
+              <c:f>raw!$B$43:$BA$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -14756,7 +14491,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$41</c:f>
+              <c:f>raw!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14947,7 +14682,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$41:$BA$41</c:f>
+              <c:f>raw!$B$42:$BA$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -15119,7 +14854,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$39</c:f>
+              <c:f>raw!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15310,7 +15045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$39:$BA$39</c:f>
+              <c:f>raw!$B$40:$BA$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -15482,7 +15217,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>raw!$A$38</c:f>
+              <c:f>raw!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15673,7 +15408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>raw!$B$38:$BA$38</c:f>
+              <c:f>raw!$B$39:$BA$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="52"/>
@@ -15837,6 +15572,380 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B83D-4EA7-B0D2-1EB53F59015E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$B$21:$BA$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>10732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9425</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9358</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8928</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8690</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8454</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8272</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8167</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8260</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8325</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8381</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8331</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8515</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8523</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9230</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9027</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9171</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9158</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9282</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9643</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9932</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C810-42B5-BA12-C12B56AAC589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$B$22:$BA$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>14308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11439</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10088</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9682</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9449</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9855</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9243</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9172</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9213</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9207</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9257</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9368</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9926</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10091</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10049</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10217</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10493</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10817</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11488</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12232</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C810-42B5-BA12-C12B56AAC589}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21659,13 +21768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A2520C-6B3C-4481-944A-BDB6E318CF58}">
-  <dimension ref="A1:BB43"/>
+  <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z13" activeCellId="1" sqref="H13:M13 Z13"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23670,210 +23779,212 @@
         <v>2020</v>
       </c>
       <c r="B13" s="2">
-        <f>B14</f>
+        <f t="shared" ref="B13:G13" si="1">B14</f>
         <v>12431</v>
       </c>
       <c r="C13" s="2">
-        <f>C14</f>
+        <f t="shared" si="1"/>
         <v>12139</v>
       </c>
       <c r="D13" s="2">
-        <f>D14</f>
+        <f t="shared" si="1"/>
         <v>11746</v>
       </c>
       <c r="E13" s="2">
-        <f>E14</f>
+        <f t="shared" si="1"/>
         <v>10914</v>
       </c>
       <c r="F13" s="2">
-        <f>F14</f>
+        <f t="shared" si="1"/>
         <v>11094</v>
       </c>
       <c r="G13" s="2">
-        <f>G14</f>
+        <f t="shared" si="1"/>
         <v>10710</v>
       </c>
       <c r="H13" s="17">
-        <f>H15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" ref="H13:Z13" si="2">H15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
         <v>10808.082906305257</v>
       </c>
       <c r="I13" s="17">
-        <f>I15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>10746.883411382873</v>
       </c>
       <c r="J13" s="17">
-        <f>J15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>10776.778461448752</v>
       </c>
       <c r="K13" s="17">
-        <f>K15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>10882.185311282639</v>
       </c>
       <c r="L13" s="17">
-        <f>L15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>10727.122108367874</v>
       </c>
       <c r="M13" s="17">
-        <f>M15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>10893.827706278415</v>
       </c>
       <c r="N13" s="13">
-        <f>N15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>13597.979894342661</v>
       </c>
       <c r="O13" s="13">
-        <f>O15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>18360.032095051272</v>
       </c>
       <c r="P13" s="13">
-        <f>P15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>21779.869002604413</v>
       </c>
       <c r="Q13" s="13">
-        <f>Q15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>21349.045798525829</v>
       </c>
       <c r="R13" s="13">
-        <f>R15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>18812.33864437143</v>
       </c>
       <c r="S13" s="13">
-        <f>S15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>15980.613068686513</v>
       </c>
       <c r="T13" s="13">
-        <f>T15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>13876.933090041888</v>
       </c>
       <c r="U13" s="13">
-        <f>U15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>12108.226441585261</v>
       </c>
       <c r="V13" s="13">
-        <f>V15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>11090.293811090163</v>
       </c>
       <c r="W13" s="13">
-        <f>W15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>10372.156435877996</v>
       </c>
       <c r="X13" s="13">
-        <f>X15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>9870.4979098167241</v>
       </c>
       <c r="Y13" s="13">
-        <f>Y15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>9461.3333982189142</v>
       </c>
       <c r="Z13" s="17">
-        <f>Z15/SUM($H$15:$Z$15)*SUM($H$14:$Z$14)</f>
+        <f t="shared" si="2"/>
         <v>9064.8005047210991</v>
       </c>
       <c r="AA13" s="2">
-        <f>AA14</f>
+        <f t="shared" ref="AA13:AZ13" si="3">AA14</f>
         <v>9661</v>
       </c>
       <c r="AB13" s="2">
-        <f>AB14</f>
+        <f t="shared" si="3"/>
         <v>8740</v>
       </c>
       <c r="AC13" s="2">
-        <f>AC14</f>
+        <f t="shared" si="3"/>
         <v>8680</v>
       </c>
       <c r="AD13" s="2">
-        <f>AD14</f>
+        <f t="shared" si="3"/>
         <v>8893</v>
       </c>
       <c r="AE13" s="2">
-        <f>AE14</f>
+        <f t="shared" si="3"/>
         <v>9070</v>
       </c>
       <c r="AF13" s="2">
-        <f>AF14</f>
+        <f t="shared" si="3"/>
         <v>8871</v>
       </c>
       <c r="AG13" s="2">
-        <f>AG14</f>
+        <f t="shared" si="3"/>
         <v>9023</v>
       </c>
       <c r="AH13" s="2">
-        <f>AH14</f>
+        <f t="shared" si="3"/>
         <v>10154</v>
       </c>
       <c r="AI13" s="2">
-        <f>AI14</f>
+        <f t="shared" si="3"/>
         <v>8853</v>
       </c>
       <c r="AJ13" s="2">
-        <f>AJ14</f>
+        <f t="shared" si="3"/>
         <v>8673</v>
       </c>
       <c r="AK13" s="2">
-        <f>AK14</f>
+        <f t="shared" si="3"/>
         <v>9084</v>
       </c>
       <c r="AL13" s="2">
-        <f>AL14</f>
+        <f t="shared" si="3"/>
         <v>9159</v>
       </c>
       <c r="AM13" s="2">
-        <f>AM14</f>
+        <f t="shared" si="3"/>
         <v>9463</v>
       </c>
       <c r="AN13" s="2">
-        <f>AN14</f>
+        <f t="shared" si="3"/>
         <v>9621</v>
       </c>
       <c r="AO13" s="2">
-        <f>AO14</f>
+        <f t="shared" si="3"/>
         <v>9987</v>
       </c>
       <c r="AP13" s="2">
-        <f>AP14</f>
+        <f t="shared" si="3"/>
         <v>10351</v>
       </c>
       <c r="AQ13" s="2">
-        <f>AQ14</f>
+        <f t="shared" si="3"/>
         <v>10392</v>
       </c>
       <c r="AR13" s="2">
-        <f>AR14</f>
+        <f t="shared" si="3"/>
         <v>11078</v>
       </c>
       <c r="AS13" s="2">
-        <f>AS14</f>
+        <f t="shared" si="3"/>
         <v>11431</v>
       </c>
       <c r="AT13" s="2">
-        <f>AT14</f>
+        <f t="shared" si="3"/>
         <v>11788</v>
       </c>
       <c r="AU13" s="2">
-        <f>AU14</f>
+        <f t="shared" si="3"/>
         <v>12370</v>
       </c>
       <c r="AV13" s="2">
-        <f>AV14</f>
+        <f t="shared" si="3"/>
         <v>12338</v>
       </c>
       <c r="AW13" s="2">
-        <f>AW14</f>
+        <f t="shared" si="3"/>
         <v>12456</v>
       </c>
       <c r="AX13" s="2">
-        <f>AX14</f>
+        <f t="shared" si="3"/>
         <v>12675</v>
       </c>
       <c r="AY13" s="2">
-        <f>AY14</f>
+        <f t="shared" si="3"/>
         <v>13037</v>
       </c>
       <c r="AZ13" s="2">
-        <f>AZ14</f>
+        <f t="shared" si="3"/>
         <v>13197</v>
       </c>
-      <c r="BA13" s="15"/>
+      <c r="BA13" s="15">
+        <v>14439</v>
+      </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -24456,1502 +24567,1554 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <f>AVERAGE(B3:B12)</f>
+        <f t="shared" ref="B18:AG18" si="4">AVERAGE(B3:B12)</f>
         <v>11982.8</v>
       </c>
       <c r="C18" s="2">
-        <f>AVERAGE(C3:C12)</f>
+        <f t="shared" si="4"/>
         <v>12132</v>
       </c>
       <c r="D18" s="2">
-        <f>AVERAGE(D3:D12)</f>
+        <f t="shared" si="4"/>
         <v>11721</v>
       </c>
       <c r="E18" s="2">
-        <f>AVERAGE(E3:E12)</f>
+        <f t="shared" si="4"/>
         <v>11377.3</v>
       </c>
       <c r="F18" s="2">
-        <f>AVERAGE(F3:F12)</f>
+        <f t="shared" si="4"/>
         <v>11195.1</v>
       </c>
       <c r="G18" s="2">
-        <f>AVERAGE(G3:G12)</f>
+        <f t="shared" si="4"/>
         <v>11094.3</v>
       </c>
       <c r="H18" s="2">
-        <f>AVERAGE(H3:H12)</f>
+        <f t="shared" si="4"/>
         <v>11042.6</v>
       </c>
       <c r="I18" s="2">
-        <f>AVERAGE(I3:I12)</f>
+        <f t="shared" si="4"/>
         <v>10948.9</v>
       </c>
       <c r="J18" s="2">
-        <f>AVERAGE(J3:J12)</f>
+        <f t="shared" si="4"/>
         <v>10761.5</v>
       </c>
       <c r="K18" s="2">
-        <f>AVERAGE(K3:K12)</f>
+        <f t="shared" si="4"/>
         <v>10698.7</v>
       </c>
       <c r="L18" s="2">
-        <f>AVERAGE(L3:L12)</f>
+        <f t="shared" si="4"/>
         <v>10540.4</v>
       </c>
       <c r="M18" s="2">
-        <f>AVERAGE(M3:M12)</f>
+        <f t="shared" si="4"/>
         <v>10318.799999999999</v>
       </c>
       <c r="N18" s="2">
-        <f>AVERAGE(N3:N12)</f>
+        <f t="shared" si="4"/>
         <v>10188.4</v>
       </c>
       <c r="O18" s="2">
-        <f>AVERAGE(O3:O12)</f>
+        <f t="shared" si="4"/>
         <v>10148.1</v>
       </c>
       <c r="P18" s="2">
-        <f>AVERAGE(P3:P12)</f>
+        <f t="shared" si="4"/>
         <v>10035.9</v>
       </c>
       <c r="Q18" s="2">
-        <f>AVERAGE(Q3:Q12)</f>
+        <f t="shared" si="4"/>
         <v>9927.2000000000007</v>
       </c>
       <c r="R18" s="2">
-        <f>AVERAGE(R3:R12)</f>
+        <f t="shared" si="4"/>
         <v>9774.1</v>
       </c>
       <c r="S18" s="2">
-        <f>AVERAGE(S3:S12)</f>
+        <f t="shared" si="4"/>
         <v>9552.7999999999993</v>
       </c>
       <c r="T18" s="2">
-        <f>AVERAGE(T3:T12)</f>
+        <f t="shared" si="4"/>
         <v>9473.2000000000007</v>
       </c>
       <c r="U18" s="2">
-        <f>AVERAGE(U3:U12)</f>
+        <f t="shared" si="4"/>
         <v>9339.7000000000007</v>
       </c>
       <c r="V18" s="2">
-        <f>AVERAGE(V3:V12)</f>
+        <f t="shared" si="4"/>
         <v>9359.6</v>
       </c>
       <c r="W18" s="2">
-        <f>AVERAGE(W3:W12)</f>
+        <f t="shared" si="4"/>
         <v>9113.6</v>
       </c>
       <c r="X18" s="2">
-        <f>AVERAGE(X3:X12)</f>
+        <f t="shared" si="4"/>
         <v>9020.4</v>
       </c>
       <c r="Y18" s="2">
-        <f>AVERAGE(Y3:Y12)</f>
+        <f t="shared" si="4"/>
         <v>9009.7999999999993</v>
       </c>
       <c r="Z18" s="2">
-        <f>AVERAGE(Z3:Z12)</f>
+        <f t="shared" si="4"/>
         <v>8963.5</v>
       </c>
       <c r="AA18" s="2">
-        <f>AVERAGE(AA3:AA12)</f>
+        <f t="shared" si="4"/>
         <v>8936.4</v>
       </c>
       <c r="AB18" s="2">
-        <f>AVERAGE(AB3:AB12)</f>
+        <f t="shared" si="4"/>
         <v>8885.6</v>
       </c>
       <c r="AC18" s="2">
-        <f>AVERAGE(AC3:AC12)</f>
+        <f t="shared" si="4"/>
         <v>8855.4</v>
       </c>
       <c r="AD18" s="2">
-        <f>AVERAGE(AD3:AD12)</f>
+        <f t="shared" si="4"/>
         <v>8775.5</v>
       </c>
       <c r="AE18" s="2">
-        <f>AVERAGE(AE3:AE12)</f>
+        <f t="shared" si="4"/>
         <v>8882.6</v>
       </c>
       <c r="AF18" s="2">
-        <f>AVERAGE(AF3:AF12)</f>
+        <f t="shared" si="4"/>
         <v>8707.9</v>
       </c>
       <c r="AG18" s="2">
-        <f>AVERAGE(AG3:AG12)</f>
+        <f t="shared" si="4"/>
         <v>8760.1</v>
       </c>
       <c r="AH18" s="2">
-        <f>AVERAGE(AH3:AH12)</f>
+        <f t="shared" ref="AH18:BA18" si="5">AVERAGE(AH3:AH12)</f>
         <v>8730.4</v>
       </c>
       <c r="AI18" s="2">
-        <f>AVERAGE(AI3:AI12)</f>
+        <f t="shared" si="5"/>
         <v>8794.1</v>
       </c>
       <c r="AJ18" s="2">
-        <f>AVERAGE(AJ3:AJ12)</f>
+        <f t="shared" si="5"/>
         <v>8771.5</v>
       </c>
       <c r="AK18" s="2">
-        <f>AVERAGE(AK3:AK12)</f>
+        <f t="shared" si="5"/>
         <v>8723.7000000000007</v>
       </c>
       <c r="AL18" s="2">
-        <f>AVERAGE(AL3:AL12)</f>
+        <f t="shared" si="5"/>
         <v>8842.9</v>
       </c>
       <c r="AM18" s="2">
-        <f>AVERAGE(AM3:AM12)</f>
+        <f t="shared" si="5"/>
         <v>8972.2000000000007</v>
       </c>
       <c r="AN18" s="2">
-        <f>AVERAGE(AN3:AN12)</f>
+        <f t="shared" si="5"/>
         <v>9097.5</v>
       </c>
       <c r="AO18" s="2">
-        <f>AVERAGE(AO3:AO12)</f>
+        <f t="shared" si="5"/>
         <v>9308.2000000000007</v>
       </c>
       <c r="AP18" s="2">
-        <f>AVERAGE(AP3:AP12)</f>
+        <f t="shared" si="5"/>
         <v>9343.6</v>
       </c>
       <c r="AQ18" s="2">
-        <f>AVERAGE(AQ3:AQ12)</f>
+        <f t="shared" si="5"/>
         <v>9487.2999999999993</v>
       </c>
       <c r="AR18" s="2">
-        <f>AVERAGE(AR3:AR12)</f>
+        <f t="shared" si="5"/>
         <v>9582.2000000000007</v>
       </c>
       <c r="AS18" s="2">
-        <f>AVERAGE(AS3:AS12)</f>
+        <f t="shared" si="5"/>
         <v>9708.5</v>
       </c>
       <c r="AT18" s="2">
-        <f>AVERAGE(AT3:AT12)</f>
+        <f t="shared" si="5"/>
         <v>9732.6</v>
       </c>
       <c r="AU18" s="2">
-        <f>AVERAGE(AU3:AU12)</f>
+        <f t="shared" si="5"/>
         <v>9917.1</v>
       </c>
       <c r="AV18" s="2">
-        <f>AVERAGE(AV3:AV12)</f>
+        <f t="shared" si="5"/>
         <v>9841.4</v>
       </c>
       <c r="AW18" s="2">
-        <f>AVERAGE(AW3:AW12)</f>
+        <f t="shared" si="5"/>
         <v>10060.6</v>
       </c>
       <c r="AX18" s="2">
-        <f>AVERAGE(AX3:AX12)</f>
+        <f t="shared" si="5"/>
         <v>10336.700000000001</v>
       </c>
       <c r="AY18" s="2">
-        <f>AVERAGE(AY3:AY12)</f>
+        <f t="shared" si="5"/>
         <v>10753.1</v>
       </c>
       <c r="AZ18" s="2">
-        <f>AVERAGE(AZ3:AZ12)</f>
+        <f t="shared" si="5"/>
         <v>11147.2</v>
       </c>
       <c r="BA18" s="2">
-        <f>AVERAGE(BA3:BA12)</f>
+        <f t="shared" si="5"/>
         <v>11495</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4">
-        <f>MIN(B$3:B$12)</f>
-        <v>10732</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20:BA20" si="1">MIN(C$3:C$12)</f>
-        <v>10532</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="1"/>
-        <v>10111</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>9878</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
-        <v>9958</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>10081</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>9705</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
-        <v>9553</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="1"/>
-        <v>9387</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="1"/>
-        <v>9496</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>9616</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="1"/>
-        <v>9542</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="1"/>
-        <v>9425</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="1"/>
-        <v>9358</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="1"/>
-        <v>9248</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="1"/>
-        <v>9092</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="1"/>
-        <v>9381</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="1"/>
-        <v>8886</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="1"/>
-        <v>8928</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="1"/>
-        <v>8621</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" si="1"/>
-        <v>8995</v>
-      </c>
-      <c r="W20" s="4">
-        <f t="shared" si="1"/>
-        <v>8690</v>
-      </c>
-      <c r="X20" s="4">
-        <f t="shared" si="1"/>
-        <v>8722</v>
-      </c>
-      <c r="Y20" s="4">
-        <f t="shared" si="1"/>
-        <v>8312</v>
-      </c>
-      <c r="Z20" s="4">
-        <f t="shared" si="1"/>
-        <v>8334</v>
-      </c>
-      <c r="AA20" s="4">
-        <f t="shared" si="1"/>
-        <v>8458</v>
-      </c>
-      <c r="AB20" s="4">
-        <f t="shared" si="1"/>
-        <v>8454</v>
-      </c>
-      <c r="AC20" s="4">
-        <f t="shared" si="1"/>
-        <v>8437</v>
-      </c>
-      <c r="AD20" s="4">
-        <f t="shared" si="1"/>
-        <v>8188</v>
-      </c>
-      <c r="AE20" s="4">
-        <f t="shared" si="1"/>
-        <v>8272</v>
-      </c>
-      <c r="AF20" s="4">
-        <f t="shared" si="1"/>
-        <v>8167</v>
-      </c>
-      <c r="AG20" s="4">
-        <f t="shared" si="1"/>
-        <v>8169</v>
-      </c>
-      <c r="AH20" s="4">
-        <f t="shared" si="1"/>
-        <v>8260</v>
-      </c>
-      <c r="AI20" s="4">
-        <f t="shared" si="1"/>
-        <v>8325</v>
-      </c>
-      <c r="AJ20" s="4">
-        <f t="shared" si="1"/>
-        <v>8247</v>
-      </c>
-      <c r="AK20" s="4">
-        <f t="shared" si="1"/>
-        <v>8381</v>
-      </c>
-      <c r="AL20" s="4">
-        <f t="shared" si="1"/>
-        <v>8331</v>
-      </c>
-      <c r="AM20" s="4">
-        <f t="shared" si="1"/>
-        <v>8515</v>
-      </c>
-      <c r="AN20" s="4">
-        <f t="shared" si="1"/>
-        <v>8715</v>
-      </c>
-      <c r="AO20" s="4">
-        <f t="shared" si="1"/>
-        <v>8880</v>
-      </c>
-      <c r="AP20" s="4">
-        <f t="shared" si="1"/>
-        <v>8523</v>
-      </c>
-      <c r="AQ20" s="4">
-        <f t="shared" si="1"/>
-        <v>8525</v>
-      </c>
-      <c r="AR20" s="4">
-        <f t="shared" si="1"/>
-        <v>9103</v>
-      </c>
-      <c r="AS20" s="4">
-        <f t="shared" si="1"/>
-        <v>9230</v>
-      </c>
-      <c r="AT20" s="4">
-        <f t="shared" si="1"/>
-        <v>9027</v>
-      </c>
-      <c r="AU20" s="4">
-        <f t="shared" si="1"/>
-        <v>9171</v>
-      </c>
-      <c r="AV20" s="4">
-        <f t="shared" si="1"/>
-        <v>9158</v>
-      </c>
-      <c r="AW20" s="4">
-        <f t="shared" si="1"/>
-        <v>9282</v>
-      </c>
-      <c r="AX20" s="4">
-        <f t="shared" si="1"/>
-        <v>9643</v>
-      </c>
-      <c r="AY20" s="4">
-        <f t="shared" si="1"/>
-        <v>9932</v>
-      </c>
-      <c r="AZ20" s="4">
-        <f t="shared" si="1"/>
-        <v>9984</v>
-      </c>
-      <c r="BA20" s="4">
-        <f t="shared" si="1"/>
-        <v>10352</v>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <f>IF(B13-B22&gt;0,B13-B22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:BA19" si="6">IF(C13-C22&gt;0,C13-C22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="6"/>
+        <v>2174.9798943426613</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="6"/>
+        <v>7139.0320950512723</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>10340.869002604413</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="6"/>
+        <v>10579.045798525829</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="6"/>
+        <v>8678.3386443714298</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="6"/>
+        <v>5954.6130686865126</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="6"/>
+        <v>3924.9330900418881</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="6"/>
+        <v>2020.2264415852605</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="6"/>
+        <v>1408.2938110901632</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="6"/>
+        <v>914.15643587799605</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="6"/>
+        <v>421.49790981672413</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="6"/>
+        <v>76.333398218914226</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="6"/>
+        <v>507</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="6"/>
+        <v>941</v>
+      </c>
+      <c r="AI19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="AN19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="AP19" s="2">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f t="shared" si="6"/>
+        <v>301</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" si="6"/>
+        <v>1029</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" si="6"/>
+        <v>1214</v>
+      </c>
+      <c r="AT19" s="2">
+        <f t="shared" si="6"/>
+        <v>1295</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" si="6"/>
+        <v>1552</v>
+      </c>
+      <c r="AV19" s="2">
+        <f t="shared" si="6"/>
+        <v>1521</v>
+      </c>
+      <c r="AW19" s="2">
+        <f t="shared" si="6"/>
+        <v>1412</v>
+      </c>
+      <c r="AX19" s="2">
+        <f t="shared" si="6"/>
+        <v>1506</v>
+      </c>
+      <c r="AY19" s="2">
+        <f t="shared" si="6"/>
+        <v>1549</v>
+      </c>
+      <c r="AZ19" s="2">
+        <f t="shared" si="6"/>
+        <v>965</v>
+      </c>
+      <c r="BA19" s="2">
+        <f t="shared" si="6"/>
+        <v>1667</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4">
-        <f>MAX(B$3:B$12)</f>
-        <v>14308</v>
+        <f>MIN(B$3:B$12)</f>
+        <v>10732</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:BA21" si="2">MAX(C$3:C$12)</f>
-        <v>14653</v>
+        <f t="shared" ref="C21:BA21" si="7">MIN(C$3:C$12)</f>
+        <v>10532</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
-        <v>13640</v>
+        <f t="shared" si="7"/>
+        <v>10111</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="2"/>
-        <v>13659</v>
+        <f t="shared" si="7"/>
+        <v>9878</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="2"/>
-        <v>12695</v>
+        <f t="shared" si="7"/>
+        <v>9958</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="2"/>
-        <v>12221</v>
+        <f t="shared" si="7"/>
+        <v>10081</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="2"/>
-        <v>12244</v>
+        <f t="shared" si="7"/>
+        <v>9705</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="2"/>
-        <v>12256</v>
+        <f t="shared" si="7"/>
+        <v>9553</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="2"/>
-        <v>12147</v>
+        <f t="shared" si="7"/>
+        <v>9387</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="2"/>
-        <v>12877</v>
+        <f t="shared" si="7"/>
+        <v>9496</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="2"/>
-        <v>12331</v>
+        <f t="shared" si="7"/>
+        <v>9616</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="2"/>
-        <v>11577</v>
+        <f t="shared" si="7"/>
+        <v>9542</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>11423</v>
+        <f t="shared" si="7"/>
+        <v>9425</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="2"/>
-        <v>11221</v>
+        <f t="shared" si="7"/>
+        <v>9358</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="2"/>
-        <v>11439</v>
+        <f t="shared" si="7"/>
+        <v>9248</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="2"/>
-        <v>10770</v>
+        <f t="shared" si="7"/>
+        <v>9092</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="2"/>
-        <v>10134</v>
+        <f t="shared" si="7"/>
+        <v>9381</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="2"/>
-        <v>10026</v>
+        <f t="shared" si="7"/>
+        <v>8886</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="2"/>
-        <v>9952</v>
+        <f t="shared" si="7"/>
+        <v>8928</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="2"/>
-        <v>10088</v>
+        <f t="shared" si="7"/>
+        <v>8621</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="2"/>
-        <v>9682</v>
+        <f t="shared" si="7"/>
+        <v>8995</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="2"/>
-        <v>9458</v>
+        <f t="shared" si="7"/>
+        <v>8690</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="2"/>
-        <v>9449</v>
+        <f t="shared" si="7"/>
+        <v>8722</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" si="2"/>
-        <v>9385</v>
+        <f t="shared" si="7"/>
+        <v>8312</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="2"/>
-        <v>9855</v>
+        <f t="shared" si="7"/>
+        <v>8334</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="2"/>
-        <v>9154</v>
+        <f t="shared" si="7"/>
+        <v>8458</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" si="2"/>
-        <v>9243</v>
+        <f t="shared" si="7"/>
+        <v>8454</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" si="2"/>
-        <v>9503</v>
+        <f t="shared" si="7"/>
+        <v>8437</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" si="2"/>
-        <v>9141</v>
+        <f t="shared" si="7"/>
+        <v>8188</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="2"/>
-        <v>9713</v>
+        <f t="shared" si="7"/>
+        <v>8272</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" si="2"/>
-        <v>8988</v>
+        <f t="shared" si="7"/>
+        <v>8167</v>
       </c>
       <c r="AG21" s="4">
-        <f t="shared" si="2"/>
-        <v>9172</v>
+        <f t="shared" si="7"/>
+        <v>8169</v>
       </c>
       <c r="AH21" s="4">
-        <f t="shared" si="2"/>
-        <v>9213</v>
+        <f t="shared" si="7"/>
+        <v>8260</v>
       </c>
       <c r="AI21" s="4">
-        <f t="shared" si="2"/>
-        <v>9207</v>
+        <f t="shared" si="7"/>
+        <v>8325</v>
       </c>
       <c r="AJ21" s="4">
-        <f t="shared" si="2"/>
-        <v>9412</v>
+        <f t="shared" si="7"/>
+        <v>8247</v>
       </c>
       <c r="AK21" s="4">
-        <f t="shared" si="2"/>
-        <v>9005</v>
+        <f t="shared" si="7"/>
+        <v>8381</v>
       </c>
       <c r="AL21" s="4">
-        <f t="shared" si="2"/>
-        <v>9257</v>
+        <f t="shared" si="7"/>
+        <v>8331</v>
       </c>
       <c r="AM21" s="4">
-        <f t="shared" si="2"/>
-        <v>9368</v>
+        <f t="shared" si="7"/>
+        <v>8515</v>
       </c>
       <c r="AN21" s="4">
-        <f t="shared" si="2"/>
-        <v>9836</v>
+        <f t="shared" si="7"/>
+        <v>8715</v>
       </c>
       <c r="AO21" s="4">
-        <f t="shared" si="2"/>
-        <v>9750</v>
+        <f t="shared" si="7"/>
+        <v>8880</v>
       </c>
       <c r="AP21" s="4">
-        <f t="shared" si="2"/>
-        <v>9926</v>
+        <f t="shared" si="7"/>
+        <v>8523</v>
       </c>
       <c r="AQ21" s="4">
-        <f t="shared" si="2"/>
-        <v>10091</v>
+        <f t="shared" si="7"/>
+        <v>8525</v>
       </c>
       <c r="AR21" s="4">
-        <f t="shared" si="2"/>
-        <v>10049</v>
+        <f t="shared" si="7"/>
+        <v>9103</v>
       </c>
       <c r="AS21" s="4">
-        <f t="shared" si="2"/>
-        <v>10217</v>
+        <f t="shared" si="7"/>
+        <v>9230</v>
       </c>
       <c r="AT21" s="4">
-        <f t="shared" si="2"/>
-        <v>10493</v>
+        <f t="shared" si="7"/>
+        <v>9027</v>
       </c>
       <c r="AU21" s="4">
-        <f t="shared" si="2"/>
-        <v>10818</v>
+        <f t="shared" si="7"/>
+        <v>9171</v>
       </c>
       <c r="AV21" s="4">
-        <f t="shared" si="2"/>
-        <v>10817</v>
+        <f t="shared" si="7"/>
+        <v>9158</v>
       </c>
       <c r="AW21" s="4">
-        <f t="shared" si="2"/>
-        <v>11044</v>
+        <f t="shared" si="7"/>
+        <v>9282</v>
       </c>
       <c r="AX21" s="4">
-        <f t="shared" si="2"/>
-        <v>11169</v>
+        <f t="shared" si="7"/>
+        <v>9643</v>
       </c>
       <c r="AY21" s="4">
-        <f t="shared" si="2"/>
-        <v>11488</v>
+        <f t="shared" si="7"/>
+        <v>9932</v>
       </c>
       <c r="AZ21" s="4">
-        <f t="shared" si="2"/>
-        <v>12232</v>
+        <f t="shared" si="7"/>
+        <v>9984</v>
       </c>
       <c r="BA21" s="4">
-        <f t="shared" si="2"/>
-        <v>12772</v>
+        <f t="shared" si="7"/>
+        <v>10352</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <f>MAX(B$3:B$12)</f>
+        <v>14308</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:BA22" si="8">MAX(C$3:C$12)</f>
+        <v>14653</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="8"/>
+        <v>13640</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="8"/>
+        <v>13659</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="8"/>
+        <v>12695</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="8"/>
+        <v>12221</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="8"/>
+        <v>12244</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="8"/>
+        <v>12256</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="8"/>
+        <v>12147</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
+        <v>12877</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="8"/>
+        <v>12331</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="8"/>
+        <v>11577</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="8"/>
+        <v>11423</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="8"/>
+        <v>11221</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="8"/>
+        <v>11439</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="8"/>
+        <v>10770</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="8"/>
+        <v>10134</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="8"/>
+        <v>10026</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="8"/>
+        <v>9952</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="8"/>
+        <v>10088</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="8"/>
+        <v>9682</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="8"/>
+        <v>9458</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="8"/>
+        <v>9449</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="8"/>
+        <v>9385</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="8"/>
+        <v>9855</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="8"/>
+        <v>9154</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="8"/>
+        <v>9243</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="8"/>
+        <v>9503</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="8"/>
+        <v>9141</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="8"/>
+        <v>9713</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" si="8"/>
+        <v>8988</v>
+      </c>
+      <c r="AG22" s="4">
+        <f t="shared" si="8"/>
+        <v>9172</v>
+      </c>
+      <c r="AH22" s="4">
+        <f t="shared" si="8"/>
+        <v>9213</v>
+      </c>
+      <c r="AI22" s="4">
+        <f t="shared" si="8"/>
+        <v>9207</v>
+      </c>
+      <c r="AJ22" s="4">
+        <f t="shared" si="8"/>
+        <v>9412</v>
+      </c>
+      <c r="AK22" s="4">
+        <f t="shared" si="8"/>
+        <v>9005</v>
+      </c>
+      <c r="AL22" s="4">
+        <f t="shared" si="8"/>
+        <v>9257</v>
+      </c>
+      <c r="AM22" s="4">
+        <f t="shared" si="8"/>
+        <v>9368</v>
+      </c>
+      <c r="AN22" s="4">
+        <f t="shared" si="8"/>
+        <v>9836</v>
+      </c>
+      <c r="AO22" s="4">
+        <f t="shared" si="8"/>
+        <v>9750</v>
+      </c>
+      <c r="AP22" s="4">
+        <f t="shared" si="8"/>
+        <v>9926</v>
+      </c>
+      <c r="AQ22" s="4">
+        <f t="shared" si="8"/>
+        <v>10091</v>
+      </c>
+      <c r="AR22" s="4">
+        <f t="shared" si="8"/>
+        <v>10049</v>
+      </c>
+      <c r="AS22" s="4">
+        <f t="shared" si="8"/>
+        <v>10217</v>
+      </c>
+      <c r="AT22" s="4">
+        <f t="shared" si="8"/>
+        <v>10493</v>
+      </c>
+      <c r="AU22" s="4">
+        <f t="shared" si="8"/>
+        <v>10818</v>
+      </c>
+      <c r="AV22" s="4">
+        <f t="shared" si="8"/>
+        <v>10817</v>
+      </c>
+      <c r="AW22" s="4">
+        <f t="shared" si="8"/>
+        <v>11044</v>
+      </c>
+      <c r="AX22" s="4">
+        <f t="shared" si="8"/>
+        <v>11169</v>
+      </c>
+      <c r="AY22" s="4">
+        <f t="shared" si="8"/>
+        <v>11488</v>
+      </c>
+      <c r="AZ22" s="4">
+        <f t="shared" si="8"/>
+        <v>12232</v>
+      </c>
+      <c r="BA22" s="4">
+        <f t="shared" si="8"/>
+        <v>12772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4">
-        <f>B21-B20</f>
+      <c r="B23" s="4">
+        <f>B22-B21</f>
         <v>3576</v>
       </c>
-      <c r="C22" s="4">
-        <f t="shared" ref="C22:BA22" si="3">C21-C20</f>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:BA23" si="9">C22-C21</f>
         <v>4121</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
+      <c r="D23" s="4">
+        <f t="shared" si="9"/>
         <v>3529</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="3"/>
+      <c r="E23" s="4">
+        <f t="shared" si="9"/>
         <v>3781</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="3"/>
+      <c r="F23" s="4">
+        <f t="shared" si="9"/>
         <v>2737</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="3"/>
+      <c r="G23" s="4">
+        <f t="shared" si="9"/>
         <v>2140</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="3"/>
+      <c r="H23" s="4">
+        <f t="shared" si="9"/>
         <v>2539</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="3"/>
+      <c r="I23" s="4">
+        <f t="shared" si="9"/>
         <v>2703</v>
       </c>
-      <c r="J22" s="4">
-        <f t="shared" si="3"/>
+      <c r="J23" s="4">
+        <f t="shared" si="9"/>
         <v>2760</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" si="3"/>
+      <c r="K23" s="4">
+        <f t="shared" si="9"/>
         <v>3381</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" si="3"/>
+      <c r="L23" s="4">
+        <f t="shared" si="9"/>
         <v>2715</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="3"/>
+      <c r="M23" s="4">
+        <f t="shared" si="9"/>
         <v>2035</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="3"/>
+      <c r="N23" s="4">
+        <f t="shared" si="9"/>
         <v>1998</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="3"/>
+      <c r="O23" s="4">
+        <f t="shared" si="9"/>
         <v>1863</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="3"/>
+      <c r="P23" s="4">
+        <f t="shared" si="9"/>
         <v>2191</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="3"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="9"/>
         <v>1678</v>
       </c>
-      <c r="R22" s="4">
-        <f t="shared" si="3"/>
+      <c r="R23" s="4">
+        <f t="shared" si="9"/>
         <v>753</v>
       </c>
-      <c r="S22" s="4">
-        <f t="shared" si="3"/>
+      <c r="S23" s="4">
+        <f t="shared" si="9"/>
         <v>1140</v>
       </c>
-      <c r="T22" s="4">
-        <f t="shared" si="3"/>
+      <c r="T23" s="4">
+        <f t="shared" si="9"/>
         <v>1024</v>
       </c>
-      <c r="U22" s="4">
-        <f t="shared" si="3"/>
+      <c r="U23" s="4">
+        <f t="shared" si="9"/>
         <v>1467</v>
       </c>
-      <c r="V22" s="4">
-        <f t="shared" si="3"/>
+      <c r="V23" s="4">
+        <f t="shared" si="9"/>
         <v>687</v>
       </c>
-      <c r="W22" s="4">
-        <f t="shared" si="3"/>
+      <c r="W23" s="4">
+        <f t="shared" si="9"/>
         <v>768</v>
       </c>
-      <c r="X22" s="4">
-        <f t="shared" si="3"/>
+      <c r="X23" s="4">
+        <f t="shared" si="9"/>
         <v>727</v>
       </c>
-      <c r="Y22" s="4">
-        <f t="shared" si="3"/>
+      <c r="Y23" s="4">
+        <f t="shared" si="9"/>
         <v>1073</v>
       </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="3"/>
+      <c r="Z23" s="4">
+        <f t="shared" si="9"/>
         <v>1521</v>
       </c>
-      <c r="AA22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AA23" s="4">
+        <f t="shared" si="9"/>
         <v>696</v>
       </c>
-      <c r="AB22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AB23" s="4">
+        <f t="shared" si="9"/>
         <v>789</v>
       </c>
-      <c r="AC22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AC23" s="4">
+        <f t="shared" si="9"/>
         <v>1066</v>
       </c>
-      <c r="AD22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AD23" s="4">
+        <f t="shared" si="9"/>
         <v>953</v>
       </c>
-      <c r="AE22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AE23" s="4">
+        <f t="shared" si="9"/>
         <v>1441</v>
       </c>
-      <c r="AF22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AF23" s="4">
+        <f t="shared" si="9"/>
         <v>821</v>
       </c>
-      <c r="AG22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AG23" s="4">
+        <f t="shared" si="9"/>
         <v>1003</v>
       </c>
-      <c r="AH22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AH23" s="4">
+        <f t="shared" si="9"/>
         <v>953</v>
       </c>
-      <c r="AI22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AI23" s="4">
+        <f t="shared" si="9"/>
         <v>882</v>
       </c>
-      <c r="AJ22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AJ23" s="4">
+        <f t="shared" si="9"/>
         <v>1165</v>
       </c>
-      <c r="AK22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AK23" s="4">
+        <f t="shared" si="9"/>
         <v>624</v>
       </c>
-      <c r="AL22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AL23" s="4">
+        <f t="shared" si="9"/>
         <v>926</v>
       </c>
-      <c r="AM22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AM23" s="4">
+        <f t="shared" si="9"/>
         <v>853</v>
       </c>
-      <c r="AN22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AN23" s="4">
+        <f t="shared" si="9"/>
         <v>1121</v>
       </c>
-      <c r="AO22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AO23" s="4">
+        <f t="shared" si="9"/>
         <v>870</v>
       </c>
-      <c r="AP22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AP23" s="4">
+        <f t="shared" si="9"/>
         <v>1403</v>
       </c>
-      <c r="AQ22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AQ23" s="4">
+        <f t="shared" si="9"/>
         <v>1566</v>
       </c>
-      <c r="AR22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AR23" s="4">
+        <f t="shared" si="9"/>
         <v>946</v>
       </c>
-      <c r="AS22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AS23" s="4">
+        <f t="shared" si="9"/>
         <v>987</v>
       </c>
-      <c r="AT22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AT23" s="4">
+        <f t="shared" si="9"/>
         <v>1466</v>
       </c>
-      <c r="AU22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AU23" s="4">
+        <f t="shared" si="9"/>
         <v>1647</v>
       </c>
-      <c r="AV22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AV23" s="4">
+        <f t="shared" si="9"/>
         <v>1659</v>
       </c>
-      <c r="AW22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AW23" s="4">
+        <f t="shared" si="9"/>
         <v>1762</v>
       </c>
-      <c r="AX22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AX23" s="4">
+        <f t="shared" si="9"/>
         <v>1526</v>
       </c>
-      <c r="AY22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AY23" s="4">
+        <f t="shared" si="9"/>
         <v>1556</v>
       </c>
-      <c r="AZ22" s="4">
-        <f t="shared" si="3"/>
+      <c r="AZ23" s="4">
+        <f t="shared" si="9"/>
         <v>2248</v>
       </c>
-      <c r="BA22" s="4">
-        <f t="shared" si="3"/>
+      <c r="BA23" s="4">
+        <f t="shared" si="9"/>
         <v>2420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
-        <f>AVERAGE(B8:B12)</f>
-        <v>12489</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C8:C12)</f>
-        <v>12950.4</v>
-      </c>
-      <c r="D24" s="2">
-        <f>AVERAGE(D8:D12)</f>
-        <v>12558.2</v>
-      </c>
-      <c r="E24" s="2">
-        <f>AVERAGE(E8:E12)</f>
-        <v>12322.6</v>
-      </c>
-      <c r="F24" s="2">
-        <f>AVERAGE(F8:F12)</f>
-        <v>12009.8</v>
-      </c>
-      <c r="G24" s="2">
-        <f>AVERAGE(G8:G12)</f>
-        <v>11774.2</v>
-      </c>
-      <c r="H24" s="2">
-        <f>AVERAGE(H8:H12)</f>
-        <v>11663</v>
-      </c>
-      <c r="I24" s="2">
-        <f>AVERAGE(I8:I12)</f>
-        <v>11509.8</v>
-      </c>
-      <c r="J24" s="2">
-        <f>AVERAGE(J8:J12)</f>
-        <v>11252.6</v>
-      </c>
-      <c r="K24" s="2">
-        <f>AVERAGE(K8:K12)</f>
-        <v>11290.4</v>
-      </c>
-      <c r="L24" s="2">
-        <f>AVERAGE(L8:L12)</f>
-        <v>10993</v>
-      </c>
-      <c r="M24" s="2">
-        <f>AVERAGE(M8:M12)</f>
-        <v>10676.4</v>
-      </c>
-      <c r="N24" s="2">
-        <f>AVERAGE(N8:N12)</f>
-        <v>10543.4</v>
-      </c>
-      <c r="O24" s="2">
-        <f>AVERAGE(O8:O12)</f>
-        <v>10366.200000000001</v>
-      </c>
-      <c r="P24" s="2">
-        <f>AVERAGE(P8:P12)</f>
-        <v>10264</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>AVERAGE(Q8:Q12)</f>
-        <v>10183.6</v>
-      </c>
-      <c r="R24" s="2">
-        <f>AVERAGE(R8:R12)</f>
-        <v>9864.6</v>
-      </c>
-      <c r="S24" s="2">
-        <f>AVERAGE(S8:S12)</f>
-        <v>9828.6</v>
-      </c>
-      <c r="T24" s="2">
-        <f>AVERAGE(T8:T12)</f>
-        <v>9673.6</v>
-      </c>
-      <c r="U24" s="2">
-        <f>AVERAGE(U8:U12)</f>
-        <v>9637</v>
-      </c>
-      <c r="V24" s="2">
-        <f>AVERAGE(V8:V12)</f>
-        <v>9501</v>
-      </c>
-      <c r="W24" s="2">
-        <f>AVERAGE(W8:W12)</f>
-        <v>9283</v>
-      </c>
-      <c r="X24" s="2">
-        <f>AVERAGE(X8:X12)</f>
-        <v>9212.7999999999993</v>
-      </c>
-      <c r="Y24" s="2">
-        <f>AVERAGE(Y8:Y12)</f>
-        <v>9213.2000000000007</v>
-      </c>
-      <c r="Z24" s="2">
-        <f>AVERAGE(Z8:Z12)</f>
-        <v>9300</v>
-      </c>
-      <c r="AA24" s="2">
-        <f>AVERAGE(AA8:AA12)</f>
-        <v>9087.6</v>
-      </c>
-      <c r="AB24" s="2">
-        <f>AVERAGE(AB8:AB12)</f>
-        <v>9070</v>
-      </c>
-      <c r="AC24" s="2">
-        <f>AVERAGE(AC8:AC12)</f>
-        <v>9140.4</v>
-      </c>
-      <c r="AD24" s="2">
-        <f>AVERAGE(AD8:AD12)</f>
-        <v>8908.2000000000007</v>
-      </c>
-      <c r="AE24" s="2">
-        <f>AVERAGE(AE8:AE12)</f>
-        <v>9155.2000000000007</v>
-      </c>
-      <c r="AF24" s="2">
-        <f>AVERAGE(AF8:AF12)</f>
-        <v>8908.7999999999993</v>
-      </c>
-      <c r="AG24" s="2">
-        <f>AVERAGE(AG8:AG12)</f>
-        <v>9076.4</v>
-      </c>
-      <c r="AH24" s="2">
-        <f>AVERAGE(AH8:AH12)</f>
-        <v>8952.6</v>
-      </c>
-      <c r="AI24" s="2">
-        <f>AVERAGE(AI8:AI12)</f>
-        <v>8996.2000000000007</v>
-      </c>
-      <c r="AJ24" s="2">
-        <f>AVERAGE(AJ8:AJ12)</f>
-        <v>9049.2000000000007</v>
-      </c>
-      <c r="AK24" s="2">
-        <f>AVERAGE(AK8:AK12)</f>
-        <v>8825.4</v>
-      </c>
-      <c r="AL24" s="2">
-        <f>AVERAGE(AL8:AL12)</f>
-        <v>9106.7999999999993</v>
-      </c>
-      <c r="AM24" s="2">
-        <f>AVERAGE(AM8:AM12)</f>
-        <v>9221</v>
-      </c>
-      <c r="AN24" s="2">
-        <f>AVERAGE(AN8:AN12)</f>
-        <v>9318.7999999999993</v>
-      </c>
-      <c r="AO24" s="2">
-        <f>AVERAGE(AO8:AO12)</f>
-        <v>9526.2000000000007</v>
-      </c>
-      <c r="AP24" s="2">
-        <f>AVERAGE(AP8:AP12)</f>
-        <v>9720.7999999999993</v>
-      </c>
-      <c r="AQ24" s="2">
-        <f>AVERAGE(AQ8:AQ12)</f>
-        <v>9820.7999999999993</v>
-      </c>
-      <c r="AR24" s="2">
-        <f>AVERAGE(AR8:AR12)</f>
-        <v>9787.7999999999993</v>
-      </c>
-      <c r="AS24" s="2">
-        <f>AVERAGE(AS8:AS12)</f>
-        <v>9988.2000000000007</v>
-      </c>
-      <c r="AT24" s="3">
-        <f>AVERAGE(AT8:AT12)</f>
-        <v>10139.4</v>
-      </c>
-      <c r="AU24" s="3">
-        <f>AVERAGE(AU8:AU12)</f>
-        <v>10254</v>
-      </c>
-      <c r="AV24" s="3">
-        <f>AVERAGE(AV8:AV12)</f>
-        <v>10218</v>
-      </c>
-      <c r="AW24" s="3">
-        <f>AVERAGE(AW8:AW12)</f>
-        <v>10483.200000000001</v>
-      </c>
-      <c r="AX24" s="3">
-        <f>AVERAGE(AX8:AX12)</f>
-        <v>10673.8</v>
-      </c>
-      <c r="AY24" s="3">
-        <f>AVERAGE(AY8:AY12)</f>
-        <v>10987.6</v>
-      </c>
-      <c r="AZ24" s="3">
-        <f>AVERAGE(AZ8:AZ12)</f>
-        <v>11248.4</v>
-      </c>
-      <c r="BA24" s="3">
-        <f>AVERAGE(BA8:BA12)</f>
-        <v>11532.2</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2">
-        <f>B24-B18</f>
-        <v>506.20000000000073</v>
+        <f t="shared" ref="B25:AG25" si="10">AVERAGE(B8:B12)</f>
+        <v>12489</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:BA25" si="4">C24-C18</f>
-        <v>818.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>12950.4</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
-        <v>837.20000000000073</v>
+        <f t="shared" si="10"/>
+        <v>12558.2</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="4"/>
-        <v>945.30000000000109</v>
+        <f t="shared" si="10"/>
+        <v>12322.6</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="4"/>
-        <v>814.69999999999891</v>
+        <f t="shared" si="10"/>
+        <v>12009.8</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
-        <v>679.90000000000146</v>
+        <f t="shared" si="10"/>
+        <v>11774.2</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="4"/>
-        <v>620.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>11663</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="4"/>
-        <v>560.89999999999964</v>
+        <f t="shared" si="10"/>
+        <v>11509.8</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>491.10000000000036</v>
+        <f t="shared" si="10"/>
+        <v>11252.6</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>591.69999999999891</v>
+        <f t="shared" si="10"/>
+        <v>11290.4</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="4"/>
-        <v>452.60000000000036</v>
+        <f t="shared" si="10"/>
+        <v>10993</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
-        <v>357.60000000000036</v>
+        <f t="shared" si="10"/>
+        <v>10676.4</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="4"/>
-        <v>355</v>
+        <f t="shared" si="10"/>
+        <v>10543.4</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="4"/>
-        <v>218.10000000000036</v>
+        <f t="shared" si="10"/>
+        <v>10366.200000000001</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="4"/>
-        <v>228.10000000000036</v>
+        <f t="shared" si="10"/>
+        <v>10264</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="4"/>
-        <v>256.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>10183.6</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="4"/>
-        <v>90.5</v>
+        <f t="shared" si="10"/>
+        <v>9864.6</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="4"/>
-        <v>275.80000000000109</v>
+        <f t="shared" si="10"/>
+        <v>9828.6</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="4"/>
-        <v>200.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>9673.6</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="4"/>
-        <v>297.29999999999927</v>
+        <f t="shared" si="10"/>
+        <v>9637</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="4"/>
-        <v>141.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>9501</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="4"/>
-        <v>169.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>9283</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="4"/>
-        <v>192.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>9212.7999999999993</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="4"/>
-        <v>203.40000000000146</v>
+        <f t="shared" si="10"/>
+        <v>9213.2000000000007</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="4"/>
-        <v>336.5</v>
+        <f t="shared" si="10"/>
+        <v>9300</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="4"/>
-        <v>151.20000000000073</v>
+        <f t="shared" si="10"/>
+        <v>9087.6</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="4"/>
-        <v>184.39999999999964</v>
+        <f t="shared" si="10"/>
+        <v>9070</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="4"/>
-        <v>285</v>
+        <f t="shared" si="10"/>
+        <v>9140.4</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="4"/>
-        <v>132.70000000000073</v>
+        <f t="shared" si="10"/>
+        <v>8908.2000000000007</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="4"/>
-        <v>272.60000000000036</v>
+        <f t="shared" si="10"/>
+        <v>9155.2000000000007</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="4"/>
-        <v>200.89999999999964</v>
+        <f t="shared" si="10"/>
+        <v>8908.7999999999993</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="4"/>
-        <v>316.29999999999927</v>
+        <f t="shared" si="10"/>
+        <v>9076.4</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="4"/>
-        <v>222.20000000000073</v>
+        <f t="shared" ref="AH25:BA25" si="11">AVERAGE(AH8:AH12)</f>
+        <v>8952.6</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="4"/>
-        <v>202.10000000000036</v>
+        <f t="shared" si="11"/>
+        <v>8996.2000000000007</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="4"/>
-        <v>277.70000000000073</v>
+        <f t="shared" si="11"/>
+        <v>9049.2000000000007</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="4"/>
-        <v>101.69999999999891</v>
+        <f t="shared" si="11"/>
+        <v>8825.4</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="4"/>
-        <v>263.89999999999964</v>
+        <f t="shared" si="11"/>
+        <v>9106.7999999999993</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="4"/>
-        <v>248.79999999999927</v>
+        <f t="shared" si="11"/>
+        <v>9221</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="4"/>
-        <v>221.29999999999927</v>
+        <f t="shared" si="11"/>
+        <v>9318.7999999999993</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="4"/>
-        <v>218</v>
+        <f t="shared" si="11"/>
+        <v>9526.2000000000007</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="4"/>
-        <v>377.19999999999891</v>
+        <f t="shared" si="11"/>
+        <v>9720.7999999999993</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="4"/>
-        <v>333.5</v>
+        <f t="shared" si="11"/>
+        <v>9820.7999999999993</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="4"/>
-        <v>205.59999999999854</v>
+        <f t="shared" si="11"/>
+        <v>9787.7999999999993</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="4"/>
-        <v>279.70000000000073</v>
+        <f t="shared" si="11"/>
+        <v>9988.2000000000007</v>
       </c>
       <c r="AT25" s="3">
-        <f t="shared" si="4"/>
-        <v>406.79999999999927</v>
+        <f t="shared" si="11"/>
+        <v>10139.4</v>
       </c>
       <c r="AU25" s="3">
-        <f t="shared" si="4"/>
-        <v>336.89999999999964</v>
+        <f t="shared" si="11"/>
+        <v>10254</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="4"/>
-        <v>376.60000000000036</v>
+        <f t="shared" si="11"/>
+        <v>10218</v>
       </c>
       <c r="AW25" s="3">
-        <f t="shared" si="4"/>
-        <v>422.60000000000036</v>
+        <f t="shared" si="11"/>
+        <v>10483.200000000001</v>
       </c>
       <c r="AX25" s="3">
-        <f t="shared" si="4"/>
-        <v>337.09999999999854</v>
+        <f t="shared" si="11"/>
+        <v>10673.8</v>
       </c>
       <c r="AY25" s="3">
-        <f t="shared" si="4"/>
-        <v>234.5</v>
+        <f t="shared" si="11"/>
+        <v>10987.6</v>
       </c>
       <c r="AZ25" s="3">
-        <f t="shared" si="4"/>
-        <v>101.19999999999891</v>
+        <f t="shared" si="11"/>
+        <v>11248.4</v>
       </c>
       <c r="BA25" s="3">
-        <f t="shared" si="4"/>
-        <v>37.200000000000728</v>
+        <f t="shared" si="11"/>
+        <v>11532.2</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B25-B18</f>
+        <v>506.20000000000073</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:BA26" si="12">C25-C18</f>
+        <v>818.39999999999964</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="12"/>
+        <v>837.20000000000073</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="12"/>
+        <v>945.30000000000109</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="12"/>
+        <v>814.69999999999891</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="12"/>
+        <v>679.90000000000146</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="12"/>
+        <v>620.39999999999964</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="12"/>
+        <v>560.89999999999964</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="12"/>
+        <v>491.10000000000036</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="12"/>
+        <v>591.69999999999891</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="12"/>
+        <v>452.60000000000036</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="12"/>
+        <v>357.60000000000036</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="12"/>
+        <v>355</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="12"/>
+        <v>218.10000000000036</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="12"/>
+        <v>228.10000000000036</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="12"/>
+        <v>256.39999999999964</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="12"/>
+        <v>90.5</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="12"/>
+        <v>275.80000000000109</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="12"/>
+        <v>200.39999999999964</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="12"/>
+        <v>297.29999999999927</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="12"/>
+        <v>141.39999999999964</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="12"/>
+        <v>169.39999999999964</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="12"/>
+        <v>192.39999999999964</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="12"/>
+        <v>203.40000000000146</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="12"/>
+        <v>336.5</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="12"/>
+        <v>151.20000000000073</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="12"/>
+        <v>184.39999999999964</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="12"/>
+        <v>285</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="12"/>
+        <v>132.70000000000073</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="12"/>
+        <v>272.60000000000036</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="12"/>
+        <v>200.89999999999964</v>
+      </c>
+      <c r="AG26" s="2">
+        <f t="shared" si="12"/>
+        <v>316.29999999999927</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="12"/>
+        <v>222.20000000000073</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="12"/>
+        <v>202.10000000000036</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="12"/>
+        <v>277.70000000000073</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" si="12"/>
+        <v>101.69999999999891</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="12"/>
+        <v>263.89999999999964</v>
+      </c>
+      <c r="AM26" s="2">
+        <f t="shared" si="12"/>
+        <v>248.79999999999927</v>
+      </c>
+      <c r="AN26" s="2">
+        <f t="shared" si="12"/>
+        <v>221.29999999999927</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" si="12"/>
+        <v>218</v>
+      </c>
+      <c r="AP26" s="2">
+        <f t="shared" si="12"/>
+        <v>377.19999999999891</v>
+      </c>
+      <c r="AQ26" s="2">
+        <f t="shared" si="12"/>
+        <v>333.5</v>
+      </c>
+      <c r="AR26" s="2">
+        <f t="shared" si="12"/>
+        <v>205.59999999999854</v>
+      </c>
+      <c r="AS26" s="2">
+        <f t="shared" si="12"/>
+        <v>279.70000000000073</v>
+      </c>
+      <c r="AT26" s="3">
+        <f t="shared" si="12"/>
+        <v>406.79999999999927</v>
+      </c>
+      <c r="AU26" s="3">
+        <f t="shared" si="12"/>
+        <v>336.89999999999964</v>
+      </c>
+      <c r="AV26" s="3">
+        <f t="shared" si="12"/>
+        <v>376.60000000000036</v>
+      </c>
+      <c r="AW26" s="3">
+        <f t="shared" si="12"/>
+        <v>422.60000000000036</v>
+      </c>
+      <c r="AX26" s="3">
+        <f t="shared" si="12"/>
+        <v>337.09999999999854</v>
+      </c>
+      <c r="AY26" s="3">
+        <f t="shared" si="12"/>
+        <v>234.5</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f t="shared" si="12"/>
+        <v>101.19999999999891</v>
+      </c>
+      <c r="BA26" s="3">
+        <f t="shared" si="12"/>
+        <v>37.200000000000728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>5</v>
-      </c>
-      <c r="M30" s="2">
-        <v>103</v>
-      </c>
-      <c r="N30" s="2">
-        <v>539</v>
-      </c>
-      <c r="O30" s="2">
-        <v>3475</v>
-      </c>
-      <c r="P30" s="2">
-        <v>6213</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>8758</v>
-      </c>
-      <c r="R30" s="2">
-        <v>8237</v>
-      </c>
-      <c r="S30" s="2">
-        <v>6035</v>
-      </c>
-      <c r="T30" s="2">
-        <v>3930</v>
-      </c>
-      <c r="U30" s="2">
-        <v>3810</v>
-      </c>
-      <c r="V30" s="2">
-        <v>2589</v>
-      </c>
-      <c r="W30" s="2">
-        <v>1822</v>
-      </c>
-      <c r="X30" s="2">
-        <v>1588</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>1114</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>783</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>606</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>532</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>366</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>295</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>152</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>139</v>
-      </c>
-      <c r="AI30" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK30" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>99</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>139</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>215</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>321</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>438</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>670</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>978</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>1379</v>
-      </c>
-      <c r="AT30" s="3">
-        <v>1937</v>
-      </c>
-      <c r="AU30" s="3">
-        <v>2466</v>
-      </c>
-      <c r="AV30" s="3">
-        <v>2697</v>
-      </c>
-      <c r="AW30" s="3">
-        <v>3040</v>
-      </c>
-      <c r="AX30" s="3">
-        <v>2835</v>
-      </c>
-      <c r="AY30" s="3">
-        <v>2756</v>
-      </c>
-      <c r="AZ30" s="3">
-        <v>2986</v>
-      </c>
-      <c r="BA30" s="3">
-        <v>2912</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -25987,491 +26150,466 @@
         <v>5</v>
       </c>
       <c r="M31" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="O31" s="2">
-        <v>3332</v>
+        <v>3475</v>
       </c>
       <c r="P31" s="2">
-        <v>5983</v>
+        <v>6213</v>
       </c>
       <c r="Q31" s="2">
-        <v>8435</v>
+        <v>8758</v>
       </c>
       <c r="R31" s="2">
-        <v>7867</v>
+        <v>8237</v>
       </c>
       <c r="S31" s="2">
-        <v>5689</v>
+        <v>6035</v>
       </c>
       <c r="T31" s="2">
-        <v>3664</v>
+        <v>3930</v>
       </c>
       <c r="U31" s="2">
-        <v>3511</v>
+        <v>3810</v>
       </c>
       <c r="V31" s="2">
-        <v>2341</v>
+        <v>2589</v>
       </c>
       <c r="W31" s="2">
-        <v>1628</v>
+        <v>1822</v>
       </c>
       <c r="X31" s="2">
-        <v>1392</v>
+        <v>1588</v>
       </c>
       <c r="Y31" s="2">
-        <v>948</v>
+        <v>1114</v>
       </c>
       <c r="Z31" s="2">
-        <v>629</v>
+        <v>783</v>
       </c>
       <c r="AA31" s="2">
-        <v>498</v>
+        <v>606</v>
       </c>
       <c r="AB31" s="2">
-        <v>408</v>
+        <v>532</v>
       </c>
       <c r="AC31" s="2">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="AD31" s="2">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="AE31" s="2">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="AF31" s="2">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="AG31" s="2">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AH31" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AI31" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AJ31" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK31" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AL31" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AM31" s="2">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="AN31" s="2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AO31" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="AP31" s="2">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="AQ31" s="2">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="AR31" s="2">
-        <v>874</v>
+        <v>978</v>
       </c>
       <c r="AS31" s="2">
-        <v>1196</v>
+        <v>1379</v>
       </c>
       <c r="AT31" s="3">
-        <v>1743</v>
+        <v>1937</v>
       </c>
       <c r="AU31" s="3">
-        <v>2170</v>
+        <v>2466</v>
       </c>
       <c r="AV31" s="3">
-        <v>2361</v>
+        <v>2697</v>
       </c>
       <c r="AW31" s="3">
-        <v>2637</v>
+        <v>3040</v>
       </c>
       <c r="AX31" s="3">
-        <v>2469</v>
+        <v>2835</v>
       </c>
       <c r="AY31" s="3">
-        <v>2337</v>
+        <v>2756</v>
       </c>
       <c r="AZ31" s="3">
-        <v>2557</v>
+        <v>2986</v>
       </c>
       <c r="BA31" s="3">
-        <v>2497</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>5</v>
+      </c>
+      <c r="M32" s="2">
+        <v>95</v>
+      </c>
+      <c r="N32" s="2">
+        <v>519</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3332</v>
+      </c>
+      <c r="P32" s="2">
+        <v>5983</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>8435</v>
+      </c>
+      <c r="R32" s="2">
+        <v>7867</v>
+      </c>
+      <c r="S32" s="2">
+        <v>5689</v>
+      </c>
+      <c r="T32" s="2">
+        <v>3664</v>
+      </c>
+      <c r="U32" s="2">
+        <v>3511</v>
+      </c>
+      <c r="V32" s="2">
+        <v>2341</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1628</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1392</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>948</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>629</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>498</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>408</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>291</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>228</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>115</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>104</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>69</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>178</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>279</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>385</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>590</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>874</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>1743</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>2170</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>2361</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>2637</v>
+      </c>
+      <c r="AX32" s="3">
+        <v>2469</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>2337</v>
+      </c>
+      <c r="AZ32" s="3">
+        <v>2557</v>
+      </c>
+      <c r="BA32" s="3">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L32" s="10">
-        <f>L31/L30</f>
+      <c r="L33" s="10">
+        <f>L32/L31</f>
         <v>1</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" ref="M32:BA32" si="5">M31/M30</f>
+      <c r="M33" s="10">
+        <f t="shared" ref="M33:BA33" si="13">M32/M31</f>
         <v>0.92233009708737868</v>
       </c>
-      <c r="N32" s="10">
-        <f t="shared" si="5"/>
+      <c r="N33" s="10">
+        <f t="shared" si="13"/>
         <v>0.96289424860853434</v>
       </c>
-      <c r="O32" s="10">
-        <f t="shared" si="5"/>
+      <c r="O33" s="10">
+        <f t="shared" si="13"/>
         <v>0.95884892086330931</v>
       </c>
-      <c r="P32" s="10">
-        <f t="shared" si="5"/>
+      <c r="P33" s="10">
+        <f t="shared" si="13"/>
         <v>0.96298084661194272</v>
       </c>
-      <c r="Q32" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q33" s="10">
+        <f t="shared" si="13"/>
         <v>0.96311943366065311</v>
       </c>
-      <c r="R32" s="10">
-        <f t="shared" si="5"/>
+      <c r="R33" s="10">
+        <f t="shared" si="13"/>
         <v>0.95508073327667842</v>
       </c>
-      <c r="S32" s="10">
-        <f t="shared" si="5"/>
+      <c r="S33" s="10">
+        <f t="shared" si="13"/>
         <v>0.94266777133388568</v>
       </c>
-      <c r="T32" s="10">
-        <f t="shared" si="5"/>
+      <c r="T33" s="10">
+        <f t="shared" si="13"/>
         <v>0.93231552162849873</v>
       </c>
-      <c r="U32" s="10">
-        <f t="shared" si="5"/>
+      <c r="U33" s="10">
+        <f t="shared" si="13"/>
         <v>0.92152230971128613</v>
       </c>
-      <c r="V32" s="10">
-        <f t="shared" si="5"/>
+      <c r="V33" s="10">
+        <f t="shared" si="13"/>
         <v>0.90421011973735033</v>
       </c>
-      <c r="W32" s="10">
-        <f t="shared" si="5"/>
+      <c r="W33" s="10">
+        <f t="shared" si="13"/>
         <v>0.89352360043907797</v>
       </c>
-      <c r="X32" s="10">
-        <f t="shared" si="5"/>
+      <c r="X33" s="10">
+        <f t="shared" si="13"/>
         <v>0.87657430730478592</v>
       </c>
-      <c r="Y32" s="10">
-        <f t="shared" si="5"/>
+      <c r="Y33" s="10">
+        <f t="shared" si="13"/>
         <v>0.85098743267504484</v>
       </c>
-      <c r="Z32" s="10">
-        <f t="shared" si="5"/>
+      <c r="Z33" s="10">
+        <f t="shared" si="13"/>
         <v>0.80332056194125157</v>
       </c>
-      <c r="AA32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AA33" s="10">
+        <f t="shared" si="13"/>
         <v>0.82178217821782173</v>
       </c>
-      <c r="AB32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AB33" s="10">
+        <f t="shared" si="13"/>
         <v>0.76691729323308266</v>
       </c>
-      <c r="AC32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AC33" s="10">
+        <f t="shared" si="13"/>
         <v>0.79508196721311475</v>
       </c>
-      <c r="AD32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AD33" s="10">
+        <f t="shared" si="13"/>
         <v>0.77288135593220342</v>
       </c>
-      <c r="AE32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AE33" s="10">
+        <f t="shared" si="13"/>
         <v>0.74193548387096775</v>
       </c>
-      <c r="AF32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AF33" s="10">
+        <f t="shared" si="13"/>
         <v>0.76683937823834192</v>
       </c>
-      <c r="AG32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AG33" s="10">
+        <f t="shared" si="13"/>
         <v>0.75657894736842102</v>
       </c>
-      <c r="AH32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AH33" s="10">
+        <f t="shared" si="13"/>
         <v>0.74820143884892087</v>
       </c>
-      <c r="AI32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AI33" s="10">
+        <f t="shared" si="13"/>
         <v>0.71014492753623193</v>
       </c>
-      <c r="AJ32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AJ33" s="10">
+        <f t="shared" si="13"/>
         <v>0.75247524752475248</v>
       </c>
-      <c r="AK32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AK33" s="10">
+        <f t="shared" si="13"/>
         <v>0.88461538461538458</v>
       </c>
-      <c r="AL32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AL33" s="10">
+        <f t="shared" si="13"/>
         <v>0.78787878787878785</v>
       </c>
-      <c r="AM32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AM33" s="10">
+        <f t="shared" si="13"/>
         <v>0.84892086330935257</v>
       </c>
-      <c r="AN32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AN33" s="10">
+        <f t="shared" si="13"/>
         <v>0.82790697674418601</v>
       </c>
-      <c r="AO32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AO33" s="10">
+        <f t="shared" si="13"/>
         <v>0.86915887850467288</v>
       </c>
-      <c r="AP32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AP33" s="10">
+        <f t="shared" si="13"/>
         <v>0.87899543378995437</v>
       </c>
-      <c r="AQ32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AQ33" s="10">
+        <f t="shared" si="13"/>
         <v>0.88059701492537312</v>
       </c>
-      <c r="AR32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AR33" s="10">
+        <f t="shared" si="13"/>
         <v>0.8936605316973415</v>
       </c>
-      <c r="AS32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AS33" s="10">
+        <f t="shared" si="13"/>
         <v>0.86729514140681652</v>
       </c>
-      <c r="AT32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AT33" s="10">
+        <f t="shared" si="13"/>
         <v>0.89984512132163141</v>
       </c>
-      <c r="AU32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AU33" s="10">
+        <f t="shared" si="13"/>
         <v>0.87996755879967559</v>
       </c>
-      <c r="AV32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AV33" s="10">
+        <f t="shared" si="13"/>
         <v>0.87541713014460509</v>
       </c>
-      <c r="AW32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AW33" s="10">
+        <f t="shared" si="13"/>
         <v>0.86743421052631575</v>
       </c>
-      <c r="AX32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AX33" s="10">
+        <f t="shared" si="13"/>
         <v>0.87089947089947095</v>
       </c>
-      <c r="AY32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AY33" s="10">
+        <f t="shared" si="13"/>
         <v>0.84796806966618288</v>
       </c>
-      <c r="AZ32" s="10">
-        <f t="shared" si="5"/>
+      <c r="AZ33" s="10">
+        <f t="shared" si="13"/>
         <v>0.8563295378432686</v>
       </c>
-      <c r="BA32" s="10">
-        <f t="shared" si="5"/>
+      <c r="BA33" s="10">
+        <f t="shared" si="13"/>
         <v>0.85748626373626369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <f>AVERAGE(K30:L30)</f>
-        <v>2.5</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" ref="L34:BA35" si="6">AVERAGE(L30:M30)</f>
-        <v>54</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="6"/>
-        <v>321</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="6"/>
-        <v>2007</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="6"/>
-        <v>4844</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="6"/>
-        <v>7485.5</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="6"/>
-        <v>8497.5</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="6"/>
-        <v>7136</v>
-      </c>
-      <c r="S34" s="2">
-        <f t="shared" si="6"/>
-        <v>4982.5</v>
-      </c>
-      <c r="T34" s="2">
-        <f t="shared" si="6"/>
-        <v>3870</v>
-      </c>
-      <c r="U34" s="2">
-        <f t="shared" si="6"/>
-        <v>3199.5</v>
-      </c>
-      <c r="V34" s="2">
-        <f t="shared" si="6"/>
-        <v>2205.5</v>
-      </c>
-      <c r="W34" s="2">
-        <f t="shared" si="6"/>
-        <v>1705</v>
-      </c>
-      <c r="X34" s="2">
-        <f t="shared" si="6"/>
-        <v>1351</v>
-      </c>
-      <c r="Y34" s="2">
-        <f t="shared" si="6"/>
-        <v>948.5</v>
-      </c>
-      <c r="Z34" s="2">
-        <f t="shared" si="6"/>
-        <v>694.5</v>
-      </c>
-      <c r="AA34" s="2">
-        <f t="shared" si="6"/>
-        <v>569</v>
-      </c>
-      <c r="AB34" s="2">
-        <f t="shared" si="6"/>
-        <v>449</v>
-      </c>
-      <c r="AC34" s="2">
-        <f t="shared" si="6"/>
-        <v>330.5</v>
-      </c>
-      <c r="AD34" s="2">
-        <f t="shared" si="6"/>
-        <v>256</v>
-      </c>
-      <c r="AE34" s="2">
-        <f t="shared" si="6"/>
-        <v>205</v>
-      </c>
-      <c r="AF34" s="2">
-        <f t="shared" si="6"/>
-        <v>172.5</v>
-      </c>
-      <c r="AG34" s="2">
-        <f t="shared" si="6"/>
-        <v>145.5</v>
-      </c>
-      <c r="AH34" s="2">
-        <f t="shared" si="6"/>
-        <v>138.5</v>
-      </c>
-      <c r="AI34" s="2">
-        <f t="shared" si="6"/>
-        <v>119.5</v>
-      </c>
-      <c r="AJ34" s="2">
-        <f t="shared" si="6"/>
-        <v>89.5</v>
-      </c>
-      <c r="AK34" s="2">
-        <f t="shared" si="6"/>
-        <v>88.5</v>
-      </c>
-      <c r="AL34" s="2">
-        <f t="shared" si="6"/>
-        <v>119</v>
-      </c>
-      <c r="AM34" s="2">
-        <f t="shared" si="6"/>
-        <v>177</v>
-      </c>
-      <c r="AN34" s="2">
-        <f t="shared" si="6"/>
-        <v>268</v>
-      </c>
-      <c r="AO34" s="2">
-        <f t="shared" si="6"/>
-        <v>379.5</v>
-      </c>
-      <c r="AP34" s="2">
-        <f t="shared" si="6"/>
-        <v>554</v>
-      </c>
-      <c r="AQ34" s="2">
-        <f t="shared" si="6"/>
-        <v>824</v>
-      </c>
-      <c r="AR34" s="2">
-        <f t="shared" si="6"/>
-        <v>1178.5</v>
-      </c>
-      <c r="AS34" s="2">
-        <f t="shared" si="6"/>
-        <v>1658</v>
-      </c>
-      <c r="AT34" s="3">
-        <f t="shared" si="6"/>
-        <v>2201.5</v>
-      </c>
-      <c r="AU34" s="3">
-        <f t="shared" si="6"/>
-        <v>2581.5</v>
-      </c>
-      <c r="AV34" s="3">
-        <f t="shared" si="6"/>
-        <v>2868.5</v>
-      </c>
-      <c r="AW34" s="3">
-        <f t="shared" si="6"/>
-        <v>2937.5</v>
-      </c>
-      <c r="AX34" s="3">
-        <f t="shared" si="6"/>
-        <v>2795.5</v>
-      </c>
-      <c r="AY34" s="3">
-        <f t="shared" si="6"/>
-        <v>2871</v>
-      </c>
-      <c r="AZ34" s="3">
-        <f t="shared" si="6"/>
-        <v>2949</v>
-      </c>
-      <c r="BA34" s="3">
-        <f t="shared" si="6"/>
-        <v>2912</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -26487,1243 +26625,1429 @@
         <v>2.5</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="6"/>
-        <v>50</v>
+        <f t="shared" ref="L35:BA36" si="14">AVERAGE(L31:M31)</f>
+        <v>54</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="6"/>
-        <v>307</v>
+        <f t="shared" si="14"/>
+        <v>321</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="6"/>
-        <v>1925.5</v>
+        <f t="shared" si="14"/>
+        <v>2007</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="6"/>
-        <v>4657.5</v>
+        <f t="shared" si="14"/>
+        <v>4844</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="6"/>
-        <v>7209</v>
+        <f t="shared" si="14"/>
+        <v>7485.5</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="6"/>
-        <v>8151</v>
+        <f t="shared" si="14"/>
+        <v>8497.5</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="6"/>
-        <v>6778</v>
+        <f t="shared" si="14"/>
+        <v>7136</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="6"/>
-        <v>4676.5</v>
+        <f t="shared" si="14"/>
+        <v>4982.5</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="6"/>
-        <v>3587.5</v>
+        <f t="shared" si="14"/>
+        <v>3870</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="6"/>
-        <v>2926</v>
+        <f t="shared" si="14"/>
+        <v>3199.5</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="6"/>
-        <v>1984.5</v>
+        <f t="shared" si="14"/>
+        <v>2205.5</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="6"/>
-        <v>1510</v>
+        <f t="shared" si="14"/>
+        <v>1705</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="6"/>
-        <v>1170</v>
+        <f t="shared" si="14"/>
+        <v>1351</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="6"/>
-        <v>788.5</v>
+        <f t="shared" si="14"/>
+        <v>948.5</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="6"/>
-        <v>563.5</v>
+        <f t="shared" si="14"/>
+        <v>694.5</v>
       </c>
       <c r="AA35" s="2">
-        <f t="shared" si="6"/>
-        <v>453</v>
+        <f t="shared" si="14"/>
+        <v>569</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="6"/>
-        <v>349.5</v>
+        <f t="shared" si="14"/>
+        <v>449</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="6"/>
-        <v>259.5</v>
+        <f t="shared" si="14"/>
+        <v>330.5</v>
       </c>
       <c r="AD35" s="2">
-        <f t="shared" si="6"/>
-        <v>194.5</v>
+        <f t="shared" si="14"/>
+        <v>256</v>
       </c>
       <c r="AE35" s="2">
-        <f t="shared" si="6"/>
-        <v>154.5</v>
+        <f t="shared" si="14"/>
+        <v>205</v>
       </c>
       <c r="AF35" s="2">
-        <f t="shared" si="6"/>
-        <v>131.5</v>
+        <f t="shared" si="14"/>
+        <v>172.5</v>
       </c>
       <c r="AG35" s="2">
-        <f t="shared" si="6"/>
-        <v>109.5</v>
+        <f t="shared" si="14"/>
+        <v>145.5</v>
       </c>
       <c r="AH35" s="2">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="14"/>
+        <v>138.5</v>
       </c>
       <c r="AI35" s="2">
-        <f t="shared" si="6"/>
-        <v>87</v>
+        <f t="shared" si="14"/>
+        <v>119.5</v>
       </c>
       <c r="AJ35" s="2">
-        <f t="shared" si="6"/>
-        <v>72.5</v>
+        <f t="shared" si="14"/>
+        <v>89.5</v>
       </c>
       <c r="AK35" s="2">
-        <f t="shared" si="6"/>
-        <v>73.5</v>
+        <f t="shared" si="14"/>
+        <v>88.5</v>
       </c>
       <c r="AL35" s="2">
-        <f t="shared" si="6"/>
-        <v>98</v>
+        <f t="shared" si="14"/>
+        <v>119</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="6"/>
-        <v>148</v>
+        <f t="shared" si="14"/>
+        <v>177</v>
       </c>
       <c r="AN35" s="2">
-        <f t="shared" si="6"/>
-        <v>228.5</v>
+        <f t="shared" si="14"/>
+        <v>268</v>
       </c>
       <c r="AO35" s="2">
-        <f t="shared" si="6"/>
-        <v>332</v>
+        <f t="shared" si="14"/>
+        <v>379.5</v>
       </c>
       <c r="AP35" s="2">
-        <f t="shared" si="6"/>
-        <v>487.5</v>
+        <f t="shared" si="14"/>
+        <v>554</v>
       </c>
       <c r="AQ35" s="2">
-        <f t="shared" si="6"/>
-        <v>732</v>
+        <f t="shared" si="14"/>
+        <v>824</v>
       </c>
       <c r="AR35" s="2">
-        <f t="shared" si="6"/>
-        <v>1035</v>
+        <f t="shared" si="14"/>
+        <v>1178.5</v>
       </c>
       <c r="AS35" s="2">
-        <f t="shared" si="6"/>
-        <v>1469.5</v>
+        <f t="shared" si="14"/>
+        <v>1658</v>
       </c>
       <c r="AT35" s="3">
-        <f t="shared" si="6"/>
-        <v>1956.5</v>
+        <f t="shared" si="14"/>
+        <v>2201.5</v>
       </c>
       <c r="AU35" s="3">
-        <f t="shared" si="6"/>
-        <v>2265.5</v>
+        <f t="shared" si="14"/>
+        <v>2581.5</v>
       </c>
       <c r="AV35" s="3">
-        <f t="shared" si="6"/>
-        <v>2499</v>
+        <f t="shared" si="14"/>
+        <v>2868.5</v>
       </c>
       <c r="AW35" s="3">
-        <f t="shared" si="6"/>
-        <v>2553</v>
+        <f t="shared" si="14"/>
+        <v>2937.5</v>
       </c>
       <c r="AX35" s="3">
-        <f t="shared" si="6"/>
-        <v>2403</v>
+        <f t="shared" si="14"/>
+        <v>2795.5</v>
       </c>
       <c r="AY35" s="3">
-        <f t="shared" si="6"/>
-        <v>2447</v>
+        <f t="shared" si="14"/>
+        <v>2871</v>
       </c>
       <c r="AZ35" s="3">
-        <f t="shared" si="6"/>
-        <v>2527</v>
+        <f t="shared" si="14"/>
+        <v>2949</v>
       </c>
       <c r="BA35" s="3">
-        <f t="shared" si="6"/>
-        <v>2497</v>
+        <f t="shared" si="14"/>
+        <v>2912</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <f>AVERAGE(K32:L32)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="14"/>
+        <v>307</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="14"/>
+        <v>1925.5</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="14"/>
+        <v>4657.5</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="14"/>
+        <v>7209</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="14"/>
+        <v>8151</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="14"/>
+        <v>6778</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="14"/>
+        <v>4676.5</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="14"/>
+        <v>3587.5</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="14"/>
+        <v>2926</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="14"/>
+        <v>1984.5</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="14"/>
+        <v>1510</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="14"/>
+        <v>1170</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="14"/>
+        <v>788.5</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="14"/>
+        <v>563.5</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="14"/>
+        <v>453</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="14"/>
+        <v>349.5</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="14"/>
+        <v>259.5</v>
+      </c>
+      <c r="AD36" s="2">
+        <f t="shared" si="14"/>
+        <v>194.5</v>
+      </c>
+      <c r="AE36" s="2">
+        <f t="shared" si="14"/>
+        <v>154.5</v>
+      </c>
+      <c r="AF36" s="2">
+        <f t="shared" si="14"/>
+        <v>131.5</v>
+      </c>
+      <c r="AG36" s="2">
+        <f t="shared" si="14"/>
+        <v>109.5</v>
+      </c>
+      <c r="AH36" s="2">
+        <f t="shared" si="14"/>
+        <v>101</v>
+      </c>
+      <c r="AI36" s="2">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="AJ36" s="2">
+        <f t="shared" si="14"/>
+        <v>72.5</v>
+      </c>
+      <c r="AK36" s="2">
+        <f t="shared" si="14"/>
+        <v>73.5</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+      <c r="AM36" s="2">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="AN36" s="2">
+        <f t="shared" si="14"/>
+        <v>228.5</v>
+      </c>
+      <c r="AO36" s="2">
+        <f t="shared" si="14"/>
+        <v>332</v>
+      </c>
+      <c r="AP36" s="2">
+        <f t="shared" si="14"/>
+        <v>487.5</v>
+      </c>
+      <c r="AQ36" s="2">
+        <f t="shared" si="14"/>
+        <v>732</v>
+      </c>
+      <c r="AR36" s="2">
+        <f t="shared" si="14"/>
+        <v>1035</v>
+      </c>
+      <c r="AS36" s="2">
+        <f t="shared" si="14"/>
+        <v>1469.5</v>
+      </c>
+      <c r="AT36" s="3">
+        <f t="shared" si="14"/>
+        <v>1956.5</v>
+      </c>
+      <c r="AU36" s="3">
+        <f t="shared" si="14"/>
+        <v>2265.5</v>
+      </c>
+      <c r="AV36" s="3">
+        <f t="shared" si="14"/>
+        <v>2499</v>
+      </c>
+      <c r="AW36" s="3">
+        <f t="shared" si="14"/>
+        <v>2553</v>
+      </c>
+      <c r="AX36" s="3">
+        <f t="shared" si="14"/>
+        <v>2403</v>
+      </c>
+      <c r="AY36" s="3">
+        <f t="shared" si="14"/>
+        <v>2447</v>
+      </c>
+      <c r="AZ36" s="3">
+        <f t="shared" si="14"/>
+        <v>2527</v>
+      </c>
+      <c r="BA36" s="3">
+        <f t="shared" si="14"/>
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B37" s="12">
         <v>1</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>1</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>1</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="12">
         <v>1</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>1</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>1</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="12">
         <v>1</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="12">
         <v>1</v>
       </c>
-      <c r="K36" s="10">
-        <f>K35/K34</f>
+      <c r="K37" s="10">
+        <f>K36/K35</f>
         <v>1</v>
       </c>
-      <c r="L36" s="10">
-        <f>L35/L34</f>
+      <c r="L37" s="10">
+        <f>L36/L35</f>
         <v>0.92592592592592593</v>
       </c>
-      <c r="M36" s="10">
-        <f t="shared" ref="M36" si="7">M35/M34</f>
+      <c r="M37" s="10">
+        <f t="shared" ref="M37" si="15">M36/M35</f>
         <v>0.95638629283489096</v>
       </c>
-      <c r="N36" s="10">
-        <f t="shared" ref="N36" si="8">N35/N34</f>
+      <c r="N37" s="10">
+        <f t="shared" ref="N37" si="16">N36/N35</f>
         <v>0.95939212755356251</v>
       </c>
-      <c r="O36" s="10">
-        <f t="shared" ref="O36" si="9">O35/O34</f>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37" si="17">O36/O35</f>
         <v>0.96149876135425272</v>
       </c>
-      <c r="P36" s="10">
-        <f t="shared" ref="P36" si="10">P35/P34</f>
+      <c r="P37" s="10">
+        <f t="shared" ref="P37" si="18">P36/P35</f>
         <v>0.96306191971144217</v>
       </c>
-      <c r="Q36" s="10">
-        <f t="shared" ref="Q36" si="11">Q35/Q34</f>
+      <c r="Q37" s="10">
+        <f t="shared" ref="Q37" si="19">Q36/Q35</f>
         <v>0.95922330097087383</v>
       </c>
-      <c r="R36" s="10">
-        <f t="shared" ref="R36" si="12">R35/R34</f>
+      <c r="R37" s="10">
+        <f t="shared" ref="R37" si="20">R36/R35</f>
         <v>0.9498318385650224</v>
       </c>
-      <c r="S36" s="10">
-        <f t="shared" ref="S36" si="13">S35/S34</f>
+      <c r="S37" s="10">
+        <f t="shared" ref="S37" si="21">S36/S35</f>
         <v>0.93858504766683393</v>
       </c>
-      <c r="T36" s="10">
-        <f t="shared" ref="T36" si="14">T35/T34</f>
+      <c r="T37" s="10">
+        <f t="shared" ref="T37" si="22">T36/T35</f>
         <v>0.92700258397932822</v>
       </c>
-      <c r="U36" s="10">
-        <f t="shared" ref="U36" si="15">U35/U34</f>
+      <c r="U37" s="10">
+        <f t="shared" ref="U37" si="23">U36/U35</f>
         <v>0.91451789342084699</v>
       </c>
-      <c r="V36" s="10">
-        <f t="shared" ref="V36" si="16">V35/V34</f>
+      <c r="V37" s="10">
+        <f t="shared" ref="V37" si="24">V36/V35</f>
         <v>0.8997959646338699</v>
       </c>
-      <c r="W36" s="10">
-        <f t="shared" ref="W36" si="17">W35/W34</f>
+      <c r="W37" s="10">
+        <f t="shared" ref="W37" si="25">W36/W35</f>
         <v>0.88563049853372433</v>
       </c>
-      <c r="X36" s="10">
-        <f t="shared" ref="X36" si="18">X35/X34</f>
+      <c r="X37" s="10">
+        <f t="shared" ref="X37" si="26">X36/X35</f>
         <v>0.86602516654330131</v>
       </c>
-      <c r="Y36" s="10">
-        <f t="shared" ref="Y36" si="19">Y35/Y34</f>
+      <c r="Y37" s="10">
+        <f t="shared" ref="Y37" si="27">Y36/Y35</f>
         <v>0.83131259884027409</v>
       </c>
-      <c r="Z36" s="10">
-        <f t="shared" ref="Z36" si="20">Z35/Z34</f>
+      <c r="Z37" s="10">
+        <f t="shared" ref="Z37" si="28">Z36/Z35</f>
         <v>0.81137508999280061</v>
       </c>
-      <c r="AA36" s="10">
-        <f t="shared" ref="AA36" si="21">AA35/AA34</f>
+      <c r="AA37" s="10">
+        <f t="shared" ref="AA37" si="29">AA36/AA35</f>
         <v>0.79613356766256593</v>
       </c>
-      <c r="AB36" s="10">
-        <f t="shared" ref="AB36" si="22">AB35/AB34</f>
+      <c r="AB37" s="10">
+        <f t="shared" ref="AB37" si="30">AB36/AB35</f>
         <v>0.77839643652561252</v>
       </c>
-      <c r="AC36" s="10">
-        <f t="shared" ref="AC36" si="23">AC35/AC34</f>
+      <c r="AC37" s="10">
+        <f t="shared" ref="AC37" si="31">AC36/AC35</f>
         <v>0.78517397881996975</v>
       </c>
-      <c r="AD36" s="10">
-        <f t="shared" ref="AD36" si="24">AD35/AD34</f>
+      <c r="AD37" s="10">
+        <f t="shared" ref="AD37" si="32">AD36/AD35</f>
         <v>0.759765625</v>
       </c>
-      <c r="AE36" s="10">
-        <f t="shared" ref="AE36" si="25">AE35/AE34</f>
+      <c r="AE37" s="10">
+        <f t="shared" ref="AE37" si="33">AE36/AE35</f>
         <v>0.75365853658536586</v>
       </c>
-      <c r="AF36" s="10">
-        <f t="shared" ref="AF36" si="26">AF35/AF34</f>
+      <c r="AF37" s="10">
+        <f t="shared" ref="AF37" si="34">AF36/AF35</f>
         <v>0.76231884057971011</v>
       </c>
-      <c r="AG36" s="10">
-        <f t="shared" ref="AG36" si="27">AG35/AG34</f>
+      <c r="AG37" s="10">
+        <f t="shared" ref="AG37" si="35">AG36/AG35</f>
         <v>0.75257731958762886</v>
       </c>
-      <c r="AH36" s="10">
-        <f t="shared" ref="AH36" si="28">AH35/AH34</f>
+      <c r="AH37" s="10">
+        <f t="shared" ref="AH37" si="36">AH36/AH35</f>
         <v>0.72924187725631773</v>
       </c>
-      <c r="AI36" s="10">
-        <f t="shared" ref="AI36" si="29">AI35/AI34</f>
+      <c r="AI37" s="10">
+        <f t="shared" ref="AI37" si="37">AI36/AI35</f>
         <v>0.72803347280334729</v>
       </c>
-      <c r="AJ36" s="10">
-        <f t="shared" ref="AJ36" si="30">AJ35/AJ34</f>
+      <c r="AJ37" s="10">
+        <f t="shared" ref="AJ37" si="38">AJ36/AJ35</f>
         <v>0.81005586592178769</v>
       </c>
-      <c r="AK36" s="10">
-        <f t="shared" ref="AK36" si="31">AK35/AK34</f>
+      <c r="AK37" s="10">
+        <f t="shared" ref="AK37" si="39">AK36/AK35</f>
         <v>0.83050847457627119</v>
       </c>
-      <c r="AL36" s="10">
-        <f t="shared" ref="AL36" si="32">AL35/AL34</f>
+      <c r="AL37" s="10">
+        <f t="shared" ref="AL37" si="40">AL36/AL35</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="AM36" s="10">
-        <f t="shared" ref="AM36" si="33">AM35/AM34</f>
+      <c r="AM37" s="10">
+        <f t="shared" ref="AM37" si="41">AM36/AM35</f>
         <v>0.83615819209039544</v>
       </c>
-      <c r="AN36" s="10">
-        <f t="shared" ref="AN36" si="34">AN35/AN34</f>
+      <c r="AN37" s="10">
+        <f t="shared" ref="AN37" si="42">AN36/AN35</f>
         <v>0.85261194029850751</v>
       </c>
-      <c r="AO36" s="10">
-        <f t="shared" ref="AO36" si="35">AO35/AO34</f>
+      <c r="AO37" s="10">
+        <f t="shared" ref="AO37" si="43">AO36/AO35</f>
         <v>0.87483530961791833</v>
       </c>
-      <c r="AP36" s="10">
-        <f t="shared" ref="AP36" si="36">AP35/AP34</f>
+      <c r="AP37" s="10">
+        <f t="shared" ref="AP37" si="44">AP36/AP35</f>
         <v>0.87996389891696747</v>
       </c>
-      <c r="AQ36" s="10">
-        <f t="shared" ref="AQ36" si="37">AQ35/AQ34</f>
+      <c r="AQ37" s="10">
+        <f t="shared" ref="AQ37" si="45">AQ36/AQ35</f>
         <v>0.88834951456310685</v>
       </c>
-      <c r="AR36" s="10">
-        <f t="shared" ref="AR36" si="38">AR35/AR34</f>
+      <c r="AR37" s="10">
+        <f t="shared" ref="AR37" si="46">AR36/AR35</f>
         <v>0.87823504454815449</v>
       </c>
-      <c r="AS36" s="10">
-        <f t="shared" ref="AS36" si="39">AS35/AS34</f>
+      <c r="AS37" s="10">
+        <f t="shared" ref="AS37" si="47">AS36/AS35</f>
         <v>0.88630880579010851</v>
       </c>
-      <c r="AT36" s="10">
-        <f t="shared" ref="AT36" si="40">AT35/AT34</f>
+      <c r="AT37" s="10">
+        <f t="shared" ref="AT37" si="48">AT36/AT35</f>
         <v>0.88871224165341811</v>
       </c>
-      <c r="AU36" s="10">
-        <f t="shared" ref="AU36" si="41">AU35/AU34</f>
+      <c r="AU37" s="10">
+        <f t="shared" ref="AU37" si="49">AU36/AU35</f>
         <v>0.87759054813093162</v>
       </c>
-      <c r="AV36" s="10">
-        <f t="shared" ref="AV36" si="42">AV35/AV34</f>
+      <c r="AV37" s="10">
+        <f t="shared" ref="AV37" si="50">AV36/AV35</f>
         <v>0.87118703154959043</v>
       </c>
-      <c r="AW36" s="10">
-        <f t="shared" ref="AW36" si="43">AW35/AW34</f>
+      <c r="AW37" s="10">
+        <f t="shared" ref="AW37" si="51">AW36/AW35</f>
         <v>0.86910638297872345</v>
       </c>
-      <c r="AX36" s="10">
-        <f t="shared" ref="AX36" si="44">AX35/AX34</f>
+      <c r="AX37" s="10">
+        <f t="shared" ref="AX37" si="52">AX36/AX35</f>
         <v>0.85959577893042394</v>
       </c>
-      <c r="AY36" s="10">
-        <f t="shared" ref="AY36" si="45">AY35/AY34</f>
+      <c r="AY37" s="10">
+        <f t="shared" ref="AY37" si="53">AY36/AY35</f>
         <v>0.8523162661093695</v>
       </c>
-      <c r="AZ36" s="10">
-        <f t="shared" ref="AZ36" si="46">AZ35/AZ34</f>
+      <c r="AZ37" s="10">
+        <f t="shared" ref="AZ37" si="54">AZ36/AZ35</f>
         <v>0.85690064428619872</v>
       </c>
-      <c r="BA36" s="10">
-        <f t="shared" ref="BA36" si="47">BA35/BA34</f>
+      <c r="BA37" s="10">
+        <f t="shared" ref="BA37" si="55">BA36/BA35</f>
         <v>0.85748626373626369</v>
       </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4">
-        <v>6</v>
-      </c>
-      <c r="L38" s="4">
-        <v>44</v>
-      </c>
-      <c r="M38" s="4">
-        <v>405</v>
-      </c>
-      <c r="N38" s="4">
-        <v>1882</v>
-      </c>
-      <c r="O38" s="4">
-        <v>5192</v>
-      </c>
-      <c r="P38" s="4">
-        <v>8261</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>8329</v>
-      </c>
-      <c r="R38" s="4">
-        <v>6950</v>
-      </c>
-      <c r="S38" s="4">
-        <v>5226</v>
-      </c>
-      <c r="T38" s="4">
-        <v>3991</v>
-      </c>
-      <c r="U38" s="4">
-        <v>2866</v>
-      </c>
-      <c r="V38" s="4">
-        <v>2286</v>
-      </c>
-      <c r="W38" s="4">
-        <v>1785</v>
-      </c>
-      <c r="X38" s="4">
-        <v>1312</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>951</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>679</v>
-      </c>
-      <c r="AA38" s="4">
-        <v>588</v>
-      </c>
-      <c r="AB38" s="4">
-        <v>428</v>
-      </c>
-      <c r="AC38" s="4">
-        <v>335</v>
-      </c>
-      <c r="AD38" s="4">
-        <v>233</v>
-      </c>
-      <c r="AE38" s="4">
-        <v>194</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>164</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>134</v>
-      </c>
-      <c r="AH38" s="4">
-        <v>141</v>
-      </c>
-      <c r="AI38" s="4">
-        <v>102</v>
-      </c>
-      <c r="AJ38" s="4">
-        <v>92</v>
-      </c>
-      <c r="AK38" s="4">
-        <v>77</v>
-      </c>
-      <c r="AL38" s="4">
-        <v>100</v>
-      </c>
-      <c r="AM38" s="4">
-        <v>168</v>
-      </c>
-      <c r="AN38" s="4">
-        <v>245</v>
-      </c>
-      <c r="AO38" s="4">
-        <v>379</v>
-      </c>
-      <c r="AP38" s="4">
-        <v>527</v>
-      </c>
-      <c r="AQ38" s="4">
-        <v>774</v>
-      </c>
-      <c r="AR38" s="4">
-        <v>1270</v>
-      </c>
-      <c r="AS38" s="4">
-        <v>1692</v>
-      </c>
-      <c r="AT38" s="4">
-        <v>2205</v>
-      </c>
-      <c r="AU38" s="4">
-        <v>2614</v>
-      </c>
-      <c r="AV38" s="4">
-        <v>2851</v>
-      </c>
-      <c r="AW38" s="4">
-        <v>3021</v>
-      </c>
-      <c r="AX38" s="4">
-        <v>2893</v>
-      </c>
-      <c r="AY38" s="4">
-        <v>2798</v>
-      </c>
-      <c r="AZ38" s="4">
-        <v>3020</v>
-      </c>
-      <c r="BA38" s="16"/>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="4">
-        <f>B38*B36</f>
         <v>0</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" ref="C39:AZ39" si="48">C38*C36</f>
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="48"/>
-        <v>40.74074074074074</v>
+        <v>44</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="48"/>
-        <v>387.33644859813086</v>
+        <v>405</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="48"/>
-        <v>1805.5759840558046</v>
+        <v>1882</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="48"/>
-        <v>4992.1015689512797</v>
+        <v>5192</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="48"/>
-        <v>7955.8545187362233</v>
+        <v>8261</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="48"/>
-        <v>7989.3708737864081</v>
+        <v>8329</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="48"/>
-        <v>6601.3312780269052</v>
+        <v>6950</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="48"/>
-        <v>4905.0454591068737</v>
+        <v>5226</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="48"/>
-        <v>3699.6673126614987</v>
+        <v>3991</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="48"/>
-        <v>2621.0082825441473</v>
+        <v>2866</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="48"/>
-        <v>2056.9335751530266</v>
+        <v>2286</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="48"/>
-        <v>1580.8504398826979</v>
+        <v>1785</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" si="48"/>
-        <v>1136.2250185048113</v>
+        <v>1312</v>
       </c>
       <c r="Y39" s="4">
-        <f t="shared" si="48"/>
-        <v>790.57828149710065</v>
+        <v>951</v>
       </c>
       <c r="Z39" s="4">
-        <f t="shared" si="48"/>
-        <v>550.92368610511164</v>
+        <v>679</v>
       </c>
       <c r="AA39" s="4">
-        <f t="shared" si="48"/>
-        <v>468.12653778558877</v>
+        <v>588</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="48"/>
-        <v>333.15367483296217</v>
+        <v>428</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="48"/>
-        <v>263.03328290468988</v>
+        <v>335</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="48"/>
-        <v>177.025390625</v>
+        <v>233</v>
       </c>
       <c r="AE39" s="4">
-        <f t="shared" si="48"/>
-        <v>146.20975609756098</v>
+        <v>194</v>
       </c>
       <c r="AF39" s="4">
-        <f t="shared" si="48"/>
-        <v>125.02028985507246</v>
+        <v>164</v>
       </c>
       <c r="AG39" s="4">
-        <f t="shared" si="48"/>
-        <v>100.84536082474227</v>
+        <v>134</v>
       </c>
       <c r="AH39" s="4">
-        <f t="shared" si="48"/>
-        <v>102.82310469314081</v>
+        <v>141</v>
       </c>
       <c r="AI39" s="4">
-        <f t="shared" si="48"/>
-        <v>74.259414225941427</v>
+        <v>102</v>
       </c>
       <c r="AJ39" s="4">
-        <f t="shared" si="48"/>
-        <v>74.52513966480447</v>
+        <v>92</v>
       </c>
       <c r="AK39" s="4">
-        <f t="shared" si="48"/>
-        <v>63.949152542372879</v>
+        <v>77</v>
       </c>
       <c r="AL39" s="4">
-        <f t="shared" si="48"/>
-        <v>82.35294117647058</v>
+        <v>100</v>
       </c>
       <c r="AM39" s="4">
-        <f t="shared" si="48"/>
-        <v>140.47457627118644</v>
+        <v>168</v>
       </c>
       <c r="AN39" s="4">
-        <f t="shared" si="48"/>
-        <v>208.88992537313433</v>
+        <v>245</v>
       </c>
       <c r="AO39" s="4">
-        <f t="shared" si="48"/>
-        <v>331.56258234519106</v>
+        <v>379</v>
       </c>
       <c r="AP39" s="4">
-        <f t="shared" si="48"/>
-        <v>463.74097472924188</v>
+        <v>527</v>
       </c>
       <c r="AQ39" s="4">
-        <f t="shared" si="48"/>
-        <v>687.5825242718447</v>
+        <v>774</v>
       </c>
       <c r="AR39" s="4">
-        <f t="shared" si="48"/>
-        <v>1115.3585065761563</v>
+        <v>1270</v>
       </c>
       <c r="AS39" s="4">
-        <f t="shared" si="48"/>
-        <v>1499.6344993968637</v>
+        <v>1692</v>
       </c>
       <c r="AT39" s="4">
-        <f t="shared" si="48"/>
-        <v>1959.6104928457869</v>
+        <v>2205</v>
       </c>
       <c r="AU39" s="4">
-        <f t="shared" si="48"/>
-        <v>2294.0216928142554</v>
+        <v>2614</v>
       </c>
       <c r="AV39" s="4">
-        <f t="shared" si="48"/>
-        <v>2483.7542269478822</v>
+        <v>2851</v>
       </c>
       <c r="AW39" s="4">
-        <f t="shared" si="48"/>
-        <v>2625.5703829787235</v>
+        <v>3021</v>
       </c>
       <c r="AX39" s="4">
-        <f t="shared" si="48"/>
-        <v>2486.8105884457163</v>
+        <v>2893</v>
       </c>
       <c r="AY39" s="4">
-        <f t="shared" si="48"/>
-        <v>2384.7809125740159</v>
+        <v>2798</v>
       </c>
       <c r="AZ39" s="4">
-        <f t="shared" si="48"/>
-        <v>2587.8399457443202</v>
+        <v>3020</v>
       </c>
       <c r="BA39" s="16"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-      <c r="AZ40" s="4"/>
-      <c r="BA40" s="4"/>
+      <c r="A40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B39*B37</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:AZ40" si="56">C39*C37</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="56"/>
+        <v>40.74074074074074</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="56"/>
+        <v>387.33644859813086</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="56"/>
+        <v>1805.5759840558046</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="56"/>
+        <v>4992.1015689512797</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="56"/>
+        <v>7955.8545187362233</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="56"/>
+        <v>7989.3708737864081</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="56"/>
+        <v>6601.3312780269052</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="56"/>
+        <v>4905.0454591068737</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="56"/>
+        <v>3699.6673126614987</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="56"/>
+        <v>2621.0082825441473</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="56"/>
+        <v>2056.9335751530266</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="56"/>
+        <v>1580.8504398826979</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="56"/>
+        <v>1136.2250185048113</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="56"/>
+        <v>790.57828149710065</v>
+      </c>
+      <c r="Z40" s="4">
+        <f t="shared" si="56"/>
+        <v>550.92368610511164</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="56"/>
+        <v>468.12653778558877</v>
+      </c>
+      <c r="AB40" s="4">
+        <f t="shared" si="56"/>
+        <v>333.15367483296217</v>
+      </c>
+      <c r="AC40" s="4">
+        <f t="shared" si="56"/>
+        <v>263.03328290468988</v>
+      </c>
+      <c r="AD40" s="4">
+        <f t="shared" si="56"/>
+        <v>177.025390625</v>
+      </c>
+      <c r="AE40" s="4">
+        <f t="shared" si="56"/>
+        <v>146.20975609756098</v>
+      </c>
+      <c r="AF40" s="4">
+        <f t="shared" si="56"/>
+        <v>125.02028985507246</v>
+      </c>
+      <c r="AG40" s="4">
+        <f t="shared" si="56"/>
+        <v>100.84536082474227</v>
+      </c>
+      <c r="AH40" s="4">
+        <f t="shared" si="56"/>
+        <v>102.82310469314081</v>
+      </c>
+      <c r="AI40" s="4">
+        <f t="shared" si="56"/>
+        <v>74.259414225941427</v>
+      </c>
+      <c r="AJ40" s="4">
+        <f t="shared" si="56"/>
+        <v>74.52513966480447</v>
+      </c>
+      <c r="AK40" s="4">
+        <f t="shared" si="56"/>
+        <v>63.949152542372879</v>
+      </c>
+      <c r="AL40" s="4">
+        <f t="shared" si="56"/>
+        <v>82.35294117647058</v>
+      </c>
+      <c r="AM40" s="4">
+        <f t="shared" si="56"/>
+        <v>140.47457627118644</v>
+      </c>
+      <c r="AN40" s="4">
+        <f t="shared" si="56"/>
+        <v>208.88992537313433</v>
+      </c>
+      <c r="AO40" s="4">
+        <f t="shared" si="56"/>
+        <v>331.56258234519106</v>
+      </c>
+      <c r="AP40" s="4">
+        <f t="shared" si="56"/>
+        <v>463.74097472924188</v>
+      </c>
+      <c r="AQ40" s="4">
+        <f t="shared" si="56"/>
+        <v>687.5825242718447</v>
+      </c>
+      <c r="AR40" s="4">
+        <f t="shared" si="56"/>
+        <v>1115.3585065761563</v>
+      </c>
+      <c r="AS40" s="4">
+        <f t="shared" si="56"/>
+        <v>1499.6344993968637</v>
+      </c>
+      <c r="AT40" s="4">
+        <f t="shared" si="56"/>
+        <v>1959.6104928457869</v>
+      </c>
+      <c r="AU40" s="4">
+        <f t="shared" si="56"/>
+        <v>2294.0216928142554</v>
+      </c>
+      <c r="AV40" s="4">
+        <f t="shared" si="56"/>
+        <v>2483.7542269478822</v>
+      </c>
+      <c r="AW40" s="4">
+        <f t="shared" si="56"/>
+        <v>2625.5703829787235</v>
+      </c>
+      <c r="AX40" s="4">
+        <f t="shared" si="56"/>
+        <v>2486.8105884457163</v>
+      </c>
+      <c r="AY40" s="4">
+        <f t="shared" si="56"/>
+        <v>2384.7809125740159</v>
+      </c>
+      <c r="AZ40" s="4">
+        <f t="shared" si="56"/>
+        <v>2587.8399457443202</v>
+      </c>
+      <c r="BA40" s="16"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="4">
-        <f>B13-B38</f>
-        <v>12431</v>
-      </c>
-      <c r="C41" s="4">
-        <f>C13-C38</f>
-        <v>12139</v>
-      </c>
-      <c r="D41" s="4">
-        <f>D13-D38</f>
-        <v>11746</v>
-      </c>
-      <c r="E41" s="4">
-        <f>E13-E38</f>
-        <v>10914</v>
-      </c>
-      <c r="F41" s="4">
-        <f>F13-F38</f>
-        <v>11093</v>
-      </c>
-      <c r="G41" s="4">
-        <f>G13-G38</f>
-        <v>10709</v>
-      </c>
-      <c r="H41" s="4">
-        <f>H13-H38</f>
-        <v>10808.082906305257</v>
-      </c>
-      <c r="I41" s="4">
-        <f>I13-I38</f>
-        <v>10746.883411382873</v>
-      </c>
-      <c r="J41" s="4">
-        <f>J13-J38</f>
-        <v>10775.778461448752</v>
-      </c>
-      <c r="K41" s="4">
-        <f>K13-K38</f>
-        <v>10876.185311282639</v>
-      </c>
-      <c r="L41" s="4">
-        <f>L13-L38</f>
-        <v>10683.122108367874</v>
-      </c>
-      <c r="M41" s="4">
-        <f>M13-M38</f>
-        <v>10488.827706278415</v>
-      </c>
-      <c r="N41" s="4">
-        <f>N13-N38</f>
-        <v>11715.979894342661</v>
-      </c>
-      <c r="O41" s="4">
-        <f>O13-O38</f>
-        <v>13168.032095051272</v>
-      </c>
-      <c r="P41" s="4">
-        <f>P13-P38</f>
-        <v>13518.869002604413</v>
-      </c>
-      <c r="Q41" s="4">
-        <f>Q13-Q38</f>
-        <v>13020.045798525829</v>
-      </c>
-      <c r="R41" s="4">
-        <f>R13-R38</f>
-        <v>11862.33864437143</v>
-      </c>
-      <c r="S41" s="4">
-        <f>S13-S38</f>
-        <v>10754.613068686513</v>
-      </c>
-      <c r="T41" s="4">
-        <f>T13-T38</f>
-        <v>9885.9330900418881</v>
-      </c>
-      <c r="U41" s="4">
-        <f>U13-U38</f>
-        <v>9242.2264415852605</v>
-      </c>
-      <c r="V41" s="4">
-        <f>V13-V38</f>
-        <v>8804.2938110901632</v>
-      </c>
-      <c r="W41" s="4">
-        <f>W13-W38</f>
-        <v>8587.156435877996</v>
-      </c>
-      <c r="X41" s="4">
-        <f>X13-X38</f>
-        <v>8558.4979098167241</v>
-      </c>
-      <c r="Y41" s="4">
-        <f>Y13-Y38</f>
-        <v>8510.3333982189142</v>
-      </c>
-      <c r="Z41" s="4">
-        <f>Z13-Z38</f>
-        <v>8385.8005047210991</v>
-      </c>
-      <c r="AA41" s="4">
-        <f>AA13-AA38</f>
-        <v>9073</v>
-      </c>
-      <c r="AB41" s="4">
-        <f>AB13-AB38</f>
-        <v>8312</v>
-      </c>
-      <c r="AC41" s="4">
-        <f>AC13-AC38</f>
-        <v>8345</v>
-      </c>
-      <c r="AD41" s="4">
-        <f>AD13-AD38</f>
-        <v>8660</v>
-      </c>
-      <c r="AE41" s="4">
-        <f>AE13-AE38</f>
-        <v>8876</v>
-      </c>
-      <c r="AF41" s="4">
-        <f>AF13-AF38</f>
-        <v>8707</v>
-      </c>
-      <c r="AG41" s="4">
-        <f>AG13-AG38</f>
-        <v>8889</v>
-      </c>
-      <c r="AH41" s="4">
-        <f>AH13-AH38</f>
-        <v>10013</v>
-      </c>
-      <c r="AI41" s="4">
-        <f>AI13-AI38</f>
-        <v>8751</v>
-      </c>
-      <c r="AJ41" s="4">
-        <f>AJ13-AJ38</f>
-        <v>8581</v>
-      </c>
-      <c r="AK41" s="4">
-        <f>AK13-AK38</f>
-        <v>9007</v>
-      </c>
-      <c r="AL41" s="4">
-        <f>AL13-AL38</f>
-        <v>9059</v>
-      </c>
-      <c r="AM41" s="4">
-        <f>AM13-AM38</f>
-        <v>9295</v>
-      </c>
-      <c r="AN41" s="4">
-        <f>AN13-AN38</f>
-        <v>9376</v>
-      </c>
-      <c r="AO41" s="4">
-        <f>AO13-AO38</f>
-        <v>9608</v>
-      </c>
-      <c r="AP41" s="4">
-        <f>AP13-AP38</f>
-        <v>9824</v>
-      </c>
-      <c r="AQ41" s="4">
-        <f>AQ13-AQ38</f>
-        <v>9618</v>
-      </c>
-      <c r="AR41" s="4">
-        <f>AR13-AR38</f>
-        <v>9808</v>
-      </c>
-      <c r="AS41" s="4">
-        <f>AS13-AS38</f>
-        <v>9739</v>
-      </c>
-      <c r="AT41" s="4">
-        <f>AT13-AT38</f>
-        <v>9583</v>
-      </c>
-      <c r="AU41" s="4">
-        <f>AU13-AU38</f>
-        <v>9756</v>
-      </c>
-      <c r="AV41" s="4">
-        <f>AV13-AV38</f>
-        <v>9487</v>
-      </c>
-      <c r="AW41" s="4">
-        <f>AW13-AW38</f>
-        <v>9435</v>
-      </c>
-      <c r="AX41" s="4">
-        <f>AX13-AX38</f>
-        <v>9782</v>
-      </c>
-      <c r="AY41" s="4">
-        <f>AY13-AY38</f>
-        <v>10239</v>
-      </c>
-      <c r="AZ41" s="4">
-        <f>AZ13-AZ38</f>
-        <v>10177</v>
-      </c>
-      <c r="BA41" s="16"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4">
-        <f>B13-B39</f>
+        <f t="shared" ref="B42:AG42" si="57">B13-B39</f>
         <v>12431</v>
       </c>
       <c r="C42" s="4">
-        <f>C13-C39</f>
+        <f t="shared" si="57"/>
         <v>12139</v>
       </c>
       <c r="D42" s="4">
-        <f>D13-D39</f>
+        <f t="shared" si="57"/>
         <v>11746</v>
       </c>
       <c r="E42" s="4">
-        <f>E13-E39</f>
+        <f t="shared" si="57"/>
         <v>10914</v>
       </c>
       <c r="F42" s="4">
-        <f>F13-F39</f>
+        <f t="shared" si="57"/>
         <v>11093</v>
       </c>
       <c r="G42" s="4">
-        <f>G13-G39</f>
+        <f t="shared" si="57"/>
         <v>10709</v>
       </c>
       <c r="H42" s="4">
-        <f>H13-H39</f>
+        <f t="shared" si="57"/>
         <v>10808.082906305257</v>
       </c>
       <c r="I42" s="4">
-        <f>I13-I39</f>
+        <f t="shared" si="57"/>
         <v>10746.883411382873</v>
       </c>
       <c r="J42" s="4">
-        <f>J13-J39</f>
+        <f t="shared" si="57"/>
         <v>10775.778461448752</v>
       </c>
       <c r="K42" s="4">
-        <f>K13-K39</f>
+        <f t="shared" si="57"/>
         <v>10876.185311282639</v>
       </c>
       <c r="L42" s="4">
-        <f>L13-L39</f>
-        <v>10686.381367627133</v>
+        <f t="shared" si="57"/>
+        <v>10683.122108367874</v>
       </c>
       <c r="M42" s="4">
-        <f>M13-M39</f>
-        <v>10506.491257680284</v>
+        <f t="shared" si="57"/>
+        <v>10488.827706278415</v>
       </c>
       <c r="N42" s="4">
-        <f>N13-N39</f>
-        <v>11792.403910286857</v>
+        <f t="shared" si="57"/>
+        <v>11715.979894342661</v>
       </c>
       <c r="O42" s="4">
-        <f>O13-O39</f>
-        <v>13367.930526099994</v>
+        <f t="shared" si="57"/>
+        <v>13168.032095051272</v>
       </c>
       <c r="P42" s="4">
-        <f>P13-P39</f>
-        <v>13824.01448386819</v>
+        <f t="shared" si="57"/>
+        <v>13518.869002604413</v>
       </c>
       <c r="Q42" s="4">
-        <f>Q13-Q39</f>
-        <v>13359.674924739422</v>
+        <f t="shared" si="57"/>
+        <v>13020.045798525829</v>
       </c>
       <c r="R42" s="4">
-        <f>R13-R39</f>
-        <v>12211.007366344526</v>
+        <f t="shared" si="57"/>
+        <v>11862.33864437143</v>
       </c>
       <c r="S42" s="4">
-        <f>S13-S39</f>
-        <v>11075.567609579639</v>
+        <f t="shared" si="57"/>
+        <v>10754.613068686513</v>
       </c>
       <c r="T42" s="4">
-        <f>T13-T39</f>
-        <v>10177.265777380389</v>
+        <f t="shared" si="57"/>
+        <v>9885.9330900418881</v>
       </c>
       <c r="U42" s="4">
-        <f>U13-U39</f>
-        <v>9487.2181590411128</v>
+        <f t="shared" si="57"/>
+        <v>9242.2264415852605</v>
       </c>
       <c r="V42" s="4">
-        <f>V13-V39</f>
-        <v>9033.3602359371362</v>
+        <f t="shared" si="57"/>
+        <v>8804.2938110901632</v>
       </c>
       <c r="W42" s="4">
-        <f>W13-W39</f>
-        <v>8791.3059959952989</v>
+        <f t="shared" si="57"/>
+        <v>8587.156435877996</v>
       </c>
       <c r="X42" s="4">
-        <f>X13-X39</f>
-        <v>8734.2728913119136</v>
+        <f t="shared" si="57"/>
+        <v>8558.4979098167241</v>
       </c>
       <c r="Y42" s="4">
-        <f>Y13-Y39</f>
-        <v>8670.7551167218135</v>
+        <f t="shared" si="57"/>
+        <v>8510.3333982189142</v>
       </c>
       <c r="Z42" s="4">
-        <f>Z13-Z39</f>
-        <v>8513.8768186159868</v>
+        <f t="shared" si="57"/>
+        <v>8385.8005047210991</v>
       </c>
       <c r="AA42" s="4">
-        <f>AA13-AA39</f>
-        <v>9192.8734622144111</v>
+        <f t="shared" si="57"/>
+        <v>9073</v>
       </c>
       <c r="AB42" s="4">
-        <f>AB13-AB39</f>
-        <v>8406.8463251670382</v>
+        <f t="shared" si="57"/>
+        <v>8312</v>
       </c>
       <c r="AC42" s="4">
-        <f>AC13-AC39</f>
-        <v>8416.9667170953107</v>
+        <f t="shared" si="57"/>
+        <v>8345</v>
       </c>
       <c r="AD42" s="4">
-        <f>AD13-AD39</f>
-        <v>8715.974609375</v>
+        <f t="shared" si="57"/>
+        <v>8660</v>
       </c>
       <c r="AE42" s="4">
-        <f>AE13-AE39</f>
-        <v>8923.7902439024383</v>
+        <f t="shared" si="57"/>
+        <v>8876</v>
       </c>
       <c r="AF42" s="4">
-        <f>AF13-AF39</f>
-        <v>8745.9797101449276</v>
+        <f t="shared" si="57"/>
+        <v>8707</v>
       </c>
       <c r="AG42" s="4">
-        <f>AG13-AG39</f>
-        <v>8922.1546391752581</v>
+        <f t="shared" si="57"/>
+        <v>8889</v>
       </c>
       <c r="AH42" s="4">
-        <f>AH13-AH39</f>
-        <v>10051.176895306859</v>
+        <f t="shared" ref="AH42:AZ42" si="58">AH13-AH39</f>
+        <v>10013</v>
       </c>
       <c r="AI42" s="4">
-        <f>AI13-AI39</f>
-        <v>8778.7405857740578</v>
+        <f t="shared" si="58"/>
+        <v>8751</v>
       </c>
       <c r="AJ42" s="4">
-        <f>AJ13-AJ39</f>
-        <v>8598.4748603351964</v>
+        <f t="shared" si="58"/>
+        <v>8581</v>
       </c>
       <c r="AK42" s="4">
-        <f>AK13-AK39</f>
-        <v>9020.0508474576272</v>
+        <f t="shared" si="58"/>
+        <v>9007</v>
       </c>
       <c r="AL42" s="4">
-        <f>AL13-AL39</f>
-        <v>9076.6470588235297</v>
+        <f t="shared" si="58"/>
+        <v>9059</v>
       </c>
       <c r="AM42" s="4">
-        <f>AM13-AM39</f>
-        <v>9322.5254237288136</v>
+        <f t="shared" si="58"/>
+        <v>9295</v>
       </c>
       <c r="AN42" s="4">
-        <f>AN13-AN39</f>
-        <v>9412.1100746268658</v>
+        <f t="shared" si="58"/>
+        <v>9376</v>
       </c>
       <c r="AO42" s="4">
-        <f>AO13-AO39</f>
-        <v>9655.4374176548081</v>
+        <f t="shared" si="58"/>
+        <v>9608</v>
       </c>
       <c r="AP42" s="4">
-        <f>AP13-AP39</f>
-        <v>9887.2590252707578</v>
+        <f t="shared" si="58"/>
+        <v>9824</v>
       </c>
       <c r="AQ42" s="4">
-        <f>AQ13-AQ39</f>
-        <v>9704.4174757281544</v>
+        <f t="shared" si="58"/>
+        <v>9618</v>
       </c>
       <c r="AR42" s="4">
-        <f>AR13-AR39</f>
-        <v>9962.6414934238437</v>
+        <f t="shared" si="58"/>
+        <v>9808</v>
       </c>
       <c r="AS42" s="4">
-        <f>AS13-AS39</f>
-        <v>9931.3655006031368</v>
+        <f t="shared" si="58"/>
+        <v>9739</v>
       </c>
       <c r="AT42" s="4">
-        <f>AT13-AT39</f>
-        <v>9828.3895071542138</v>
+        <f t="shared" si="58"/>
+        <v>9583</v>
       </c>
       <c r="AU42" s="4">
-        <f>AU13-AU39</f>
-        <v>10075.978307185746</v>
+        <f t="shared" si="58"/>
+        <v>9756</v>
       </c>
       <c r="AV42" s="4">
-        <f>AV13-AV39</f>
-        <v>9854.2457730521182</v>
+        <f t="shared" si="58"/>
+        <v>9487</v>
       </c>
       <c r="AW42" s="4">
-        <f>AW13-AW39</f>
-        <v>9830.4296170212765</v>
+        <f t="shared" si="58"/>
+        <v>9435</v>
       </c>
       <c r="AX42" s="4">
-        <f>AX13-AX39</f>
-        <v>10188.189411554284</v>
+        <f t="shared" si="58"/>
+        <v>9782</v>
       </c>
       <c r="AY42" s="4">
-        <f>AY13-AY39</f>
-        <v>10652.219087425983</v>
+        <f t="shared" si="58"/>
+        <v>10239</v>
       </c>
       <c r="AZ42" s="4">
-        <f>AZ13-AZ39</f>
-        <v>10609.160054255681</v>
+        <f t="shared" si="58"/>
+        <v>10177</v>
       </c>
       <c r="BA42" s="16"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" ref="B43:AG43" si="59">B13-B40</f>
+        <v>12431</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="59"/>
+        <v>12139</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="59"/>
+        <v>11746</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="59"/>
+        <v>10914</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="59"/>
+        <v>11093</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="59"/>
+        <v>10709</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="59"/>
+        <v>10808.082906305257</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="59"/>
+        <v>10746.883411382873</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="59"/>
+        <v>10775.778461448752</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="59"/>
+        <v>10876.185311282639</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="59"/>
+        <v>10686.381367627133</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="59"/>
+        <v>10506.491257680284</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="59"/>
+        <v>11792.403910286857</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="59"/>
+        <v>13367.930526099994</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="59"/>
+        <v>13824.01448386819</v>
+      </c>
+      <c r="Q43" s="4">
+        <f t="shared" si="59"/>
+        <v>13359.674924739422</v>
+      </c>
+      <c r="R43" s="4">
+        <f t="shared" si="59"/>
+        <v>12211.007366344526</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" si="59"/>
+        <v>11075.567609579639</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" si="59"/>
+        <v>10177.265777380389</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="59"/>
+        <v>9487.2181590411128</v>
+      </c>
+      <c r="V43" s="4">
+        <f t="shared" si="59"/>
+        <v>9033.3602359371362</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="59"/>
+        <v>8791.3059959952989</v>
+      </c>
+      <c r="X43" s="4">
+        <f t="shared" si="59"/>
+        <v>8734.2728913119136</v>
+      </c>
+      <c r="Y43" s="4">
+        <f t="shared" si="59"/>
+        <v>8670.7551167218135</v>
+      </c>
+      <c r="Z43" s="4">
+        <f t="shared" si="59"/>
+        <v>8513.8768186159868</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="59"/>
+        <v>9192.8734622144111</v>
+      </c>
+      <c r="AB43" s="4">
+        <f t="shared" si="59"/>
+        <v>8406.8463251670382</v>
+      </c>
+      <c r="AC43" s="4">
+        <f t="shared" si="59"/>
+        <v>8416.9667170953107</v>
+      </c>
+      <c r="AD43" s="4">
+        <f t="shared" si="59"/>
+        <v>8715.974609375</v>
+      </c>
+      <c r="AE43" s="4">
+        <f t="shared" si="59"/>
+        <v>8923.7902439024383</v>
+      </c>
+      <c r="AF43" s="4">
+        <f t="shared" si="59"/>
+        <v>8745.9797101449276</v>
+      </c>
+      <c r="AG43" s="4">
+        <f t="shared" si="59"/>
+        <v>8922.1546391752581</v>
+      </c>
+      <c r="AH43" s="4">
+        <f t="shared" ref="AH43:AZ43" si="60">AH13-AH40</f>
+        <v>10051.176895306859</v>
+      </c>
+      <c r="AI43" s="4">
+        <f t="shared" si="60"/>
+        <v>8778.7405857740578</v>
+      </c>
+      <c r="AJ43" s="4">
+        <f t="shared" si="60"/>
+        <v>8598.4748603351964</v>
+      </c>
+      <c r="AK43" s="4">
+        <f t="shared" si="60"/>
+        <v>9020.0508474576272</v>
+      </c>
+      <c r="AL43" s="4">
+        <f t="shared" si="60"/>
+        <v>9076.6470588235297</v>
+      </c>
+      <c r="AM43" s="4">
+        <f t="shared" si="60"/>
+        <v>9322.5254237288136</v>
+      </c>
+      <c r="AN43" s="4">
+        <f t="shared" si="60"/>
+        <v>9412.1100746268658</v>
+      </c>
+      <c r="AO43" s="4">
+        <f t="shared" si="60"/>
+        <v>9655.4374176548081</v>
+      </c>
+      <c r="AP43" s="4">
+        <f t="shared" si="60"/>
+        <v>9887.2590252707578</v>
+      </c>
+      <c r="AQ43" s="4">
+        <f t="shared" si="60"/>
+        <v>9704.4174757281544</v>
+      </c>
+      <c r="AR43" s="4">
+        <f t="shared" si="60"/>
+        <v>9962.6414934238437</v>
+      </c>
+      <c r="AS43" s="4">
+        <f t="shared" si="60"/>
+        <v>9931.3655006031368</v>
+      </c>
+      <c r="AT43" s="4">
+        <f t="shared" si="60"/>
+        <v>9828.3895071542138</v>
+      </c>
+      <c r="AU43" s="4">
+        <f t="shared" si="60"/>
+        <v>10075.978307185746</v>
+      </c>
+      <c r="AV43" s="4">
+        <f t="shared" si="60"/>
+        <v>9854.2457730521182</v>
+      </c>
+      <c r="AW43" s="4">
+        <f t="shared" si="60"/>
+        <v>9830.4296170212765</v>
+      </c>
+      <c r="AX43" s="4">
+        <f t="shared" si="60"/>
+        <v>10188.189411554284</v>
+      </c>
+      <c r="AY43" s="4">
+        <f t="shared" si="60"/>
+        <v>10652.219087425983</v>
+      </c>
+      <c r="AZ43" s="4">
+        <f t="shared" si="60"/>
+        <v>10609.160054255681</v>
+      </c>
+      <c r="BA43" s="16"/>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:BA13">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>B$20</formula>
+      <formula>B$21</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>B$21</formula>
+      <formula>B$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:AZ13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>B$21</formula>
+      <formula>B$22</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:D24 E24:BA24 L34:BA35 K34:K35 AH18:BA18 B18:AG18" formulaRange="1"/>
+    <ignoredError sqref="B25:D25 E25:BA25 L35:BA36 K35:K36 AH18:BA18 B18:AG18" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -27761,7 +28085,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excess_deaths_explanation/2020_vs_10y_by_date_of_occurrence.xlsx
+++ b/data/excess_deaths_explanation/2020_vs_10y_by_date_of_occurrence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\excess_deaths_explanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FABCA-89A8-487E-A267-581C375598FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30206C-9441-408F-8EDC-4CA6B9660C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{99891810-AEF2-4EE9-B876-20B0CB097BF8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="screenshot" sheetId="4" r:id="rId2"/>
     <sheet name="review" sheetId="2" r:id="rId3"/>
-    <sheet name="chart" sheetId="3" r:id="rId4"/>
+    <sheet name="alt_chart" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Upper 95% confidence interval of estimate</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>Check</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
   <si>
     <t>Note</t>
@@ -96,7 +90,16 @@
     <t>Total deaths - 10 year average</t>
   </si>
   <si>
-    <t>NOT NORMAL</t>
+    <t>Above 10 year maximum</t>
+  </si>
+  <si>
+    <t>10 year min</t>
+  </si>
+  <si>
+    <t>10 year max</t>
+  </si>
+  <si>
+    <t>Total deaths - 2020 all causes</t>
   </si>
 </sst>
 </file>
@@ -263,6 +266,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE8FD1F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11445,7 +11453,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Min</c:v>
+                  <c:v>10 year min</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11811,7 +11819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Max</c:v>
+                  <c:v>10 year max</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12412,9 +12420,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>in England + Wales 2020
-</a:t>
+              <a:t>in England + Wales 2020 compared to 2010-2019</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
               <a:t>All figures based on date</a:t>
@@ -12480,7 +12492,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Min</c:v>
+                  <c:v>10 year min</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12827,7 +12839,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000000-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13184,27 +13196,30 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000001-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>raw!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NOT NORMAL</c:v>
+                  <c:v>Above 10 year maximum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13378,7 +13393,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C810-42B5-BA12-C12B56AAC589}"/>
+              <c16:uniqueId val="{00000002-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13397,8 +13412,410 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 year min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$B$21:$BA$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>10732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9616</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9425</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9358</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9381</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8928</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8690</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8454</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8272</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8167</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8260</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8325</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8247</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8381</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8331</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8515</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8523</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9230</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9027</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9171</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9158</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9282</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9643</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9932</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9984</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B5F0-4126-BFE8-F7A2645621DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 year max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$B$22:$BA$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>14308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12695</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11439</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10088</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9682</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9449</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9385</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9855</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9243</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9172</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9213</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9207</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9257</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9368</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9926</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10091</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10049</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10217</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10493</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10817</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11044</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11488</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12232</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B5F0-4126-BFE8-F7A2645621DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>raw!$A$18</c:f>
@@ -13759,15 +14176,23 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000003-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>Total deaths - all causes</c:v>
+            <c:strRef>
+              <c:f>raw!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total deaths - 2020 all causes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -14119,13 +14544,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000004-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="4"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>raw!$A$43</c:f>
@@ -14482,13 +14907,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000005-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>raw!$A$42</c:f>
@@ -14845,13 +15270,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000006-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>raw!$A$40</c:f>
@@ -15208,13 +15633,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B83D-4EA7-B0D2-1EB53F59015E}"/>
+              <c16:uniqueId val="{00000007-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="7"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>raw!$A$39</c:f>
@@ -15571,381 +15996,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B83D-4EA7-B0D2-1EB53F59015E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>raw!$B$21:$BA$21</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>10732</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10532</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9878</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9958</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9705</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9553</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9496</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9616</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9542</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9425</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9358</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9248</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9092</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9381</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8886</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8928</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8621</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8690</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8722</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8312</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8334</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8458</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8454</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8437</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8188</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8272</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8167</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8169</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8260</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8325</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8247</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8381</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8331</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8515</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8715</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8880</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8523</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8525</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9103</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9230</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9027</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9171</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9158</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9282</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9643</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9932</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9984</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C810-42B5-BA12-C12B56AAC589}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>raw!$B$22:$BA$22</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>14308</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14653</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13640</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13659</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12695</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12221</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12244</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12147</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12877</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11577</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11221</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10134</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10026</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9952</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10088</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9682</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9458</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9449</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9385</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9855</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9154</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9243</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9503</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9141</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9713</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8988</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9172</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9213</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9207</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9412</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9257</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9368</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9836</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9750</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9926</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10091</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10049</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10217</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10493</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10818</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10817</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11044</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11169</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11488</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12232</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C810-42B5-BA12-C12B56AAC589}"/>
+              <c16:uniqueId val="{00000008-B5F0-4126-BFE8-F7A2645621DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15962,7 +16013,7 @@
         <c:axId val="772701496"/>
         <c:axId val="772705104"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="772701496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -16009,9 +16060,10 @@
         <c:crossAx val="772705104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="772705104"/>
         <c:scaling>
@@ -16082,6 +16134,14 @@
       <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -20963,7 +21023,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB0A753-FBD5-4F27-AF73-9FBA8A710D88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C37B94-EBFC-4580-93AF-47F774DC1929}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21097,7 +21157,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Created 10 Jan</a:t>
+            <a:t>Created 11 Jan</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -21284,7 +21344,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Slightly below 5 year range, just like in Australia + NZ during Jun / Jul 2020</a:t>
+            <a:t>Slightly below 10 year range, just like in Australia + NZ during Jun / Jul 2020</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1050">
             <a:solidFill>
@@ -21774,7 +21834,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21786,7 +21846,7 @@
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -23775,8 +23835,8 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>2020</v>
+      <c r="A13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G13" si="1">B14</f>
@@ -23988,7 +24048,7 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>12431</v>
@@ -24147,7 +24207,7 @@
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -24564,7 +24624,7 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ref="B18:AG18" si="4">AVERAGE(B3:B12)</f>
@@ -24777,7 +24837,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <f>IF(B13-B22&gt;0,B13-B22,0)</f>
@@ -24990,7 +25050,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <f>MIN(B$3:B$12)</f>
@@ -25203,7 +25263,7 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <f>MAX(B$3:B$12)</f>
@@ -25416,7 +25476,7 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
         <f>B22-B21</f>
@@ -26055,10 +26115,10 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -26114,7 +26174,7 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -26275,7 +26335,7 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -26436,7 +26496,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L33" s="10">
         <f>L32/L31</f>
@@ -26609,7 +26669,7 @@
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -26795,7 +26855,7 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -26981,7 +27041,7 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="12">
         <v>1</v>
@@ -27185,7 +27245,7 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -27344,7 +27404,7 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="4">
         <f>B39*B37</f>
@@ -27609,7 +27669,7 @@
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42:AG42" si="57">B13-B39</f>
@@ -27819,7 +27879,7 @@
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" ref="B43:AG43" si="59">B13-B40</f>
@@ -28081,11 +28141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6306F4-C892-477B-B984-FAD42EE0881C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792425F7-E480-49BC-A2B2-FEBB50035096}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
